--- a/performance metrics/ibbs-web-app-metrics-combined.xlsx
+++ b/performance metrics/ibbs-web-app-metrics-combined.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesse.abdul\Documents\Version Control\Git\ibbs-web-app-metrics\performance metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16F0152-A6CA-4B52-A190-90EFC8B35222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9ED427-2BBD-495D-AEE8-871570BDCEF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ibbs-web-app-metrics" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="33">
   <si>
     <t>Date/Time</t>
   </si>
@@ -119,22 +119,10 @@
     <t>Screenshot File</t>
   </si>
   <si>
-    <t>IBBS APEX app</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>remote</t>
-  </si>
-  <si>
     <t>Login</t>
   </si>
   <si>
     <t>Page Load</t>
-  </si>
-  <si>
-    <t>Login.png</t>
   </si>
   <si>
     <t>Full Sampling Plan Report</t>
@@ -143,31 +131,16 @@
     <t>Login/Page Load</t>
   </si>
   <si>
-    <t>Full Sampling Plan Report.png</t>
-  </si>
-  <si>
     <t>Page Reload/Filter Report</t>
-  </si>
-  <si>
-    <t>Full Sampling Plan Report filter.png</t>
   </si>
   <si>
     <t>View Specimens</t>
   </si>
   <si>
-    <t>View Specimens.png</t>
-  </si>
-  <si>
     <t>View/Edit Specimen</t>
   </si>
   <si>
-    <t>View Edit Specimen.png</t>
-  </si>
-  <si>
     <t>Form submission</t>
-  </si>
-  <si>
-    <t>View Edit Specimen post specimen record insert.png</t>
   </si>
   <si>
     <t>Ratio Remote/Local</t>
@@ -884,21 +857,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -915,6 +873,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1274,9 +1247,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J636"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2:F7"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1323,643 +1296,67 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="17">
-        <v>45512.556319444448</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2">
-        <v>25</v>
-      </c>
-      <c r="H2" s="14">
-        <v>691.42</v>
-      </c>
-      <c r="I2">
-        <v>2.6920000000000002</v>
-      </c>
-      <c r="J2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="17">
-        <v>45512.556354166663</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3">
-        <v>46</v>
-      </c>
-      <c r="H3" s="14">
-        <v>1115.9000000000001</v>
-      </c>
-      <c r="I3">
-        <v>2.78</v>
-      </c>
-      <c r="J3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="17">
-        <v>45512.556388888886</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4">
-        <v>50</v>
-      </c>
-      <c r="H4" s="14">
-        <v>1121.7</v>
-      </c>
-      <c r="I4">
-        <v>2.2370000000000001</v>
-      </c>
-      <c r="J4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="17">
-        <v>45512.556423611109</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5">
-        <v>45</v>
-      </c>
-      <c r="H5" s="14">
-        <v>1451.97</v>
-      </c>
-      <c r="I5">
-        <v>4.0449999999999999</v>
-      </c>
-      <c r="J5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="17">
-        <v>45512.556469907409</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6">
-        <v>31</v>
-      </c>
-      <c r="H6" s="14">
-        <v>609.77</v>
-      </c>
-      <c r="I6">
-        <v>1.724</v>
-      </c>
-      <c r="J6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="17">
-        <v>45512.556539351855</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7">
-        <v>61</v>
-      </c>
-      <c r="H7" s="14">
-        <v>1369.75</v>
-      </c>
-      <c r="I7">
-        <v>8.2089999999999996</v>
-      </c>
-      <c r="J7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="17">
-        <v>45512.556990740741</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8">
-        <v>24</v>
-      </c>
-      <c r="H8" s="14">
-        <v>26.23</v>
-      </c>
-      <c r="I8">
-        <v>3.6869999999999998</v>
-      </c>
-      <c r="J8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="17">
-        <v>45512.557037037041</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9">
-        <v>41</v>
-      </c>
-      <c r="H9" s="14">
-        <v>1974.42</v>
-      </c>
-      <c r="I9">
-        <v>2.7130000000000001</v>
-      </c>
-      <c r="J9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="17">
-        <v>45512.557071759256</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10">
-        <v>41</v>
-      </c>
-      <c r="H10" s="14">
-        <v>3833.54</v>
-      </c>
-      <c r="I10">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="J10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="17">
-        <v>45512.55709490741</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11">
-        <v>34</v>
-      </c>
-      <c r="H11" s="14">
-        <v>3146.74</v>
-      </c>
-      <c r="I11">
-        <v>4.8339999999999996</v>
-      </c>
-      <c r="J11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="17">
-        <v>45512.557152777779</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12">
-        <v>35</v>
-      </c>
-      <c r="H12" s="14">
-        <v>3142.13</v>
-      </c>
-      <c r="I12">
-        <v>1.6639999999999999</v>
-      </c>
-      <c r="J12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="17">
-        <v>45512.557222222225</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13">
-        <v>54</v>
-      </c>
-      <c r="H13" s="14">
-        <v>3854.18</v>
-      </c>
-      <c r="I13">
-        <v>4.915</v>
-      </c>
-      <c r="J13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="17">
-        <v>45512.559178240743</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14">
-        <v>24</v>
-      </c>
-      <c r="H14" s="14">
-        <v>690.32</v>
-      </c>
-      <c r="I14">
-        <v>3.3679999999999999</v>
-      </c>
-      <c r="J14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="17">
-        <v>45512.559224537035</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15">
-        <v>49</v>
-      </c>
-      <c r="H15" s="14">
-        <v>1119.9100000000001</v>
-      </c>
-      <c r="I15">
-        <v>4.3719999999999999</v>
-      </c>
-      <c r="J15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="17">
-        <v>45512.559270833335</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16">
-        <v>48</v>
-      </c>
-      <c r="H16" s="14">
-        <v>1118.81</v>
-      </c>
-      <c r="I16">
-        <v>3.52</v>
-      </c>
-      <c r="J16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="17">
-        <v>45512.559317129628</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17">
-        <v>43</v>
-      </c>
-      <c r="H17" s="14">
-        <v>1214.9000000000001</v>
-      </c>
-      <c r="I17">
-        <v>7.29</v>
-      </c>
-      <c r="J17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="17">
-        <v>45512.55940972222</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18">
-        <v>33</v>
-      </c>
-      <c r="H18" s="14">
-        <v>846.83</v>
-      </c>
-      <c r="I18">
-        <v>3.0129999999999999</v>
-      </c>
-      <c r="J18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="17">
-        <v>45512.559490740743</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19">
-        <v>61</v>
-      </c>
-      <c r="H19" s="14">
-        <v>1369.77</v>
-      </c>
-      <c r="I19">
-        <v>4.74</v>
-      </c>
-      <c r="J19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D20" s="15"/>
       <c r="E20"/>
       <c r="H20"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D21" s="15"/>
       <c r="E21"/>
       <c r="H21"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D22" s="15"/>
       <c r="E22"/>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D23" s="15"/>
       <c r="E23"/>
       <c r="H23"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D24" s="15"/>
       <c r="E24"/>
       <c r="H24"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D25" s="15"/>
       <c r="E25"/>
       <c r="H25"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D26" s="15"/>
       <c r="E26"/>
       <c r="H26"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D27" s="15"/>
       <c r="E27"/>
       <c r="H27"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D28" s="15"/>
       <c r="E28"/>
       <c r="H28"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D29" s="15"/>
       <c r="E29"/>
       <c r="H29"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D30" s="15"/>
       <c r="E30"/>
       <c r="H30"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D31" s="15"/>
       <c r="E31"/>
       <c r="H31"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D32" s="15"/>
       <c r="E32"/>
       <c r="H32"/>
@@ -4994,8 +4391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AX8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="AO13" sqref="AO13"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="AT3" sqref="AT3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5008,72 +4405,72 @@
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="44" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="42" t="s">
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="50" t="s">
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="50" t="s">
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK1" s="48"/>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="48"/>
-      <c r="AN1" s="49"/>
-      <c r="AO1" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP1" s="48"/>
-      <c r="AQ1" s="48"/>
-      <c r="AR1" s="48"/>
-      <c r="AS1" s="49"/>
-      <c r="AT1" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="AU1" s="48"/>
-      <c r="AV1" s="48"/>
-      <c r="AW1" s="48"/>
-      <c r="AX1" s="49"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="44"/>
+      <c r="AO1" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP1" s="43"/>
+      <c r="AQ1" s="43"/>
+      <c r="AR1" s="43"/>
+      <c r="AS1" s="44"/>
+      <c r="AT1" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU1" s="43"/>
+      <c r="AV1" s="43"/>
+      <c r="AW1" s="43"/>
+      <c r="AX1" s="44"/>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -5229,30 +4626,30 @@
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C3" s="18" cm="1">
         <f t="array" ref="C3">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A3)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="19" cm="1">
         <f t="array" ref="D3">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A3)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
-        <v>3.6869999999999998</v>
+        <v>0</v>
       </c>
       <c r="E3" s="19" cm="1">
         <f t="array" ref="E3">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A3)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
-        <v>3.6869999999999998</v>
-      </c>
-      <c r="F3" s="19" cm="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="19" t="e" cm="1">
         <f t="array" ref="F3">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A3)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
-        <v>3.6869999999999998</v>
-      </c>
-      <c r="G3" s="19" cm="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G3" s="19" t="e" cm="1">
         <f t="array" ref="G3">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A3)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
-        <v>3.6869999999999998</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" s="20" t="e" cm="1">
         <f t="array" ref="H3">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A3)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
@@ -5260,27 +4657,27 @@
       </c>
       <c r="I3" s="19" cm="1">
         <f t="array" ref="I3">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A3)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="19" cm="1">
         <f t="array" ref="J3">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A3)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
-        <v>2.6920000000000002</v>
+        <v>0</v>
       </c>
       <c r="K3" s="19" cm="1">
         <f t="array" ref="K3">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A3)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
-        <v>3.3679999999999999</v>
-      </c>
-      <c r="L3" s="19" cm="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="19" t="e" cm="1">
         <f t="array" ref="L3">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A3)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
-        <v>3.0300000000000002</v>
-      </c>
-      <c r="M3" s="19" cm="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M3" s="19" t="e" cm="1">
         <f t="array" ref="M3">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A3)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
-        <v>3.0300000000000002</v>
-      </c>
-      <c r="N3" s="20" cm="1">
+        <v>#NUM!</v>
+      </c>
+      <c r="N3" s="20" t="e" cm="1">
         <f t="array" ref="N3">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A3)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
-        <v>0.47800418408210477</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O3" s="19" cm="1">
         <f t="array" ref="O3">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A3)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
@@ -5306,21 +4703,21 @@
         <f t="array" ref="T3">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A3)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U3" s="39">
+      <c r="U3" s="39" t="e">
         <f>J3/D3</f>
-        <v>0.73013289937618664</v>
-      </c>
-      <c r="V3" s="8">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V3" s="8" t="e">
         <f>K3/E3</f>
-        <v>0.91347979387035527</v>
-      </c>
-      <c r="W3" s="8">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W3" s="8" t="e">
         <f>L3/F3</f>
-        <v>0.82180634662327101</v>
-      </c>
-      <c r="X3" s="8">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X3" s="8" t="e">
         <f>M3/G3</f>
-        <v>0.82180634662327101</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y3" s="9" t="e">
         <f>N3/H3</f>
@@ -5328,31 +4725,31 @@
       </c>
       <c r="Z3" s="10">
         <f>J3-D3</f>
-        <v>-0.99499999999999966</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="11">
         <f>K3-E3</f>
-        <v>-0.31899999999999995</v>
-      </c>
-      <c r="AB3" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="11" t="e">
         <f>L3-F3</f>
-        <v>-0.65699999999999958</v>
-      </c>
-      <c r="AC3" s="11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC3" s="11" t="e">
         <f>M3-G3</f>
-        <v>-0.65699999999999958</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD3" s="12" t="e">
         <f>N3-H3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE3" s="10">
+      <c r="AE3" s="10" t="e">
         <f t="shared" ref="AE3:AI8" si="0">P3/D3</f>
-        <v>0</v>
-      </c>
-      <c r="AF3" s="11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF3" s="11" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AG3" s="11" t="e">
         <f t="shared" si="0"/>
@@ -5368,11 +4765,11 @@
       </c>
       <c r="AJ3" s="10">
         <f t="shared" ref="AJ3:AN8" si="1">P3-D3</f>
-        <v>-3.6869999999999998</v>
+        <v>0</v>
       </c>
       <c r="AK3" s="11">
         <f t="shared" si="1"/>
-        <v>-3.6869999999999998</v>
+        <v>0</v>
       </c>
       <c r="AL3" s="11" t="e">
         <f t="shared" si="1"/>
@@ -5408,11 +4805,11 @@
       </c>
       <c r="AT3" s="10">
         <f t="shared" ref="AT3:AX8" si="3">J3 - P3</f>
-        <v>2.6920000000000002</v>
+        <v>0</v>
       </c>
       <c r="AU3" s="11">
         <f t="shared" si="3"/>
-        <v>3.3679999999999999</v>
+        <v>0</v>
       </c>
       <c r="AV3" s="11" t="e">
         <f t="shared" si="3"/>
@@ -5429,30 +4826,30 @@
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C4" s="23" cm="1">
         <f t="array" ref="C4">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A4)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="21" cm="1">
         <f t="array" ref="D4">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A4)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
-        <v>2.7130000000000001</v>
+        <v>0</v>
       </c>
       <c r="E4" s="21" cm="1">
         <f t="array" ref="E4">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A4)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
-        <v>2.7130000000000001</v>
-      </c>
-      <c r="F4" s="21" cm="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="21" t="e" cm="1">
         <f t="array" ref="F4">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A4)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
-        <v>2.7130000000000001</v>
-      </c>
-      <c r="G4" s="21" cm="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G4" s="21" t="e" cm="1">
         <f t="array" ref="G4">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A4)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
-        <v>2.7130000000000001</v>
+        <v>#NUM!</v>
       </c>
       <c r="H4" s="24" t="e" cm="1">
         <f t="array" ref="H4">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A4)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
@@ -5460,27 +4857,27 @@
       </c>
       <c r="I4" s="21" cm="1">
         <f t="array" ref="I4">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A4)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" s="21" cm="1">
         <f t="array" ref="J4">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A4)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
-        <v>2.78</v>
+        <v>0</v>
       </c>
       <c r="K4" s="21" cm="1">
         <f t="array" ref="K4">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A4)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
-        <v>4.3719999999999999</v>
-      </c>
-      <c r="L4" s="21" cm="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="21" t="e" cm="1">
         <f t="array" ref="L4">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A4)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
-        <v>3.5759999999999996</v>
-      </c>
-      <c r="M4" s="21" cm="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M4" s="21" t="e" cm="1">
         <f t="array" ref="M4">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A4)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
-        <v>3.5759999999999996</v>
-      </c>
-      <c r="N4" s="24" cm="1">
+        <v>#NUM!</v>
+      </c>
+      <c r="N4" s="24" t="e" cm="1">
         <f t="array" ref="N4">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A4)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
-        <v>1.1257139956489837</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O4" s="21" cm="1">
         <f t="array" ref="O4">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A4)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
@@ -5506,21 +4903,21 @@
         <f t="array" ref="T4">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A4)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U4" s="40">
+      <c r="U4" s="40" t="e">
         <f t="shared" ref="U4:U7" si="4">J4/D4</f>
-        <v>1.0246959085882785</v>
-      </c>
-      <c r="V4" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V4" s="3" t="e">
         <f t="shared" ref="V4:Y7" si="5">K4/E4</f>
-        <v>1.6115001842978252</v>
-      </c>
-      <c r="W4" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W4" s="3" t="e">
         <f t="shared" si="5"/>
-        <v>1.3180980464430518</v>
-      </c>
-      <c r="X4" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X4" s="3" t="e">
         <f t="shared" si="5"/>
-        <v>1.3180980464430518</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y4" s="4" t="e">
         <f t="shared" si="5"/>
@@ -5528,31 +4925,31 @@
       </c>
       <c r="Z4" s="34">
         <f t="shared" ref="Z4:Z8" si="6">J4-D4</f>
-        <v>6.6999999999999726E-2</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="32">
         <f t="shared" ref="AA4:AA8" si="7">K4-E4</f>
-        <v>1.6589999999999998</v>
-      </c>
-      <c r="AB4" s="32">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="32" t="e">
         <f t="shared" ref="AB4:AB8" si="8">L4-F4</f>
-        <v>0.86299999999999955</v>
-      </c>
-      <c r="AC4" s="32">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC4" s="32" t="e">
         <f t="shared" ref="AC4:AC8" si="9">M4-G4</f>
-        <v>0.86299999999999955</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD4" s="35" t="e">
         <f t="shared" ref="AD4:AD8" si="10">N4-H4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE4" s="34">
+      <c r="AE4" s="34" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF4" s="32">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF4" s="32" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AG4" s="32" t="e">
         <f t="shared" si="0"/>
@@ -5568,11 +4965,11 @@
       </c>
       <c r="AJ4" s="34">
         <f t="shared" si="1"/>
-        <v>-2.7130000000000001</v>
+        <v>0</v>
       </c>
       <c r="AK4" s="32">
         <f t="shared" si="1"/>
-        <v>-2.7130000000000001</v>
+        <v>0</v>
       </c>
       <c r="AL4" s="32" t="e">
         <f t="shared" si="1"/>
@@ -5608,11 +5005,11 @@
       </c>
       <c r="AT4" s="34">
         <f t="shared" si="3"/>
-        <v>2.78</v>
+        <v>0</v>
       </c>
       <c r="AU4" s="32">
         <f t="shared" si="3"/>
-        <v>4.3719999999999999</v>
+        <v>0</v>
       </c>
       <c r="AV4" s="32" t="e">
         <f t="shared" si="3"/>
@@ -5629,30 +5026,30 @@
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C5" s="23" cm="1">
         <f t="array" ref="C5">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A5)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="21" cm="1">
         <f t="array" ref="D5">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A5)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
-        <v>2.0099999999999998</v>
+        <v>0</v>
       </c>
       <c r="E5" s="21" cm="1">
         <f t="array" ref="E5">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A5)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="F5" s="21" cm="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="21" t="e" cm="1">
         <f t="array" ref="F5">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A5)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="G5" s="21" cm="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G5" s="21" t="e" cm="1">
         <f t="array" ref="G5">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A5)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
-        <v>2.0099999999999998</v>
+        <v>#NUM!</v>
       </c>
       <c r="H5" s="24" t="e" cm="1">
         <f t="array" ref="H5">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A5)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
@@ -5660,27 +5057,27 @@
       </c>
       <c r="I5" s="21" cm="1">
         <f t="array" ref="I5">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A5)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" s="21" cm="1">
         <f t="array" ref="J5">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A5)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
-        <v>2.2370000000000001</v>
+        <v>0</v>
       </c>
       <c r="K5" s="21" cm="1">
         <f t="array" ref="K5">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A5)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
-        <v>3.52</v>
-      </c>
-      <c r="L5" s="21" cm="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="21" t="e" cm="1">
         <f t="array" ref="L5">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A5)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
-        <v>2.8784999999999998</v>
-      </c>
-      <c r="M5" s="21" cm="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M5" s="21" t="e" cm="1">
         <f t="array" ref="M5">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A5)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
-        <v>2.8784999999999998</v>
-      </c>
-      <c r="N5" s="24" cm="1">
+        <v>#NUM!</v>
+      </c>
+      <c r="N5" s="24" t="e" cm="1">
         <f t="array" ref="N5">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A5)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
-        <v>0.90721800026234145</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O5" s="21" cm="1">
         <f t="array" ref="O5">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A5)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
@@ -5706,21 +5103,21 @@
         <f t="array" ref="T5">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A5)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U5" s="40">
+      <c r="U5" s="40" t="e">
         <f t="shared" si="4"/>
-        <v>1.1129353233830848</v>
-      </c>
-      <c r="V5" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V5" s="3" t="e">
         <f t="shared" si="5"/>
-        <v>1.7512437810945276</v>
-      </c>
-      <c r="W5" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W5" s="3" t="e">
         <f t="shared" si="5"/>
-        <v>1.432089552238806</v>
-      </c>
-      <c r="X5" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X5" s="3" t="e">
         <f t="shared" si="5"/>
-        <v>1.432089552238806</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y5" s="4" t="e">
         <f t="shared" si="5"/>
@@ -5728,31 +5125,31 @@
       </c>
       <c r="Z5" s="34">
         <f t="shared" si="6"/>
-        <v>0.22700000000000031</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="32">
         <f t="shared" si="7"/>
-        <v>1.5100000000000002</v>
-      </c>
-      <c r="AB5" s="32">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="32" t="e">
         <f t="shared" si="8"/>
-        <v>0.86850000000000005</v>
-      </c>
-      <c r="AC5" s="32">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC5" s="32" t="e">
         <f t="shared" si="9"/>
-        <v>0.86850000000000005</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD5" s="35" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE5" s="34">
+      <c r="AE5" s="34" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF5" s="32">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF5" s="32" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AG5" s="32" t="e">
         <f t="shared" si="0"/>
@@ -5768,11 +5165,11 @@
       </c>
       <c r="AJ5" s="34">
         <f t="shared" si="1"/>
-        <v>-2.0099999999999998</v>
+        <v>0</v>
       </c>
       <c r="AK5" s="32">
         <f t="shared" si="1"/>
-        <v>-2.0099999999999998</v>
+        <v>0</v>
       </c>
       <c r="AL5" s="32" t="e">
         <f t="shared" si="1"/>
@@ -5808,11 +5205,11 @@
       </c>
       <c r="AT5" s="34">
         <f t="shared" si="3"/>
-        <v>2.2370000000000001</v>
+        <v>0</v>
       </c>
       <c r="AU5" s="32">
         <f t="shared" si="3"/>
-        <v>3.52</v>
+        <v>0</v>
       </c>
       <c r="AV5" s="32" t="e">
         <f t="shared" si="3"/>
@@ -5829,30 +5226,30 @@
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C6" s="23" cm="1">
         <f t="array" ref="C6">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A6)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="21" cm="1">
         <f t="array" ref="D6">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A6)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
-        <v>4.8339999999999996</v>
+        <v>0</v>
       </c>
       <c r="E6" s="21" cm="1">
         <f t="array" ref="E6">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A6)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
-        <v>4.8339999999999996</v>
-      </c>
-      <c r="F6" s="21" cm="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="21" t="e" cm="1">
         <f t="array" ref="F6">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A6)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
-        <v>4.8339999999999996</v>
-      </c>
-      <c r="G6" s="21" cm="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G6" s="21" t="e" cm="1">
         <f t="array" ref="G6">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A6)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
-        <v>4.8339999999999996</v>
+        <v>#NUM!</v>
       </c>
       <c r="H6" s="24" t="e" cm="1">
         <f t="array" ref="H6">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A6)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
@@ -5860,27 +5257,27 @@
       </c>
       <c r="I6" s="21" cm="1">
         <f t="array" ref="I6">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A6)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6" s="21" cm="1">
         <f t="array" ref="J6">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A6)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
-        <v>4.0449999999999999</v>
+        <v>0</v>
       </c>
       <c r="K6" s="21" cm="1">
         <f t="array" ref="K6">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A6)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
-        <v>7.29</v>
-      </c>
-      <c r="L6" s="21" cm="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="21" t="e" cm="1">
         <f t="array" ref="L6">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A6)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
-        <v>5.6675000000000004</v>
-      </c>
-      <c r="M6" s="21" cm="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M6" s="21" t="e" cm="1">
         <f t="array" ref="M6">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A6)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
-        <v>5.6675000000000004</v>
-      </c>
-      <c r="N6" s="24" cm="1">
+        <v>#NUM!</v>
+      </c>
+      <c r="N6" s="24" t="e" cm="1">
         <f t="array" ref="N6">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A6)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
-        <v>2.2945615049503432</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O6" s="21" cm="1">
         <f t="array" ref="O6">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A6)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
@@ -5906,21 +5303,21 @@
         <f t="array" ref="T6">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A6)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U6" s="40">
+      <c r="U6" s="40" t="e">
         <f t="shared" si="4"/>
-        <v>0.83678113363673978</v>
-      </c>
-      <c r="V6" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V6" s="3" t="e">
         <f t="shared" si="5"/>
-        <v>1.5080678527099711</v>
-      </c>
-      <c r="W6" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W6" s="3" t="e">
         <f t="shared" si="5"/>
-        <v>1.1724244931733556</v>
-      </c>
-      <c r="X6" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X6" s="3" t="e">
         <f t="shared" si="5"/>
-        <v>1.1724244931733556</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y6" s="4" t="e">
         <f t="shared" si="5"/>
@@ -5928,31 +5325,31 @@
       </c>
       <c r="Z6" s="34">
         <f t="shared" si="6"/>
-        <v>-0.7889999999999997</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="32">
         <f t="shared" si="7"/>
-        <v>2.4560000000000004</v>
-      </c>
-      <c r="AB6" s="32">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="32" t="e">
         <f t="shared" si="8"/>
-        <v>0.8335000000000008</v>
-      </c>
-      <c r="AC6" s="32">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC6" s="32" t="e">
         <f t="shared" si="9"/>
-        <v>0.8335000000000008</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD6" s="35" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE6" s="34">
+      <c r="AE6" s="34" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF6" s="32">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF6" s="32" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AG6" s="32" t="e">
         <f t="shared" si="0"/>
@@ -5968,11 +5365,11 @@
       </c>
       <c r="AJ6" s="34">
         <f t="shared" si="1"/>
-        <v>-4.8339999999999996</v>
+        <v>0</v>
       </c>
       <c r="AK6" s="32">
         <f t="shared" si="1"/>
-        <v>-4.8339999999999996</v>
+        <v>0</v>
       </c>
       <c r="AL6" s="32" t="e">
         <f t="shared" si="1"/>
@@ -6008,11 +5405,11 @@
       </c>
       <c r="AT6" s="34">
         <f t="shared" si="3"/>
-        <v>4.0449999999999999</v>
+        <v>0</v>
       </c>
       <c r="AU6" s="32">
         <f t="shared" si="3"/>
-        <v>7.29</v>
+        <v>0</v>
       </c>
       <c r="AV6" s="32" t="e">
         <f t="shared" si="3"/>
@@ -6029,30 +5426,30 @@
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C7" s="23" cm="1">
         <f t="array" ref="C7">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A7)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="21" cm="1">
         <f t="array" ref="D7">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A7)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
-        <v>1.6639999999999999</v>
+        <v>0</v>
       </c>
       <c r="E7" s="21" cm="1">
         <f t="array" ref="E7">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A7)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
-        <v>1.6639999999999999</v>
-      </c>
-      <c r="F7" s="21" cm="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="21" t="e" cm="1">
         <f t="array" ref="F7">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A7)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
-        <v>1.6639999999999999</v>
-      </c>
-      <c r="G7" s="21" cm="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G7" s="21" t="e" cm="1">
         <f t="array" ref="G7">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A7)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
-        <v>1.6639999999999999</v>
+        <v>#NUM!</v>
       </c>
       <c r="H7" s="24" t="e" cm="1">
         <f t="array" ref="H7">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A7)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
@@ -6060,27 +5457,27 @@
       </c>
       <c r="I7" s="21" cm="1">
         <f t="array" ref="I7">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A7)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7" s="21" cm="1">
         <f t="array" ref="J7">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A7)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
-        <v>1.724</v>
+        <v>0</v>
       </c>
       <c r="K7" s="21" cm="1">
         <f t="array" ref="K7">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A7)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
-        <v>3.0129999999999999</v>
-      </c>
-      <c r="L7" s="21" cm="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="21" t="e" cm="1">
         <f t="array" ref="L7">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A7)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
-        <v>2.3685</v>
-      </c>
-      <c r="M7" s="21" cm="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M7" s="21" t="e" cm="1">
         <f t="array" ref="M7">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A7)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
-        <v>2.3685</v>
-      </c>
-      <c r="N7" s="24" cm="1">
+        <v>#NUM!</v>
+      </c>
+      <c r="N7" s="24" t="e" cm="1">
         <f t="array" ref="N7">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A7)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
-        <v>0.91146064094945889</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O7" s="21" cm="1">
         <f t="array" ref="O7">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A7)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
@@ -6106,21 +5503,21 @@
         <f t="array" ref="T7">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A7)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U7" s="40">
+      <c r="U7" s="40" t="e">
         <f t="shared" si="4"/>
-        <v>1.0360576923076923</v>
-      </c>
-      <c r="V7" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V7" s="3" t="e">
         <f t="shared" si="5"/>
-        <v>1.8106971153846154</v>
-      </c>
-      <c r="W7" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W7" s="3" t="e">
         <f t="shared" si="5"/>
-        <v>1.423377403846154</v>
-      </c>
-      <c r="X7" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X7" s="3" t="e">
         <f t="shared" si="5"/>
-        <v>1.423377403846154</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y7" s="4" t="e">
         <f t="shared" si="5"/>
@@ -6128,31 +5525,31 @@
       </c>
       <c r="Z7" s="34">
         <f t="shared" si="6"/>
-        <v>6.0000000000000053E-2</v>
+        <v>0</v>
       </c>
       <c r="AA7" s="32">
         <f t="shared" si="7"/>
-        <v>1.349</v>
-      </c>
-      <c r="AB7" s="32">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="32" t="e">
         <f t="shared" si="8"/>
-        <v>0.70450000000000013</v>
-      </c>
-      <c r="AC7" s="32">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC7" s="32" t="e">
         <f t="shared" si="9"/>
-        <v>0.70450000000000013</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD7" s="35" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE7" s="34">
+      <c r="AE7" s="34" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF7" s="32">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF7" s="32" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AG7" s="32" t="e">
         <f t="shared" si="0"/>
@@ -6168,11 +5565,11 @@
       </c>
       <c r="AJ7" s="34">
         <f t="shared" si="1"/>
-        <v>-1.6639999999999999</v>
+        <v>0</v>
       </c>
       <c r="AK7" s="32">
         <f t="shared" si="1"/>
-        <v>-1.6639999999999999</v>
+        <v>0</v>
       </c>
       <c r="AL7" s="32" t="e">
         <f t="shared" si="1"/>
@@ -6208,11 +5605,11 @@
       </c>
       <c r="AT7" s="34">
         <f t="shared" si="3"/>
-        <v>1.724</v>
+        <v>0</v>
       </c>
       <c r="AU7" s="32">
         <f t="shared" si="3"/>
-        <v>3.0129999999999999</v>
+        <v>0</v>
       </c>
       <c r="AV7" s="32" t="e">
         <f t="shared" si="3"/>
@@ -6229,30 +5626,30 @@
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C8" s="25" cm="1">
         <f t="array" ref="C8">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A8)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="26" cm="1">
         <f t="array" ref="D8">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A8)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
-        <v>4.915</v>
+        <v>0</v>
       </c>
       <c r="E8" s="26" cm="1">
         <f t="array" ref="E8">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A8)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
-        <v>4.915</v>
-      </c>
-      <c r="F8" s="26" cm="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="26" t="e" cm="1">
         <f t="array" ref="F8">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A8)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
-        <v>4.915</v>
-      </c>
-      <c r="G8" s="26" cm="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G8" s="26" t="e" cm="1">
         <f t="array" ref="G8">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A8)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
-        <v>4.915</v>
+        <v>#NUM!</v>
       </c>
       <c r="H8" s="27" t="e" cm="1">
         <f t="array" ref="H8">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A8)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
@@ -6260,27 +5657,27 @@
       </c>
       <c r="I8" s="26" cm="1">
         <f t="array" ref="I8">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A8)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8" s="26" cm="1">
         <f t="array" ref="J8">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A8)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
-        <v>4.74</v>
+        <v>0</v>
       </c>
       <c r="K8" s="26" cm="1">
         <f t="array" ref="K8">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A8)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
-        <v>8.2089999999999996</v>
-      </c>
-      <c r="L8" s="26" cm="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="26" t="e" cm="1">
         <f t="array" ref="L8">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A8)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
-        <v>6.4744999999999999</v>
-      </c>
-      <c r="M8" s="26" cm="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M8" s="26" t="e" cm="1">
         <f t="array" ref="M8">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A8)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
-        <v>6.4744999999999999</v>
-      </c>
-      <c r="N8" s="27" cm="1">
+        <v>#NUM!</v>
+      </c>
+      <c r="N8" s="27" t="e" cm="1">
         <f t="array" ref="N8">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A8)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
-        <v>2.4529534239361337</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O8" s="26" cm="1">
         <f t="array" ref="O8">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A8)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
@@ -6306,21 +5703,21 @@
         <f t="array" ref="T8">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A8)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U8" s="41">
+      <c r="U8" s="41" t="e">
         <f t="shared" ref="U8" si="11">J8/D8</f>
-        <v>0.96439471007121058</v>
-      </c>
-      <c r="V8" s="5">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V8" s="5" t="e">
         <f t="shared" ref="V8" si="12">K8/E8</f>
-        <v>1.6701932858596134</v>
-      </c>
-      <c r="W8" s="5">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W8" s="5" t="e">
         <f t="shared" ref="W8" si="13">L8/F8</f>
-        <v>1.3172939979654119</v>
-      </c>
-      <c r="X8" s="5">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X8" s="5" t="e">
         <f t="shared" ref="X8" si="14">M8/G8</f>
-        <v>1.3172939979654119</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y8" s="6" t="e">
         <f t="shared" ref="Y8" si="15">N8/H8</f>
@@ -6328,31 +5725,31 @@
       </c>
       <c r="Z8" s="36">
         <f t="shared" si="6"/>
-        <v>-0.17499999999999982</v>
+        <v>0</v>
       </c>
       <c r="AA8" s="37">
         <f t="shared" si="7"/>
-        <v>3.2939999999999996</v>
-      </c>
-      <c r="AB8" s="37">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="37" t="e">
         <f t="shared" si="8"/>
-        <v>1.5594999999999999</v>
-      </c>
-      <c r="AC8" s="37">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC8" s="37" t="e">
         <f t="shared" si="9"/>
-        <v>1.5594999999999999</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD8" s="38" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE8" s="36">
+      <c r="AE8" s="36" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF8" s="37">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF8" s="37" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AG8" s="37" t="e">
         <f t="shared" si="0"/>
@@ -6368,11 +5765,11 @@
       </c>
       <c r="AJ8" s="36">
         <f t="shared" si="1"/>
-        <v>-4.915</v>
+        <v>0</v>
       </c>
       <c r="AK8" s="37">
         <f t="shared" si="1"/>
-        <v>-4.915</v>
+        <v>0</v>
       </c>
       <c r="AL8" s="37" t="e">
         <f t="shared" si="1"/>
@@ -6408,11 +5805,11 @@
       </c>
       <c r="AT8" s="36">
         <f t="shared" si="3"/>
-        <v>4.74</v>
+        <v>0</v>
       </c>
       <c r="AU8" s="37">
         <f t="shared" si="3"/>
-        <v>8.2089999999999996</v>
+        <v>0</v>
       </c>
       <c r="AV8" s="37" t="e">
         <f t="shared" si="3"/>

--- a/performance metrics/ibbs-web-app-metrics-combined.xlsx
+++ b/performance metrics/ibbs-web-app-metrics-combined.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesse.abdul\Documents\Version Control\Git\ibbs-web-app-metrics\performance metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9ED427-2BBD-495D-AEE8-871570BDCEF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006E0397-AF02-4E68-B89D-7244ED5F1604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="36">
   <si>
     <t>Date/Time</t>
   </si>
@@ -153,6 +153,15 @@
   </si>
   <si>
     <t>Difference Hybrid - Remote</t>
+  </si>
+  <si>
+    <t>Download Specimen Data</t>
+  </si>
+  <si>
+    <t>Sampling Plan Summary Region Report</t>
+  </si>
+  <si>
+    <t>IBBS_SPEC_DATA_YYYYMMDD.csv</t>
   </si>
 </sst>
 </file>
@@ -485,7 +494,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -665,17 +674,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -745,30 +743,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -814,14 +788,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -837,33 +809,26 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -872,7 +837,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -885,9 +850,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1249,17 +1211,17 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" style="13" customWidth="1"/>
     <col min="6" max="6" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="14"/>
+    <col min="8" max="8" width="9.140625" style="12"/>
     <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1274,10 +1236,10 @@
       <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="D1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1297,3087 +1259,3087 @@
       </c>
     </row>
     <row r="20" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D20" s="15"/>
+      <c r="D20" s="13"/>
       <c r="E20"/>
       <c r="H20"/>
     </row>
     <row r="21" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D21" s="15"/>
+      <c r="D21" s="13"/>
       <c r="E21"/>
       <c r="H21"/>
     </row>
     <row r="22" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D22" s="15"/>
+      <c r="D22" s="13"/>
       <c r="E22"/>
       <c r="H22"/>
     </row>
     <row r="23" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D23" s="15"/>
+      <c r="D23" s="13"/>
       <c r="E23"/>
       <c r="H23"/>
     </row>
     <row r="24" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D24" s="15"/>
+      <c r="D24" s="13"/>
       <c r="E24"/>
       <c r="H24"/>
     </row>
     <row r="25" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D25" s="15"/>
+      <c r="D25" s="13"/>
       <c r="E25"/>
       <c r="H25"/>
     </row>
     <row r="26" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D26" s="15"/>
+      <c r="D26" s="13"/>
       <c r="E26"/>
       <c r="H26"/>
     </row>
     <row r="27" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D27" s="15"/>
+      <c r="D27" s="13"/>
       <c r="E27"/>
       <c r="H27"/>
     </row>
     <row r="28" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D28" s="15"/>
+      <c r="D28" s="13"/>
       <c r="E28"/>
       <c r="H28"/>
     </row>
     <row r="29" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D29" s="15"/>
+      <c r="D29" s="13"/>
       <c r="E29"/>
       <c r="H29"/>
     </row>
     <row r="30" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D30" s="15"/>
+      <c r="D30" s="13"/>
       <c r="E30"/>
       <c r="H30"/>
     </row>
     <row r="31" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D31" s="15"/>
+      <c r="D31" s="13"/>
       <c r="E31"/>
       <c r="H31"/>
     </row>
     <row r="32" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D32" s="15"/>
+      <c r="D32" s="13"/>
       <c r="E32"/>
       <c r="H32"/>
     </row>
     <row r="33" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D33" s="15"/>
+      <c r="D33" s="13"/>
       <c r="E33"/>
       <c r="H33"/>
     </row>
     <row r="34" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D34" s="15"/>
+      <c r="D34" s="13"/>
       <c r="E34"/>
       <c r="H34"/>
     </row>
     <row r="35" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D35" s="15"/>
+      <c r="D35" s="13"/>
       <c r="E35"/>
       <c r="H35"/>
     </row>
     <row r="36" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D36" s="15"/>
+      <c r="D36" s="13"/>
       <c r="E36"/>
       <c r="H36"/>
     </row>
     <row r="37" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D37" s="15"/>
+      <c r="D37" s="13"/>
       <c r="E37"/>
       <c r="H37"/>
     </row>
     <row r="38" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D38" s="15"/>
+      <c r="D38" s="13"/>
       <c r="E38"/>
       <c r="H38"/>
     </row>
     <row r="39" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D39" s="15"/>
+      <c r="D39" s="13"/>
       <c r="E39"/>
       <c r="H39"/>
     </row>
     <row r="40" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D40" s="15"/>
+      <c r="D40" s="13"/>
       <c r="E40"/>
       <c r="H40"/>
     </row>
     <row r="41" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D41" s="15"/>
+      <c r="D41" s="13"/>
       <c r="E41"/>
       <c r="H41"/>
     </row>
     <row r="42" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D42" s="15"/>
+      <c r="D42" s="13"/>
       <c r="E42"/>
       <c r="H42"/>
     </row>
     <row r="43" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D43" s="15"/>
+      <c r="D43" s="13"/>
       <c r="E43"/>
       <c r="H43"/>
     </row>
     <row r="44" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D44" s="15"/>
+      <c r="D44" s="13"/>
       <c r="E44"/>
       <c r="H44"/>
     </row>
     <row r="45" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D45" s="15"/>
+      <c r="D45" s="13"/>
       <c r="E45"/>
       <c r="H45"/>
     </row>
     <row r="46" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D46" s="15"/>
+      <c r="D46" s="13"/>
       <c r="E46"/>
       <c r="H46"/>
     </row>
     <row r="47" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D47" s="15"/>
+      <c r="D47" s="13"/>
       <c r="E47"/>
       <c r="H47"/>
     </row>
     <row r="48" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D48" s="15"/>
+      <c r="D48" s="13"/>
       <c r="E48"/>
       <c r="H48"/>
     </row>
     <row r="49" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D49" s="15"/>
+      <c r="D49" s="13"/>
       <c r="E49"/>
       <c r="H49"/>
     </row>
     <row r="50" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D50" s="15"/>
+      <c r="D50" s="13"/>
       <c r="E50"/>
       <c r="H50"/>
     </row>
     <row r="51" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D51" s="15"/>
+      <c r="D51" s="13"/>
       <c r="E51"/>
       <c r="H51"/>
     </row>
     <row r="52" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D52" s="15"/>
+      <c r="D52" s="13"/>
       <c r="E52"/>
       <c r="H52"/>
     </row>
     <row r="53" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D53" s="15"/>
+      <c r="D53" s="13"/>
       <c r="E53"/>
       <c r="H53"/>
     </row>
     <row r="54" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D54" s="15"/>
+      <c r="D54" s="13"/>
       <c r="E54"/>
       <c r="H54"/>
     </row>
     <row r="55" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D55" s="15"/>
+      <c r="D55" s="13"/>
       <c r="E55"/>
       <c r="H55"/>
     </row>
     <row r="56" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D56" s="15"/>
+      <c r="D56" s="13"/>
       <c r="E56"/>
       <c r="H56"/>
     </row>
     <row r="57" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D57" s="15"/>
+      <c r="D57" s="13"/>
       <c r="E57"/>
       <c r="H57"/>
     </row>
     <row r="58" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D58" s="15"/>
+      <c r="D58" s="13"/>
       <c r="E58"/>
       <c r="H58"/>
     </row>
     <row r="59" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D59" s="15"/>
+      <c r="D59" s="13"/>
       <c r="E59"/>
       <c r="H59"/>
     </row>
     <row r="60" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D60" s="15"/>
+      <c r="D60" s="13"/>
       <c r="E60"/>
       <c r="H60"/>
     </row>
     <row r="61" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D61" s="15"/>
+      <c r="D61" s="13"/>
       <c r="E61"/>
       <c r="H61"/>
     </row>
     <row r="62" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D62" s="15"/>
+      <c r="D62" s="13"/>
       <c r="E62"/>
       <c r="H62"/>
     </row>
     <row r="63" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D63" s="15"/>
+      <c r="D63" s="13"/>
       <c r="E63"/>
       <c r="H63"/>
     </row>
     <row r="64" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D64" s="15"/>
+      <c r="D64" s="13"/>
       <c r="E64"/>
       <c r="H64"/>
     </row>
     <row r="65" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D65" s="15"/>
+      <c r="D65" s="13"/>
       <c r="E65"/>
       <c r="H65"/>
     </row>
     <row r="66" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D66" s="15"/>
+      <c r="D66" s="13"/>
       <c r="E66"/>
       <c r="H66"/>
     </row>
     <row r="67" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D67" s="15"/>
+      <c r="D67" s="13"/>
       <c r="E67"/>
       <c r="H67"/>
     </row>
     <row r="68" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D68" s="15"/>
+      <c r="D68" s="13"/>
       <c r="E68"/>
       <c r="H68"/>
     </row>
     <row r="69" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D69" s="15"/>
+      <c r="D69" s="13"/>
       <c r="E69"/>
       <c r="H69"/>
     </row>
     <row r="70" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D70" s="15"/>
+      <c r="D70" s="13"/>
       <c r="E70"/>
       <c r="H70"/>
     </row>
     <row r="71" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D71" s="15"/>
+      <c r="D71" s="13"/>
       <c r="E71"/>
       <c r="H71"/>
     </row>
     <row r="72" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D72" s="15"/>
+      <c r="D72" s="13"/>
       <c r="E72"/>
       <c r="H72"/>
     </row>
     <row r="73" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D73" s="15"/>
+      <c r="D73" s="13"/>
       <c r="E73"/>
       <c r="H73"/>
     </row>
     <row r="74" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D74" s="15"/>
+      <c r="D74" s="13"/>
       <c r="E74"/>
       <c r="H74"/>
     </row>
     <row r="75" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D75" s="15"/>
+      <c r="D75" s="13"/>
       <c r="E75"/>
       <c r="H75"/>
     </row>
     <row r="76" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D76" s="15"/>
+      <c r="D76" s="13"/>
       <c r="E76"/>
       <c r="H76"/>
     </row>
     <row r="77" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D77" s="15"/>
+      <c r="D77" s="13"/>
       <c r="E77"/>
       <c r="H77"/>
     </row>
     <row r="78" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D78" s="15"/>
+      <c r="D78" s="13"/>
       <c r="E78"/>
       <c r="H78"/>
     </row>
     <row r="79" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D79" s="15"/>
+      <c r="D79" s="13"/>
       <c r="E79"/>
       <c r="H79"/>
     </row>
     <row r="80" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D80" s="15"/>
+      <c r="D80" s="13"/>
       <c r="E80"/>
       <c r="H80"/>
     </row>
     <row r="81" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D81" s="15"/>
+      <c r="D81" s="13"/>
       <c r="E81"/>
       <c r="H81"/>
     </row>
     <row r="82" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D82" s="15"/>
+      <c r="D82" s="13"/>
       <c r="E82"/>
       <c r="H82"/>
     </row>
     <row r="83" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D83" s="15"/>
+      <c r="D83" s="13"/>
       <c r="E83"/>
       <c r="H83"/>
     </row>
     <row r="84" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D84" s="15"/>
+      <c r="D84" s="13"/>
       <c r="E84"/>
       <c r="H84"/>
     </row>
     <row r="85" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D85" s="15"/>
+      <c r="D85" s="13"/>
       <c r="E85"/>
       <c r="H85"/>
     </row>
     <row r="86" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D86" s="15"/>
+      <c r="D86" s="13"/>
       <c r="E86"/>
       <c r="H86"/>
     </row>
     <row r="87" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D87" s="15"/>
+      <c r="D87" s="13"/>
       <c r="E87"/>
       <c r="H87"/>
     </row>
     <row r="88" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D88" s="15"/>
+      <c r="D88" s="13"/>
       <c r="E88"/>
       <c r="H88"/>
     </row>
     <row r="89" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D89" s="15"/>
+      <c r="D89" s="13"/>
       <c r="E89"/>
       <c r="H89"/>
     </row>
     <row r="90" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D90" s="15"/>
+      <c r="D90" s="13"/>
       <c r="E90"/>
       <c r="H90"/>
     </row>
     <row r="91" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D91" s="15"/>
+      <c r="D91" s="13"/>
       <c r="E91"/>
       <c r="H91"/>
     </row>
     <row r="92" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D92" s="15"/>
+      <c r="D92" s="13"/>
       <c r="E92"/>
       <c r="H92"/>
     </row>
     <row r="93" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D93" s="15"/>
+      <c r="D93" s="13"/>
       <c r="E93"/>
       <c r="H93"/>
     </row>
     <row r="94" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D94" s="15"/>
+      <c r="D94" s="13"/>
       <c r="E94"/>
       <c r="H94"/>
     </row>
     <row r="95" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D95" s="15"/>
+      <c r="D95" s="13"/>
       <c r="E95"/>
       <c r="H95"/>
     </row>
     <row r="96" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D96" s="15"/>
+      <c r="D96" s="13"/>
       <c r="E96"/>
       <c r="H96"/>
     </row>
     <row r="97" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D97" s="15"/>
+      <c r="D97" s="13"/>
       <c r="E97"/>
       <c r="H97"/>
     </row>
     <row r="98" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D98" s="15"/>
+      <c r="D98" s="13"/>
       <c r="E98"/>
       <c r="H98"/>
     </row>
     <row r="99" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D99" s="15"/>
+      <c r="D99" s="13"/>
       <c r="E99"/>
       <c r="H99"/>
     </row>
     <row r="100" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D100" s="15"/>
+      <c r="D100" s="13"/>
       <c r="E100"/>
       <c r="H100"/>
     </row>
     <row r="101" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D101" s="15"/>
+      <c r="D101" s="13"/>
       <c r="E101"/>
       <c r="H101"/>
     </row>
     <row r="102" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D102" s="15"/>
+      <c r="D102" s="13"/>
       <c r="E102"/>
       <c r="H102"/>
     </row>
     <row r="103" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D103" s="15"/>
+      <c r="D103" s="13"/>
       <c r="E103"/>
       <c r="H103"/>
     </row>
     <row r="104" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D104" s="15"/>
+      <c r="D104" s="13"/>
       <c r="E104"/>
       <c r="H104"/>
     </row>
     <row r="105" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D105" s="15"/>
+      <c r="D105" s="13"/>
       <c r="E105"/>
       <c r="H105"/>
     </row>
     <row r="106" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D106" s="15"/>
+      <c r="D106" s="13"/>
       <c r="E106"/>
       <c r="H106"/>
     </row>
     <row r="107" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D107" s="15"/>
+      <c r="D107" s="13"/>
       <c r="E107"/>
       <c r="H107"/>
     </row>
     <row r="108" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D108" s="15"/>
+      <c r="D108" s="13"/>
       <c r="E108"/>
       <c r="H108"/>
     </row>
     <row r="109" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D109" s="15"/>
+      <c r="D109" s="13"/>
       <c r="E109"/>
       <c r="H109"/>
     </row>
     <row r="110" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D110" s="15"/>
+      <c r="D110" s="13"/>
       <c r="E110"/>
       <c r="H110"/>
     </row>
     <row r="111" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D111" s="15"/>
+      <c r="D111" s="13"/>
       <c r="E111"/>
       <c r="H111"/>
     </row>
     <row r="112" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D112" s="15"/>
+      <c r="D112" s="13"/>
       <c r="E112"/>
       <c r="H112"/>
     </row>
     <row r="113" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D113" s="15"/>
+      <c r="D113" s="13"/>
       <c r="E113"/>
       <c r="H113"/>
     </row>
     <row r="114" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D114" s="15"/>
+      <c r="D114" s="13"/>
       <c r="E114"/>
       <c r="H114"/>
     </row>
     <row r="115" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D115" s="15"/>
+      <c r="D115" s="13"/>
       <c r="E115"/>
       <c r="H115"/>
     </row>
     <row r="116" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D116" s="15"/>
+      <c r="D116" s="13"/>
       <c r="E116"/>
       <c r="H116"/>
     </row>
     <row r="117" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D117" s="15"/>
+      <c r="D117" s="13"/>
       <c r="E117"/>
       <c r="H117"/>
     </row>
     <row r="118" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D118" s="15"/>
+      <c r="D118" s="13"/>
       <c r="E118"/>
       <c r="H118"/>
     </row>
     <row r="119" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D119" s="15"/>
+      <c r="D119" s="13"/>
       <c r="E119"/>
       <c r="H119"/>
     </row>
     <row r="120" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D120" s="15"/>
+      <c r="D120" s="13"/>
       <c r="E120"/>
       <c r="H120"/>
     </row>
     <row r="121" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D121" s="15"/>
+      <c r="D121" s="13"/>
       <c r="E121"/>
       <c r="H121"/>
     </row>
     <row r="122" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D122" s="15"/>
+      <c r="D122" s="13"/>
       <c r="E122"/>
       <c r="H122"/>
     </row>
     <row r="123" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D123" s="15"/>
+      <c r="D123" s="13"/>
       <c r="E123"/>
       <c r="H123"/>
     </row>
     <row r="124" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D124" s="15"/>
+      <c r="D124" s="13"/>
       <c r="E124"/>
       <c r="H124"/>
     </row>
     <row r="125" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D125" s="15"/>
+      <c r="D125" s="13"/>
       <c r="E125"/>
       <c r="H125"/>
     </row>
     <row r="126" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D126" s="15"/>
+      <c r="D126" s="13"/>
       <c r="E126"/>
       <c r="H126"/>
     </row>
     <row r="127" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D127" s="15"/>
+      <c r="D127" s="13"/>
       <c r="E127"/>
       <c r="H127"/>
     </row>
     <row r="128" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D128" s="15"/>
+      <c r="D128" s="13"/>
       <c r="E128"/>
       <c r="H128"/>
     </row>
     <row r="129" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D129" s="15"/>
+      <c r="D129" s="13"/>
       <c r="E129"/>
       <c r="H129"/>
     </row>
     <row r="130" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D130" s="15"/>
+      <c r="D130" s="13"/>
       <c r="E130"/>
       <c r="H130"/>
     </row>
     <row r="131" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D131" s="15"/>
+      <c r="D131" s="13"/>
       <c r="E131"/>
       <c r="H131"/>
     </row>
     <row r="132" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D132" s="15"/>
+      <c r="D132" s="13"/>
       <c r="E132"/>
       <c r="H132"/>
     </row>
     <row r="133" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D133" s="15"/>
+      <c r="D133" s="13"/>
       <c r="E133"/>
       <c r="H133"/>
     </row>
     <row r="134" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D134" s="15"/>
+      <c r="D134" s="13"/>
       <c r="E134"/>
       <c r="H134"/>
     </row>
     <row r="135" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D135" s="15"/>
+      <c r="D135" s="13"/>
       <c r="E135"/>
       <c r="H135"/>
     </row>
     <row r="136" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D136" s="15"/>
+      <c r="D136" s="13"/>
       <c r="E136"/>
       <c r="H136"/>
     </row>
     <row r="137" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D137" s="15"/>
+      <c r="D137" s="13"/>
       <c r="E137"/>
       <c r="H137"/>
     </row>
     <row r="138" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D138" s="15"/>
+      <c r="D138" s="13"/>
       <c r="E138"/>
       <c r="H138"/>
     </row>
     <row r="139" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D139" s="15"/>
+      <c r="D139" s="13"/>
       <c r="E139"/>
       <c r="H139"/>
     </row>
     <row r="140" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D140" s="15"/>
+      <c r="D140" s="13"/>
       <c r="E140"/>
       <c r="H140"/>
     </row>
     <row r="141" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D141" s="15"/>
+      <c r="D141" s="13"/>
       <c r="E141"/>
       <c r="H141"/>
     </row>
     <row r="142" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D142" s="15"/>
+      <c r="D142" s="13"/>
       <c r="E142"/>
       <c r="H142"/>
     </row>
     <row r="143" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D143" s="15"/>
+      <c r="D143" s="13"/>
       <c r="E143"/>
       <c r="H143"/>
     </row>
     <row r="144" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D144" s="15"/>
+      <c r="D144" s="13"/>
       <c r="E144"/>
       <c r="H144"/>
     </row>
     <row r="145" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D145" s="15"/>
+      <c r="D145" s="13"/>
       <c r="E145"/>
       <c r="H145"/>
     </row>
     <row r="146" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D146" s="15"/>
+      <c r="D146" s="13"/>
       <c r="E146"/>
       <c r="H146"/>
     </row>
     <row r="147" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D147" s="15"/>
+      <c r="D147" s="13"/>
       <c r="E147"/>
       <c r="H147"/>
     </row>
     <row r="148" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D148" s="15"/>
+      <c r="D148" s="13"/>
       <c r="E148"/>
       <c r="H148"/>
     </row>
     <row r="149" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D149" s="15"/>
+      <c r="D149" s="13"/>
       <c r="E149"/>
       <c r="H149"/>
     </row>
     <row r="150" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D150" s="15"/>
+      <c r="D150" s="13"/>
       <c r="E150"/>
       <c r="H150"/>
     </row>
     <row r="151" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D151" s="15"/>
+      <c r="D151" s="13"/>
       <c r="E151"/>
       <c r="H151"/>
     </row>
     <row r="152" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D152" s="15"/>
+      <c r="D152" s="13"/>
       <c r="E152"/>
       <c r="H152"/>
     </row>
     <row r="153" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D153" s="15"/>
+      <c r="D153" s="13"/>
       <c r="E153"/>
       <c r="H153"/>
     </row>
     <row r="154" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D154" s="15"/>
+      <c r="D154" s="13"/>
       <c r="E154"/>
       <c r="H154"/>
     </row>
     <row r="155" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D155" s="15"/>
+      <c r="D155" s="13"/>
       <c r="E155"/>
       <c r="H155"/>
     </row>
     <row r="156" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D156" s="15"/>
+      <c r="D156" s="13"/>
       <c r="E156"/>
       <c r="H156"/>
     </row>
     <row r="157" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D157" s="15"/>
+      <c r="D157" s="13"/>
       <c r="E157"/>
       <c r="H157"/>
     </row>
     <row r="158" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D158" s="15"/>
+      <c r="D158" s="13"/>
       <c r="E158"/>
       <c r="H158"/>
     </row>
     <row r="159" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D159" s="15"/>
+      <c r="D159" s="13"/>
       <c r="E159"/>
       <c r="H159"/>
     </row>
     <row r="160" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D160" s="15"/>
+      <c r="D160" s="13"/>
       <c r="E160"/>
       <c r="H160"/>
     </row>
     <row r="161" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D161" s="15"/>
+      <c r="D161" s="13"/>
       <c r="E161"/>
       <c r="H161"/>
     </row>
     <row r="162" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D162" s="15"/>
+      <c r="D162" s="13"/>
       <c r="E162"/>
       <c r="H162"/>
     </row>
     <row r="163" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D163" s="15"/>
+      <c r="D163" s="13"/>
       <c r="E163"/>
       <c r="H163"/>
     </row>
     <row r="164" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D164" s="15"/>
+      <c r="D164" s="13"/>
       <c r="E164"/>
       <c r="H164"/>
     </row>
     <row r="165" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D165" s="15"/>
+      <c r="D165" s="13"/>
       <c r="E165"/>
       <c r="H165"/>
     </row>
     <row r="166" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D166" s="15"/>
+      <c r="D166" s="13"/>
       <c r="E166"/>
       <c r="H166"/>
     </row>
     <row r="167" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D167" s="15"/>
+      <c r="D167" s="13"/>
       <c r="E167"/>
       <c r="H167"/>
     </row>
     <row r="168" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D168" s="15"/>
+      <c r="D168" s="13"/>
       <c r="E168"/>
       <c r="H168"/>
     </row>
     <row r="169" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D169" s="15"/>
+      <c r="D169" s="13"/>
       <c r="E169"/>
       <c r="H169"/>
     </row>
     <row r="170" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D170" s="15"/>
+      <c r="D170" s="13"/>
       <c r="E170"/>
       <c r="H170"/>
     </row>
     <row r="171" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D171" s="15"/>
+      <c r="D171" s="13"/>
       <c r="E171"/>
       <c r="H171"/>
     </row>
     <row r="172" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D172" s="15"/>
+      <c r="D172" s="13"/>
       <c r="E172"/>
       <c r="H172"/>
     </row>
     <row r="173" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D173" s="15"/>
+      <c r="D173" s="13"/>
       <c r="E173"/>
       <c r="H173"/>
     </row>
     <row r="174" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D174" s="15"/>
+      <c r="D174" s="13"/>
       <c r="E174"/>
       <c r="H174"/>
     </row>
     <row r="175" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D175" s="15"/>
+      <c r="D175" s="13"/>
       <c r="E175"/>
       <c r="H175"/>
     </row>
     <row r="176" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D176" s="15"/>
+      <c r="D176" s="13"/>
       <c r="E176"/>
       <c r="H176"/>
     </row>
     <row r="177" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D177" s="15"/>
+      <c r="D177" s="13"/>
       <c r="E177"/>
       <c r="H177"/>
     </row>
     <row r="178" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D178" s="15"/>
+      <c r="D178" s="13"/>
       <c r="E178"/>
       <c r="H178"/>
     </row>
     <row r="179" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D179" s="15"/>
+      <c r="D179" s="13"/>
       <c r="E179"/>
       <c r="H179"/>
     </row>
     <row r="180" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D180" s="15"/>
+      <c r="D180" s="13"/>
       <c r="E180"/>
       <c r="H180"/>
     </row>
     <row r="181" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D181" s="15"/>
+      <c r="D181" s="13"/>
       <c r="E181"/>
       <c r="H181"/>
     </row>
     <row r="182" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D182" s="15"/>
+      <c r="D182" s="13"/>
       <c r="E182"/>
       <c r="H182"/>
     </row>
     <row r="183" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D183" s="15"/>
+      <c r="D183" s="13"/>
       <c r="E183"/>
       <c r="H183"/>
     </row>
     <row r="184" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D184" s="15"/>
+      <c r="D184" s="13"/>
       <c r="E184"/>
       <c r="H184"/>
     </row>
     <row r="185" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D185" s="15"/>
+      <c r="D185" s="13"/>
       <c r="E185"/>
       <c r="H185"/>
     </row>
     <row r="186" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D186" s="15"/>
+      <c r="D186" s="13"/>
       <c r="E186"/>
       <c r="H186"/>
     </row>
     <row r="187" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D187" s="15"/>
+      <c r="D187" s="13"/>
       <c r="E187"/>
       <c r="H187"/>
     </row>
     <row r="188" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D188" s="15"/>
+      <c r="D188" s="13"/>
       <c r="E188"/>
       <c r="H188"/>
     </row>
     <row r="189" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D189" s="15"/>
+      <c r="D189" s="13"/>
       <c r="E189"/>
       <c r="H189"/>
     </row>
     <row r="190" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D190" s="15"/>
+      <c r="D190" s="13"/>
       <c r="E190"/>
       <c r="H190"/>
     </row>
     <row r="191" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D191" s="15"/>
+      <c r="D191" s="13"/>
       <c r="E191"/>
       <c r="H191"/>
     </row>
     <row r="192" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D192" s="15"/>
+      <c r="D192" s="13"/>
       <c r="E192"/>
       <c r="H192"/>
     </row>
     <row r="193" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D193" s="15"/>
+      <c r="D193" s="13"/>
       <c r="E193"/>
       <c r="H193"/>
     </row>
     <row r="194" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D194" s="15"/>
+      <c r="D194" s="13"/>
       <c r="E194"/>
       <c r="H194"/>
     </row>
     <row r="195" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D195" s="15"/>
+      <c r="D195" s="13"/>
       <c r="E195"/>
       <c r="H195"/>
     </row>
     <row r="196" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D196" s="15"/>
+      <c r="D196" s="13"/>
       <c r="E196"/>
       <c r="H196"/>
     </row>
     <row r="197" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D197" s="15"/>
+      <c r="D197" s="13"/>
       <c r="E197"/>
       <c r="H197"/>
     </row>
     <row r="198" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D198" s="15"/>
+      <c r="D198" s="13"/>
       <c r="E198"/>
       <c r="H198"/>
     </row>
     <row r="199" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D199" s="15"/>
+      <c r="D199" s="13"/>
       <c r="E199"/>
       <c r="H199"/>
     </row>
     <row r="200" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D200" s="15"/>
+      <c r="D200" s="13"/>
       <c r="E200"/>
       <c r="H200"/>
     </row>
     <row r="201" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D201" s="15"/>
+      <c r="D201" s="13"/>
       <c r="E201"/>
       <c r="H201"/>
     </row>
     <row r="202" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D202" s="15"/>
+      <c r="D202" s="13"/>
       <c r="E202"/>
       <c r="H202"/>
     </row>
     <row r="203" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D203" s="15"/>
+      <c r="D203" s="13"/>
       <c r="E203"/>
       <c r="H203"/>
     </row>
     <row r="204" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D204" s="15"/>
+      <c r="D204" s="13"/>
       <c r="E204"/>
       <c r="H204"/>
     </row>
     <row r="205" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D205" s="15"/>
+      <c r="D205" s="13"/>
       <c r="E205"/>
       <c r="H205"/>
     </row>
     <row r="206" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D206" s="15"/>
+      <c r="D206" s="13"/>
       <c r="E206"/>
       <c r="H206"/>
     </row>
     <row r="207" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D207" s="15"/>
+      <c r="D207" s="13"/>
       <c r="E207"/>
       <c r="H207"/>
     </row>
     <row r="208" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D208" s="15"/>
+      <c r="D208" s="13"/>
       <c r="E208"/>
       <c r="H208"/>
     </row>
     <row r="209" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D209" s="15"/>
+      <c r="D209" s="13"/>
       <c r="E209"/>
       <c r="H209"/>
     </row>
     <row r="210" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D210" s="15"/>
+      <c r="D210" s="13"/>
       <c r="E210"/>
       <c r="H210"/>
     </row>
     <row r="211" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D211" s="15"/>
+      <c r="D211" s="13"/>
       <c r="E211"/>
       <c r="H211"/>
     </row>
     <row r="212" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D212" s="15"/>
+      <c r="D212" s="13"/>
       <c r="E212"/>
       <c r="H212"/>
     </row>
     <row r="213" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D213" s="15"/>
+      <c r="D213" s="13"/>
       <c r="E213"/>
       <c r="H213"/>
     </row>
     <row r="214" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D214" s="15"/>
+      <c r="D214" s="13"/>
       <c r="E214"/>
       <c r="H214"/>
     </row>
     <row r="215" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D215" s="15"/>
+      <c r="D215" s="13"/>
       <c r="E215"/>
       <c r="H215"/>
     </row>
     <row r="216" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D216" s="15"/>
+      <c r="D216" s="13"/>
       <c r="E216"/>
       <c r="H216"/>
     </row>
     <row r="217" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D217" s="15"/>
+      <c r="D217" s="13"/>
       <c r="E217"/>
       <c r="H217"/>
     </row>
     <row r="218" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D218" s="15"/>
+      <c r="D218" s="13"/>
       <c r="E218"/>
       <c r="H218"/>
     </row>
     <row r="219" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D219" s="15"/>
+      <c r="D219" s="13"/>
       <c r="E219"/>
       <c r="H219"/>
     </row>
     <row r="220" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D220" s="15"/>
+      <c r="D220" s="13"/>
       <c r="E220"/>
       <c r="H220"/>
     </row>
     <row r="221" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D221" s="15"/>
+      <c r="D221" s="13"/>
       <c r="E221"/>
       <c r="H221"/>
     </row>
     <row r="222" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D222" s="15"/>
+      <c r="D222" s="13"/>
       <c r="E222"/>
       <c r="H222"/>
     </row>
     <row r="223" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D223" s="15"/>
+      <c r="D223" s="13"/>
       <c r="E223"/>
       <c r="H223"/>
     </row>
     <row r="224" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D224" s="15"/>
+      <c r="D224" s="13"/>
       <c r="E224"/>
       <c r="H224"/>
     </row>
     <row r="225" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D225" s="15"/>
+      <c r="D225" s="13"/>
       <c r="E225"/>
       <c r="H225"/>
     </row>
     <row r="226" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D226" s="15"/>
+      <c r="D226" s="13"/>
       <c r="E226"/>
       <c r="H226"/>
     </row>
     <row r="227" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D227" s="15"/>
+      <c r="D227" s="13"/>
       <c r="E227"/>
       <c r="H227"/>
     </row>
     <row r="228" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D228" s="15"/>
+      <c r="D228" s="13"/>
       <c r="E228"/>
       <c r="H228"/>
     </row>
     <row r="229" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D229" s="15"/>
+      <c r="D229" s="13"/>
       <c r="E229"/>
       <c r="H229"/>
     </row>
     <row r="230" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D230" s="15"/>
+      <c r="D230" s="13"/>
       <c r="E230"/>
       <c r="H230"/>
     </row>
     <row r="231" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D231" s="15"/>
+      <c r="D231" s="13"/>
       <c r="E231"/>
       <c r="H231"/>
     </row>
     <row r="232" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D232" s="15"/>
+      <c r="D232" s="13"/>
       <c r="E232"/>
       <c r="H232"/>
     </row>
     <row r="233" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D233" s="15"/>
+      <c r="D233" s="13"/>
       <c r="E233"/>
       <c r="H233"/>
     </row>
     <row r="234" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D234" s="15"/>
+      <c r="D234" s="13"/>
       <c r="E234"/>
       <c r="H234"/>
     </row>
     <row r="235" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D235" s="15"/>
+      <c r="D235" s="13"/>
       <c r="E235"/>
       <c r="H235"/>
     </row>
     <row r="236" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D236" s="15"/>
+      <c r="D236" s="13"/>
       <c r="E236"/>
       <c r="H236"/>
     </row>
     <row r="237" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D237" s="15"/>
+      <c r="D237" s="13"/>
       <c r="E237"/>
       <c r="H237"/>
     </row>
     <row r="238" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D238" s="15"/>
+      <c r="D238" s="13"/>
       <c r="E238"/>
       <c r="H238"/>
     </row>
     <row r="239" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D239" s="15"/>
+      <c r="D239" s="13"/>
       <c r="E239"/>
       <c r="H239"/>
     </row>
     <row r="240" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D240" s="15"/>
+      <c r="D240" s="13"/>
       <c r="E240"/>
       <c r="H240"/>
     </row>
     <row r="241" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D241" s="15"/>
+      <c r="D241" s="13"/>
       <c r="E241"/>
       <c r="H241"/>
     </row>
     <row r="242" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D242" s="15"/>
+      <c r="D242" s="13"/>
       <c r="E242"/>
       <c r="H242"/>
     </row>
     <row r="243" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D243" s="15"/>
+      <c r="D243" s="13"/>
       <c r="E243"/>
       <c r="H243"/>
     </row>
     <row r="244" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D244" s="15"/>
+      <c r="D244" s="13"/>
       <c r="E244"/>
       <c r="H244"/>
     </row>
     <row r="245" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D245" s="15"/>
+      <c r="D245" s="13"/>
       <c r="E245"/>
       <c r="H245"/>
     </row>
     <row r="246" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D246" s="15"/>
+      <c r="D246" s="13"/>
       <c r="E246"/>
       <c r="H246"/>
     </row>
     <row r="247" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D247" s="15"/>
+      <c r="D247" s="13"/>
       <c r="E247"/>
       <c r="H247"/>
     </row>
     <row r="248" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D248" s="15"/>
+      <c r="D248" s="13"/>
       <c r="E248"/>
       <c r="H248"/>
     </row>
     <row r="249" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D249" s="15"/>
+      <c r="D249" s="13"/>
       <c r="E249"/>
       <c r="H249"/>
     </row>
     <row r="250" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D250" s="15"/>
+      <c r="D250" s="13"/>
       <c r="E250"/>
       <c r="H250"/>
     </row>
     <row r="251" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D251" s="15"/>
+      <c r="D251" s="13"/>
       <c r="E251"/>
       <c r="H251"/>
     </row>
     <row r="252" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D252" s="15"/>
+      <c r="D252" s="13"/>
       <c r="E252"/>
       <c r="H252"/>
     </row>
     <row r="253" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D253" s="15"/>
+      <c r="D253" s="13"/>
       <c r="E253"/>
       <c r="H253"/>
     </row>
     <row r="254" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D254" s="15"/>
+      <c r="D254" s="13"/>
       <c r="E254"/>
       <c r="H254"/>
     </row>
     <row r="255" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D255" s="15"/>
+      <c r="D255" s="13"/>
       <c r="E255"/>
       <c r="H255"/>
     </row>
     <row r="256" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D256" s="15"/>
+      <c r="D256" s="13"/>
       <c r="E256"/>
       <c r="H256"/>
     </row>
     <row r="257" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D257" s="15"/>
+      <c r="D257" s="13"/>
       <c r="E257"/>
       <c r="H257"/>
     </row>
     <row r="258" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D258" s="15"/>
+      <c r="D258" s="13"/>
       <c r="E258"/>
       <c r="H258"/>
     </row>
     <row r="259" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D259" s="15"/>
+      <c r="D259" s="13"/>
       <c r="E259"/>
       <c r="H259"/>
     </row>
     <row r="260" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D260" s="15"/>
+      <c r="D260" s="13"/>
       <c r="E260"/>
       <c r="H260"/>
     </row>
     <row r="261" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D261" s="15"/>
+      <c r="D261" s="13"/>
       <c r="E261"/>
       <c r="H261"/>
     </row>
     <row r="262" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D262" s="15"/>
+      <c r="D262" s="13"/>
       <c r="E262"/>
       <c r="H262"/>
     </row>
     <row r="263" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D263" s="15"/>
+      <c r="D263" s="13"/>
       <c r="E263"/>
       <c r="H263"/>
     </row>
     <row r="264" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D264" s="15"/>
+      <c r="D264" s="13"/>
       <c r="E264"/>
       <c r="H264"/>
     </row>
     <row r="265" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D265" s="15"/>
+      <c r="D265" s="13"/>
       <c r="E265"/>
       <c r="H265"/>
     </row>
     <row r="266" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D266" s="15"/>
+      <c r="D266" s="13"/>
       <c r="E266"/>
       <c r="H266"/>
     </row>
     <row r="267" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D267" s="15"/>
+      <c r="D267" s="13"/>
       <c r="E267"/>
       <c r="H267"/>
     </row>
     <row r="268" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D268" s="15"/>
+      <c r="D268" s="13"/>
       <c r="E268"/>
       <c r="H268"/>
     </row>
     <row r="269" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D269" s="15"/>
+      <c r="D269" s="13"/>
       <c r="E269"/>
       <c r="H269"/>
     </row>
     <row r="270" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D270" s="15"/>
+      <c r="D270" s="13"/>
       <c r="E270"/>
       <c r="H270"/>
     </row>
     <row r="271" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D271" s="15"/>
+      <c r="D271" s="13"/>
       <c r="E271"/>
       <c r="H271"/>
     </row>
     <row r="272" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D272" s="15"/>
+      <c r="D272" s="13"/>
       <c r="E272"/>
       <c r="H272"/>
     </row>
     <row r="273" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D273" s="15"/>
+      <c r="D273" s="13"/>
       <c r="E273"/>
       <c r="H273"/>
     </row>
     <row r="274" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D274" s="15"/>
+      <c r="D274" s="13"/>
       <c r="E274"/>
       <c r="H274"/>
     </row>
     <row r="275" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D275" s="15"/>
+      <c r="D275" s="13"/>
       <c r="E275"/>
       <c r="H275"/>
     </row>
     <row r="276" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D276" s="15"/>
+      <c r="D276" s="13"/>
       <c r="E276"/>
       <c r="H276"/>
     </row>
     <row r="277" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D277" s="15"/>
+      <c r="D277" s="13"/>
       <c r="E277"/>
       <c r="H277"/>
     </row>
     <row r="278" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D278" s="15"/>
+      <c r="D278" s="13"/>
       <c r="E278"/>
       <c r="H278"/>
     </row>
     <row r="279" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D279" s="15"/>
+      <c r="D279" s="13"/>
       <c r="E279"/>
       <c r="H279"/>
     </row>
     <row r="280" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D280" s="15"/>
+      <c r="D280" s="13"/>
       <c r="E280"/>
       <c r="H280"/>
     </row>
     <row r="281" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D281" s="15"/>
+      <c r="D281" s="13"/>
       <c r="E281"/>
       <c r="H281"/>
     </row>
     <row r="282" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D282" s="15"/>
+      <c r="D282" s="13"/>
       <c r="E282"/>
       <c r="H282"/>
     </row>
     <row r="283" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D283" s="15"/>
+      <c r="D283" s="13"/>
       <c r="E283"/>
       <c r="H283"/>
     </row>
     <row r="284" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D284" s="15"/>
+      <c r="D284" s="13"/>
       <c r="E284"/>
       <c r="H284"/>
     </row>
     <row r="285" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D285" s="15"/>
+      <c r="D285" s="13"/>
       <c r="E285"/>
       <c r="H285"/>
     </row>
     <row r="286" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D286" s="15"/>
+      <c r="D286" s="13"/>
       <c r="E286"/>
       <c r="H286"/>
     </row>
     <row r="287" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D287" s="15"/>
+      <c r="D287" s="13"/>
       <c r="E287"/>
       <c r="H287"/>
     </row>
     <row r="288" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D288" s="15"/>
+      <c r="D288" s="13"/>
       <c r="E288"/>
       <c r="H288"/>
     </row>
     <row r="289" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D289" s="15"/>
+      <c r="D289" s="13"/>
       <c r="E289"/>
       <c r="H289"/>
     </row>
     <row r="290" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D290" s="15"/>
+      <c r="D290" s="13"/>
       <c r="E290"/>
       <c r="H290"/>
     </row>
     <row r="291" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D291" s="15"/>
+      <c r="D291" s="13"/>
       <c r="E291"/>
       <c r="H291"/>
     </row>
     <row r="292" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D292" s="15"/>
+      <c r="D292" s="13"/>
       <c r="E292"/>
       <c r="H292"/>
     </row>
     <row r="293" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D293" s="15"/>
+      <c r="D293" s="13"/>
       <c r="E293"/>
       <c r="H293"/>
     </row>
     <row r="294" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D294" s="15"/>
+      <c r="D294" s="13"/>
       <c r="E294"/>
       <c r="H294"/>
     </row>
     <row r="295" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D295" s="15"/>
+      <c r="D295" s="13"/>
       <c r="E295"/>
       <c r="H295"/>
     </row>
     <row r="296" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D296" s="15"/>
+      <c r="D296" s="13"/>
       <c r="E296"/>
       <c r="H296"/>
     </row>
     <row r="297" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D297" s="15"/>
+      <c r="D297" s="13"/>
       <c r="E297"/>
       <c r="H297"/>
     </row>
     <row r="298" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D298" s="15"/>
+      <c r="D298" s="13"/>
       <c r="E298"/>
       <c r="H298"/>
     </row>
     <row r="299" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D299" s="15"/>
+      <c r="D299" s="13"/>
       <c r="E299"/>
       <c r="H299"/>
     </row>
     <row r="300" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D300" s="15"/>
+      <c r="D300" s="13"/>
       <c r="E300"/>
       <c r="H300"/>
     </row>
     <row r="301" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D301" s="15"/>
+      <c r="D301" s="13"/>
       <c r="E301"/>
       <c r="H301"/>
     </row>
     <row r="302" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D302" s="15"/>
+      <c r="D302" s="13"/>
       <c r="E302"/>
       <c r="H302"/>
     </row>
     <row r="303" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D303" s="15"/>
+      <c r="D303" s="13"/>
       <c r="E303"/>
       <c r="H303"/>
     </row>
     <row r="304" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D304" s="15"/>
+      <c r="D304" s="13"/>
       <c r="E304"/>
       <c r="H304"/>
     </row>
     <row r="305" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D305" s="15"/>
+      <c r="D305" s="13"/>
       <c r="E305"/>
       <c r="H305"/>
     </row>
     <row r="306" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D306" s="15"/>
+      <c r="D306" s="13"/>
       <c r="E306"/>
       <c r="H306"/>
     </row>
     <row r="307" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D307" s="15"/>
+      <c r="D307" s="13"/>
       <c r="E307"/>
       <c r="H307"/>
     </row>
     <row r="308" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D308" s="15"/>
+      <c r="D308" s="13"/>
       <c r="E308"/>
       <c r="H308"/>
     </row>
     <row r="309" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D309" s="15"/>
+      <c r="D309" s="13"/>
       <c r="E309"/>
       <c r="H309"/>
     </row>
     <row r="310" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D310" s="15"/>
+      <c r="D310" s="13"/>
       <c r="E310"/>
       <c r="H310"/>
     </row>
     <row r="311" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D311" s="15"/>
+      <c r="D311" s="13"/>
       <c r="E311"/>
       <c r="H311"/>
     </row>
     <row r="312" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D312" s="15"/>
+      <c r="D312" s="13"/>
       <c r="E312"/>
       <c r="H312"/>
     </row>
     <row r="313" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D313" s="15"/>
+      <c r="D313" s="13"/>
       <c r="E313"/>
       <c r="H313"/>
     </row>
     <row r="314" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D314" s="15"/>
+      <c r="D314" s="13"/>
       <c r="E314"/>
       <c r="H314"/>
     </row>
     <row r="315" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D315" s="15"/>
+      <c r="D315" s="13"/>
       <c r="E315"/>
       <c r="H315"/>
     </row>
     <row r="316" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D316" s="15"/>
+      <c r="D316" s="13"/>
       <c r="E316"/>
       <c r="H316"/>
     </row>
     <row r="317" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D317" s="15"/>
+      <c r="D317" s="13"/>
       <c r="E317"/>
       <c r="H317"/>
     </row>
     <row r="318" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D318" s="15"/>
+      <c r="D318" s="13"/>
       <c r="E318"/>
       <c r="H318"/>
     </row>
     <row r="319" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D319" s="15"/>
+      <c r="D319" s="13"/>
       <c r="E319"/>
       <c r="H319"/>
     </row>
     <row r="320" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D320" s="15"/>
+      <c r="D320" s="13"/>
       <c r="E320"/>
       <c r="H320"/>
     </row>
     <row r="321" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D321" s="15"/>
+      <c r="D321" s="13"/>
       <c r="E321"/>
       <c r="H321"/>
     </row>
     <row r="322" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D322" s="15"/>
+      <c r="D322" s="13"/>
       <c r="E322"/>
       <c r="H322"/>
     </row>
     <row r="323" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D323" s="15"/>
+      <c r="D323" s="13"/>
       <c r="E323"/>
       <c r="H323"/>
     </row>
     <row r="324" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D324" s="15"/>
+      <c r="D324" s="13"/>
       <c r="E324"/>
       <c r="H324"/>
     </row>
     <row r="325" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D325" s="15"/>
+      <c r="D325" s="13"/>
       <c r="E325"/>
       <c r="H325"/>
     </row>
     <row r="326" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D326" s="15"/>
+      <c r="D326" s="13"/>
       <c r="E326"/>
       <c r="H326"/>
     </row>
     <row r="327" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D327" s="15"/>
+      <c r="D327" s="13"/>
       <c r="E327"/>
       <c r="H327"/>
     </row>
     <row r="328" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D328" s="15"/>
+      <c r="D328" s="13"/>
       <c r="E328"/>
       <c r="H328"/>
     </row>
     <row r="329" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D329" s="15"/>
+      <c r="D329" s="13"/>
       <c r="E329"/>
       <c r="H329"/>
     </row>
     <row r="330" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D330" s="15"/>
+      <c r="D330" s="13"/>
       <c r="E330"/>
       <c r="H330"/>
     </row>
     <row r="331" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D331" s="15"/>
+      <c r="D331" s="13"/>
       <c r="E331"/>
       <c r="H331"/>
     </row>
     <row r="332" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D332" s="15"/>
+      <c r="D332" s="13"/>
       <c r="E332"/>
       <c r="H332"/>
     </row>
     <row r="333" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D333" s="15"/>
+      <c r="D333" s="13"/>
       <c r="E333"/>
       <c r="H333"/>
     </row>
     <row r="334" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D334" s="15"/>
+      <c r="D334" s="13"/>
       <c r="E334"/>
       <c r="H334"/>
     </row>
     <row r="335" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D335" s="15"/>
+      <c r="D335" s="13"/>
       <c r="E335"/>
       <c r="H335"/>
     </row>
     <row r="336" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D336" s="15"/>
+      <c r="D336" s="13"/>
       <c r="E336"/>
       <c r="H336"/>
     </row>
     <row r="337" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D337" s="15"/>
+      <c r="D337" s="13"/>
       <c r="E337"/>
       <c r="H337"/>
     </row>
     <row r="338" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D338" s="15"/>
+      <c r="D338" s="13"/>
       <c r="E338"/>
       <c r="H338"/>
     </row>
     <row r="339" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D339" s="15"/>
+      <c r="D339" s="13"/>
       <c r="E339"/>
       <c r="H339"/>
     </row>
     <row r="340" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D340" s="15"/>
+      <c r="D340" s="13"/>
       <c r="E340"/>
       <c r="H340"/>
     </row>
     <row r="341" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D341" s="15"/>
+      <c r="D341" s="13"/>
       <c r="E341"/>
       <c r="H341"/>
     </row>
     <row r="342" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D342" s="15"/>
+      <c r="D342" s="13"/>
       <c r="E342"/>
       <c r="H342"/>
     </row>
     <row r="343" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D343" s="15"/>
+      <c r="D343" s="13"/>
       <c r="E343"/>
       <c r="H343"/>
     </row>
     <row r="344" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D344" s="15"/>
+      <c r="D344" s="13"/>
       <c r="E344"/>
       <c r="H344"/>
     </row>
     <row r="345" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D345" s="15"/>
+      <c r="D345" s="13"/>
       <c r="E345"/>
       <c r="H345"/>
     </row>
     <row r="346" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D346" s="15"/>
+      <c r="D346" s="13"/>
       <c r="E346"/>
       <c r="H346"/>
     </row>
     <row r="347" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D347" s="15"/>
+      <c r="D347" s="13"/>
       <c r="E347"/>
       <c r="H347"/>
     </row>
     <row r="348" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D348" s="15"/>
+      <c r="D348" s="13"/>
       <c r="E348"/>
       <c r="H348"/>
     </row>
     <row r="349" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D349" s="15"/>
+      <c r="D349" s="13"/>
       <c r="E349"/>
       <c r="H349"/>
     </row>
     <row r="350" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D350" s="15"/>
+      <c r="D350" s="13"/>
       <c r="E350"/>
       <c r="H350"/>
     </row>
     <row r="351" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D351" s="15"/>
+      <c r="D351" s="13"/>
       <c r="E351"/>
       <c r="H351"/>
     </row>
     <row r="352" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D352" s="15"/>
+      <c r="D352" s="13"/>
       <c r="E352"/>
       <c r="H352"/>
     </row>
     <row r="353" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D353" s="15"/>
+      <c r="D353" s="13"/>
       <c r="E353"/>
       <c r="H353"/>
     </row>
     <row r="354" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D354" s="15"/>
+      <c r="D354" s="13"/>
       <c r="E354"/>
       <c r="H354"/>
     </row>
     <row r="355" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D355" s="15"/>
+      <c r="D355" s="13"/>
       <c r="E355"/>
       <c r="H355"/>
     </row>
     <row r="356" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D356" s="15"/>
+      <c r="D356" s="13"/>
       <c r="E356"/>
       <c r="H356"/>
     </row>
     <row r="357" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D357" s="15"/>
+      <c r="D357" s="13"/>
       <c r="E357"/>
       <c r="H357"/>
     </row>
     <row r="358" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D358" s="15"/>
+      <c r="D358" s="13"/>
       <c r="E358"/>
       <c r="H358"/>
     </row>
     <row r="359" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D359" s="15"/>
+      <c r="D359" s="13"/>
       <c r="E359"/>
       <c r="H359"/>
     </row>
     <row r="360" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D360" s="15"/>
+      <c r="D360" s="13"/>
       <c r="E360"/>
       <c r="H360"/>
     </row>
     <row r="361" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D361" s="15"/>
+      <c r="D361" s="13"/>
       <c r="E361"/>
       <c r="H361"/>
     </row>
     <row r="362" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D362" s="15"/>
+      <c r="D362" s="13"/>
       <c r="E362"/>
       <c r="H362"/>
     </row>
     <row r="363" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D363" s="15"/>
+      <c r="D363" s="13"/>
       <c r="E363"/>
       <c r="H363"/>
     </row>
     <row r="364" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D364" s="15"/>
+      <c r="D364" s="13"/>
       <c r="E364"/>
       <c r="H364"/>
     </row>
     <row r="365" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D365" s="15"/>
+      <c r="D365" s="13"/>
       <c r="E365"/>
       <c r="H365"/>
     </row>
     <row r="366" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D366" s="15"/>
+      <c r="D366" s="13"/>
       <c r="E366"/>
       <c r="H366"/>
     </row>
     <row r="367" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D367" s="15"/>
+      <c r="D367" s="13"/>
       <c r="E367"/>
       <c r="H367"/>
     </row>
     <row r="368" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D368" s="15"/>
+      <c r="D368" s="13"/>
       <c r="E368"/>
       <c r="H368"/>
     </row>
     <row r="369" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D369" s="15"/>
+      <c r="D369" s="13"/>
       <c r="E369"/>
       <c r="H369"/>
     </row>
     <row r="370" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D370" s="15"/>
+      <c r="D370" s="13"/>
       <c r="E370"/>
       <c r="H370"/>
     </row>
     <row r="371" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D371" s="15"/>
+      <c r="D371" s="13"/>
       <c r="E371"/>
       <c r="H371"/>
     </row>
     <row r="372" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D372" s="15"/>
+      <c r="D372" s="13"/>
       <c r="E372"/>
       <c r="H372"/>
     </row>
     <row r="373" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D373" s="15"/>
+      <c r="D373" s="13"/>
       <c r="E373"/>
       <c r="H373"/>
     </row>
     <row r="374" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D374" s="15"/>
+      <c r="D374" s="13"/>
       <c r="E374"/>
       <c r="H374"/>
     </row>
     <row r="375" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D375" s="15"/>
+      <c r="D375" s="13"/>
       <c r="E375"/>
       <c r="H375"/>
     </row>
     <row r="376" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D376" s="15"/>
+      <c r="D376" s="13"/>
       <c r="E376"/>
       <c r="H376"/>
     </row>
     <row r="377" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D377" s="15"/>
+      <c r="D377" s="13"/>
       <c r="E377"/>
       <c r="H377"/>
     </row>
     <row r="378" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D378" s="15"/>
+      <c r="D378" s="13"/>
       <c r="E378"/>
       <c r="H378"/>
     </row>
     <row r="379" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D379" s="15"/>
+      <c r="D379" s="13"/>
       <c r="E379"/>
       <c r="H379"/>
     </row>
     <row r="380" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D380" s="15"/>
+      <c r="D380" s="13"/>
       <c r="E380"/>
       <c r="H380"/>
     </row>
     <row r="381" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D381" s="15"/>
+      <c r="D381" s="13"/>
       <c r="E381"/>
       <c r="H381"/>
     </row>
     <row r="382" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D382" s="15"/>
+      <c r="D382" s="13"/>
       <c r="E382"/>
       <c r="H382"/>
     </row>
     <row r="383" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D383" s="15"/>
+      <c r="D383" s="13"/>
       <c r="E383"/>
       <c r="H383"/>
     </row>
     <row r="384" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D384" s="15"/>
+      <c r="D384" s="13"/>
       <c r="E384"/>
       <c r="H384"/>
     </row>
     <row r="385" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D385" s="15"/>
+      <c r="D385" s="13"/>
       <c r="E385"/>
       <c r="H385"/>
     </row>
     <row r="386" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D386" s="15"/>
+      <c r="D386" s="13"/>
       <c r="E386"/>
       <c r="H386"/>
     </row>
     <row r="387" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D387" s="15"/>
+      <c r="D387" s="13"/>
       <c r="E387"/>
       <c r="H387"/>
     </row>
     <row r="388" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D388" s="15"/>
+      <c r="D388" s="13"/>
       <c r="E388"/>
       <c r="H388"/>
     </row>
     <row r="389" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D389" s="15"/>
+      <c r="D389" s="13"/>
       <c r="E389"/>
       <c r="H389"/>
     </row>
     <row r="390" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D390" s="15"/>
+      <c r="D390" s="13"/>
       <c r="E390"/>
       <c r="H390"/>
     </row>
     <row r="391" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D391" s="15"/>
+      <c r="D391" s="13"/>
       <c r="E391"/>
       <c r="H391"/>
     </row>
     <row r="392" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D392" s="15"/>
+      <c r="D392" s="13"/>
       <c r="E392"/>
       <c r="H392"/>
     </row>
     <row r="393" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D393" s="15"/>
+      <c r="D393" s="13"/>
       <c r="E393"/>
       <c r="H393"/>
     </row>
     <row r="394" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D394" s="15"/>
+      <c r="D394" s="13"/>
       <c r="E394"/>
       <c r="H394"/>
     </row>
     <row r="395" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D395" s="15"/>
+      <c r="D395" s="13"/>
       <c r="E395"/>
       <c r="H395"/>
     </row>
     <row r="396" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D396" s="15"/>
+      <c r="D396" s="13"/>
       <c r="E396"/>
       <c r="H396"/>
     </row>
     <row r="397" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D397" s="15"/>
+      <c r="D397" s="13"/>
       <c r="E397"/>
       <c r="H397"/>
     </row>
     <row r="398" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D398" s="15"/>
+      <c r="D398" s="13"/>
       <c r="E398"/>
       <c r="H398"/>
     </row>
     <row r="399" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D399" s="15"/>
+      <c r="D399" s="13"/>
       <c r="E399"/>
       <c r="H399"/>
     </row>
     <row r="400" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D400" s="15"/>
+      <c r="D400" s="13"/>
       <c r="E400"/>
       <c r="H400"/>
     </row>
     <row r="401" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D401" s="15"/>
+      <c r="D401" s="13"/>
       <c r="E401"/>
       <c r="H401"/>
     </row>
     <row r="402" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D402" s="15"/>
+      <c r="D402" s="13"/>
       <c r="E402"/>
       <c r="H402"/>
     </row>
     <row r="403" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D403" s="15"/>
+      <c r="D403" s="13"/>
       <c r="E403"/>
       <c r="H403"/>
     </row>
     <row r="404" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D404" s="15"/>
+      <c r="D404" s="13"/>
       <c r="E404"/>
       <c r="H404"/>
     </row>
     <row r="405" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D405" s="15"/>
+      <c r="D405" s="13"/>
       <c r="E405"/>
       <c r="H405"/>
     </row>
     <row r="406" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D406" s="15"/>
+      <c r="D406" s="13"/>
       <c r="E406"/>
       <c r="H406"/>
     </row>
     <row r="407" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D407" s="15"/>
+      <c r="D407" s="13"/>
       <c r="E407"/>
       <c r="H407"/>
     </row>
     <row r="408" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D408" s="15"/>
+      <c r="D408" s="13"/>
       <c r="E408"/>
       <c r="H408"/>
     </row>
     <row r="409" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D409" s="15"/>
+      <c r="D409" s="13"/>
       <c r="E409"/>
       <c r="H409"/>
     </row>
     <row r="410" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D410" s="15"/>
+      <c r="D410" s="13"/>
       <c r="E410"/>
       <c r="H410"/>
     </row>
     <row r="411" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D411" s="15"/>
+      <c r="D411" s="13"/>
       <c r="E411"/>
       <c r="H411"/>
     </row>
     <row r="412" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D412" s="15"/>
+      <c r="D412" s="13"/>
       <c r="E412"/>
       <c r="H412"/>
     </row>
     <row r="413" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D413" s="15"/>
+      <c r="D413" s="13"/>
       <c r="E413"/>
       <c r="H413"/>
     </row>
     <row r="414" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D414" s="15"/>
+      <c r="D414" s="13"/>
       <c r="E414"/>
       <c r="H414"/>
     </row>
     <row r="415" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D415" s="15"/>
+      <c r="D415" s="13"/>
       <c r="E415"/>
       <c r="H415"/>
     </row>
     <row r="416" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D416" s="15"/>
+      <c r="D416" s="13"/>
       <c r="E416"/>
       <c r="H416"/>
     </row>
     <row r="417" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D417" s="15"/>
+      <c r="D417" s="13"/>
       <c r="E417"/>
       <c r="H417"/>
     </row>
     <row r="418" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D418" s="15"/>
+      <c r="D418" s="13"/>
       <c r="E418"/>
       <c r="H418"/>
     </row>
     <row r="419" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D419" s="15"/>
+      <c r="D419" s="13"/>
       <c r="E419"/>
       <c r="H419"/>
     </row>
     <row r="420" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D420" s="15"/>
+      <c r="D420" s="13"/>
       <c r="E420"/>
       <c r="H420"/>
     </row>
     <row r="421" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D421" s="15"/>
+      <c r="D421" s="13"/>
       <c r="E421"/>
       <c r="H421"/>
     </row>
     <row r="422" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D422" s="15"/>
+      <c r="D422" s="13"/>
       <c r="E422"/>
       <c r="H422"/>
     </row>
     <row r="423" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D423" s="15"/>
+      <c r="D423" s="13"/>
       <c r="E423"/>
       <c r="H423"/>
     </row>
     <row r="424" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D424" s="15"/>
+      <c r="D424" s="13"/>
       <c r="E424"/>
       <c r="H424"/>
     </row>
     <row r="425" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D425" s="15"/>
+      <c r="D425" s="13"/>
       <c r="E425"/>
       <c r="H425"/>
     </row>
     <row r="426" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D426" s="15"/>
+      <c r="D426" s="13"/>
       <c r="E426"/>
       <c r="H426"/>
     </row>
     <row r="427" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D427" s="15"/>
+      <c r="D427" s="13"/>
       <c r="E427"/>
       <c r="H427"/>
     </row>
     <row r="428" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D428" s="15"/>
+      <c r="D428" s="13"/>
       <c r="E428"/>
       <c r="H428"/>
     </row>
     <row r="429" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D429" s="15"/>
+      <c r="D429" s="13"/>
       <c r="E429"/>
       <c r="H429"/>
     </row>
     <row r="430" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D430" s="15"/>
+      <c r="D430" s="13"/>
       <c r="E430"/>
       <c r="H430"/>
     </row>
     <row r="431" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D431" s="15"/>
+      <c r="D431" s="13"/>
       <c r="E431"/>
       <c r="H431"/>
     </row>
     <row r="432" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D432" s="15"/>
+      <c r="D432" s="13"/>
       <c r="E432"/>
       <c r="H432"/>
     </row>
     <row r="433" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D433" s="15"/>
+      <c r="D433" s="13"/>
       <c r="E433"/>
       <c r="H433"/>
     </row>
     <row r="434" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D434" s="15"/>
+      <c r="D434" s="13"/>
       <c r="E434"/>
       <c r="H434"/>
     </row>
     <row r="435" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D435" s="15"/>
+      <c r="D435" s="13"/>
       <c r="E435"/>
       <c r="H435"/>
     </row>
     <row r="436" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D436" s="15"/>
+      <c r="D436" s="13"/>
       <c r="E436"/>
       <c r="H436"/>
     </row>
     <row r="437" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D437" s="15"/>
+      <c r="D437" s="13"/>
       <c r="E437"/>
       <c r="H437"/>
     </row>
     <row r="438" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D438" s="15"/>
+      <c r="D438" s="13"/>
       <c r="E438"/>
       <c r="H438"/>
     </row>
     <row r="439" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D439" s="15"/>
+      <c r="D439" s="13"/>
       <c r="E439"/>
       <c r="H439"/>
     </row>
     <row r="440" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D440" s="15"/>
+      <c r="D440" s="13"/>
       <c r="E440"/>
       <c r="H440"/>
     </row>
     <row r="441" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D441" s="15"/>
+      <c r="D441" s="13"/>
       <c r="E441"/>
       <c r="H441"/>
     </row>
     <row r="442" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D442" s="15"/>
+      <c r="D442" s="13"/>
       <c r="E442"/>
       <c r="H442"/>
     </row>
     <row r="443" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D443" s="15"/>
+      <c r="D443" s="13"/>
       <c r="E443"/>
       <c r="H443"/>
     </row>
     <row r="444" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D444" s="15"/>
+      <c r="D444" s="13"/>
       <c r="E444"/>
       <c r="H444"/>
     </row>
     <row r="445" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D445" s="15"/>
+      <c r="D445" s="13"/>
       <c r="E445"/>
       <c r="H445"/>
     </row>
     <row r="446" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D446" s="15"/>
+      <c r="D446" s="13"/>
       <c r="E446"/>
       <c r="H446"/>
     </row>
     <row r="447" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D447" s="15"/>
+      <c r="D447" s="13"/>
       <c r="E447"/>
       <c r="H447"/>
     </row>
     <row r="448" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D448" s="15"/>
+      <c r="D448" s="13"/>
       <c r="E448"/>
       <c r="H448"/>
     </row>
     <row r="449" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D449" s="15"/>
+      <c r="D449" s="13"/>
       <c r="E449"/>
       <c r="H449"/>
     </row>
     <row r="450" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D450" s="15"/>
+      <c r="D450" s="13"/>
       <c r="E450"/>
       <c r="H450"/>
     </row>
     <row r="451" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D451" s="15"/>
+      <c r="D451" s="13"/>
       <c r="E451"/>
       <c r="H451"/>
     </row>
     <row r="452" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D452" s="15"/>
+      <c r="D452" s="13"/>
       <c r="E452"/>
       <c r="H452"/>
     </row>
     <row r="453" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D453" s="15"/>
+      <c r="D453" s="13"/>
       <c r="E453"/>
       <c r="H453"/>
     </row>
     <row r="454" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D454" s="15"/>
+      <c r="D454" s="13"/>
       <c r="E454"/>
       <c r="H454"/>
     </row>
     <row r="455" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D455" s="15"/>
+      <c r="D455" s="13"/>
       <c r="E455"/>
       <c r="H455"/>
     </row>
     <row r="456" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D456" s="15"/>
+      <c r="D456" s="13"/>
       <c r="E456"/>
       <c r="H456"/>
     </row>
     <row r="457" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D457" s="15"/>
+      <c r="D457" s="13"/>
       <c r="E457"/>
       <c r="H457"/>
     </row>
     <row r="458" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D458" s="15"/>
+      <c r="D458" s="13"/>
       <c r="E458"/>
       <c r="H458"/>
     </row>
     <row r="459" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D459" s="15"/>
+      <c r="D459" s="13"/>
       <c r="E459"/>
       <c r="H459"/>
     </row>
     <row r="460" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D460" s="15"/>
+      <c r="D460" s="13"/>
       <c r="E460"/>
       <c r="H460"/>
     </row>
     <row r="461" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D461" s="15"/>
+      <c r="D461" s="13"/>
       <c r="E461"/>
       <c r="H461"/>
     </row>
     <row r="462" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D462" s="15"/>
+      <c r="D462" s="13"/>
       <c r="E462"/>
       <c r="H462"/>
     </row>
     <row r="463" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D463" s="15"/>
+      <c r="D463" s="13"/>
       <c r="E463"/>
       <c r="H463"/>
     </row>
     <row r="464" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D464" s="15"/>
+      <c r="D464" s="13"/>
       <c r="E464"/>
       <c r="H464"/>
     </row>
     <row r="465" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D465" s="15"/>
+      <c r="D465" s="13"/>
       <c r="E465"/>
       <c r="H465"/>
     </row>
     <row r="466" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D466" s="15"/>
+      <c r="D466" s="13"/>
       <c r="E466"/>
       <c r="H466"/>
     </row>
     <row r="467" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D467" s="15"/>
+      <c r="D467" s="13"/>
       <c r="E467"/>
       <c r="H467"/>
     </row>
     <row r="468" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D468" s="15"/>
+      <c r="D468" s="13"/>
       <c r="E468"/>
       <c r="H468"/>
     </row>
     <row r="469" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D469" s="15"/>
+      <c r="D469" s="13"/>
       <c r="E469"/>
       <c r="H469"/>
     </row>
     <row r="470" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D470" s="15"/>
+      <c r="D470" s="13"/>
       <c r="E470"/>
       <c r="H470"/>
     </row>
     <row r="471" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D471" s="15"/>
+      <c r="D471" s="13"/>
       <c r="E471"/>
       <c r="H471"/>
     </row>
     <row r="472" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D472" s="15"/>
+      <c r="D472" s="13"/>
       <c r="E472"/>
       <c r="H472"/>
     </row>
     <row r="473" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D473" s="15"/>
+      <c r="D473" s="13"/>
       <c r="E473"/>
       <c r="H473"/>
     </row>
     <row r="474" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D474" s="15"/>
+      <c r="D474" s="13"/>
       <c r="E474"/>
       <c r="H474"/>
     </row>
     <row r="475" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D475" s="15"/>
+      <c r="D475" s="13"/>
       <c r="E475"/>
       <c r="H475"/>
     </row>
     <row r="476" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D476" s="15"/>
+      <c r="D476" s="13"/>
       <c r="E476"/>
       <c r="H476"/>
     </row>
     <row r="477" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D477" s="15"/>
+      <c r="D477" s="13"/>
       <c r="E477"/>
       <c r="H477"/>
     </row>
     <row r="478" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D478" s="15"/>
+      <c r="D478" s="13"/>
       <c r="E478"/>
       <c r="H478"/>
     </row>
     <row r="479" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D479" s="15"/>
+      <c r="D479" s="13"/>
       <c r="E479"/>
       <c r="H479"/>
     </row>
     <row r="480" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D480" s="15"/>
+      <c r="D480" s="13"/>
       <c r="E480"/>
       <c r="H480"/>
     </row>
     <row r="481" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D481" s="15"/>
+      <c r="D481" s="13"/>
       <c r="E481"/>
       <c r="H481"/>
     </row>
     <row r="482" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D482" s="15"/>
+      <c r="D482" s="13"/>
       <c r="E482"/>
       <c r="H482"/>
     </row>
     <row r="483" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D483" s="15"/>
+      <c r="D483" s="13"/>
       <c r="E483"/>
       <c r="H483"/>
     </row>
     <row r="484" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D484" s="15"/>
+      <c r="D484" s="13"/>
       <c r="E484"/>
       <c r="H484"/>
     </row>
     <row r="485" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D485" s="15"/>
+      <c r="D485" s="13"/>
       <c r="E485"/>
       <c r="H485"/>
     </row>
     <row r="486" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D486" s="15"/>
+      <c r="D486" s="13"/>
       <c r="E486"/>
       <c r="H486"/>
     </row>
     <row r="487" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D487" s="15"/>
+      <c r="D487" s="13"/>
       <c r="E487"/>
       <c r="H487"/>
     </row>
     <row r="488" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D488" s="15"/>
+      <c r="D488" s="13"/>
       <c r="E488"/>
       <c r="H488"/>
     </row>
     <row r="489" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D489" s="15"/>
+      <c r="D489" s="13"/>
       <c r="E489"/>
       <c r="H489"/>
     </row>
     <row r="490" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D490" s="15"/>
+      <c r="D490" s="13"/>
       <c r="E490"/>
       <c r="H490"/>
     </row>
     <row r="491" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D491" s="15"/>
+      <c r="D491" s="13"/>
       <c r="E491"/>
       <c r="H491"/>
     </row>
     <row r="492" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D492" s="15"/>
+      <c r="D492" s="13"/>
       <c r="E492"/>
       <c r="H492"/>
     </row>
     <row r="493" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D493" s="15"/>
+      <c r="D493" s="13"/>
       <c r="E493"/>
       <c r="H493"/>
     </row>
     <row r="494" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D494" s="15"/>
+      <c r="D494" s="13"/>
       <c r="E494"/>
       <c r="H494"/>
     </row>
     <row r="495" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D495" s="15"/>
+      <c r="D495" s="13"/>
       <c r="E495"/>
       <c r="H495"/>
     </row>
     <row r="496" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D496" s="15"/>
+      <c r="D496" s="13"/>
       <c r="E496"/>
       <c r="H496"/>
     </row>
     <row r="497" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D497" s="15"/>
+      <c r="D497" s="13"/>
       <c r="E497"/>
       <c r="H497"/>
     </row>
     <row r="498" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D498" s="15"/>
+      <c r="D498" s="13"/>
       <c r="E498"/>
       <c r="H498"/>
     </row>
     <row r="499" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D499" s="15"/>
+      <c r="D499" s="13"/>
       <c r="E499"/>
       <c r="H499"/>
     </row>
     <row r="500" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D500" s="15"/>
+      <c r="D500" s="13"/>
       <c r="E500"/>
       <c r="H500"/>
     </row>
     <row r="501" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D501" s="15"/>
+      <c r="D501" s="13"/>
       <c r="E501"/>
       <c r="H501"/>
     </row>
     <row r="502" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D502" s="15"/>
+      <c r="D502" s="13"/>
       <c r="E502"/>
       <c r="H502"/>
     </row>
     <row r="503" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D503" s="15"/>
+      <c r="D503" s="13"/>
       <c r="E503"/>
       <c r="H503"/>
     </row>
     <row r="504" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D504" s="15"/>
+      <c r="D504" s="13"/>
       <c r="E504"/>
       <c r="H504"/>
     </row>
     <row r="505" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D505" s="15"/>
+      <c r="D505" s="13"/>
       <c r="E505"/>
       <c r="H505"/>
     </row>
     <row r="506" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D506" s="15"/>
+      <c r="D506" s="13"/>
       <c r="E506"/>
       <c r="H506"/>
     </row>
     <row r="507" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D507" s="15"/>
+      <c r="D507" s="13"/>
       <c r="E507"/>
       <c r="H507"/>
     </row>
     <row r="508" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D508" s="15"/>
+      <c r="D508" s="13"/>
       <c r="E508"/>
       <c r="H508"/>
     </row>
     <row r="509" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D509" s="15"/>
+      <c r="D509" s="13"/>
       <c r="E509"/>
       <c r="H509"/>
     </row>
     <row r="510" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D510" s="15"/>
+      <c r="D510" s="13"/>
       <c r="E510"/>
       <c r="H510"/>
     </row>
     <row r="511" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D511" s="15"/>
+      <c r="D511" s="13"/>
       <c r="E511"/>
       <c r="H511"/>
     </row>
     <row r="512" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D512" s="15"/>
+      <c r="D512" s="13"/>
       <c r="E512"/>
       <c r="H512"/>
     </row>
     <row r="513" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D513" s="15"/>
+      <c r="D513" s="13"/>
       <c r="E513"/>
       <c r="H513"/>
     </row>
     <row r="514" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D514" s="15"/>
+      <c r="D514" s="13"/>
       <c r="E514"/>
       <c r="H514"/>
     </row>
     <row r="515" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D515" s="15"/>
+      <c r="D515" s="13"/>
       <c r="E515"/>
       <c r="H515"/>
     </row>
     <row r="516" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D516" s="15"/>
+      <c r="D516" s="13"/>
       <c r="E516"/>
       <c r="H516"/>
     </row>
     <row r="517" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D517" s="15"/>
+      <c r="D517" s="13"/>
       <c r="E517"/>
       <c r="H517"/>
     </row>
     <row r="518" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D518" s="15"/>
+      <c r="D518" s="13"/>
       <c r="E518"/>
       <c r="H518"/>
     </row>
     <row r="519" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D519" s="15"/>
+      <c r="D519" s="13"/>
       <c r="E519"/>
       <c r="H519"/>
     </row>
     <row r="520" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D520" s="15"/>
+      <c r="D520" s="13"/>
       <c r="E520"/>
       <c r="H520"/>
     </row>
     <row r="521" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D521" s="15"/>
+      <c r="D521" s="13"/>
       <c r="E521"/>
       <c r="H521"/>
     </row>
     <row r="522" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D522" s="15"/>
+      <c r="D522" s="13"/>
       <c r="E522"/>
       <c r="H522"/>
     </row>
     <row r="523" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D523" s="15"/>
+      <c r="D523" s="13"/>
       <c r="E523"/>
       <c r="H523"/>
     </row>
     <row r="524" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D524" s="15"/>
+      <c r="D524" s="13"/>
       <c r="E524"/>
       <c r="H524"/>
     </row>
     <row r="525" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D525" s="15"/>
+      <c r="D525" s="13"/>
       <c r="E525"/>
       <c r="H525"/>
     </row>
     <row r="526" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D526" s="15"/>
+      <c r="D526" s="13"/>
       <c r="E526"/>
       <c r="H526"/>
     </row>
     <row r="527" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D527" s="15"/>
+      <c r="D527" s="13"/>
       <c r="E527"/>
       <c r="H527"/>
     </row>
     <row r="528" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D528" s="15"/>
+      <c r="D528" s="13"/>
       <c r="E528"/>
       <c r="H528"/>
     </row>
     <row r="529" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D529" s="15"/>
+      <c r="D529" s="13"/>
       <c r="E529"/>
       <c r="H529"/>
     </row>
     <row r="530" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D530" s="15"/>
+      <c r="D530" s="13"/>
       <c r="E530"/>
       <c r="H530"/>
     </row>
     <row r="531" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D531" s="15"/>
+      <c r="D531" s="13"/>
       <c r="E531"/>
       <c r="H531"/>
     </row>
     <row r="532" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D532" s="15"/>
+      <c r="D532" s="13"/>
       <c r="E532"/>
       <c r="H532"/>
     </row>
     <row r="533" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D533" s="15"/>
+      <c r="D533" s="13"/>
       <c r="E533"/>
       <c r="H533"/>
     </row>
     <row r="534" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D534" s="15"/>
+      <c r="D534" s="13"/>
       <c r="E534"/>
       <c r="H534"/>
     </row>
     <row r="535" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D535" s="15"/>
+      <c r="D535" s="13"/>
       <c r="E535"/>
       <c r="H535"/>
     </row>
     <row r="536" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D536" s="15"/>
+      <c r="D536" s="13"/>
       <c r="E536"/>
       <c r="H536"/>
     </row>
     <row r="537" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D537" s="15"/>
+      <c r="D537" s="13"/>
       <c r="E537"/>
       <c r="H537"/>
     </row>
     <row r="538" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D538" s="15"/>
+      <c r="D538" s="13"/>
       <c r="E538"/>
       <c r="H538"/>
     </row>
     <row r="539" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D539" s="15"/>
+      <c r="D539" s="13"/>
       <c r="E539"/>
       <c r="H539"/>
     </row>
     <row r="540" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D540" s="15"/>
+      <c r="D540" s="13"/>
       <c r="E540"/>
       <c r="H540"/>
     </row>
     <row r="541" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D541" s="15"/>
+      <c r="D541" s="13"/>
       <c r="E541"/>
       <c r="H541"/>
     </row>
     <row r="542" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D542" s="15"/>
+      <c r="D542" s="13"/>
       <c r="E542"/>
       <c r="H542"/>
     </row>
     <row r="543" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D543" s="15"/>
+      <c r="D543" s="13"/>
       <c r="E543"/>
       <c r="H543"/>
     </row>
     <row r="544" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D544" s="15"/>
+      <c r="D544" s="13"/>
       <c r="E544"/>
       <c r="H544"/>
     </row>
     <row r="545" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D545" s="15"/>
+      <c r="D545" s="13"/>
       <c r="E545"/>
       <c r="H545"/>
     </row>
     <row r="546" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D546" s="15"/>
+      <c r="D546" s="13"/>
       <c r="E546"/>
       <c r="H546"/>
     </row>
     <row r="547" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D547" s="15"/>
+      <c r="D547" s="13"/>
       <c r="E547"/>
       <c r="H547"/>
     </row>
     <row r="548" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D548" s="15"/>
+      <c r="D548" s="13"/>
       <c r="E548"/>
       <c r="H548"/>
     </row>
     <row r="549" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D549" s="15"/>
+      <c r="D549" s="13"/>
       <c r="E549"/>
       <c r="H549"/>
     </row>
     <row r="550" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D550" s="15"/>
+      <c r="D550" s="13"/>
       <c r="E550"/>
       <c r="H550"/>
     </row>
     <row r="551" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D551" s="15"/>
+      <c r="D551" s="13"/>
       <c r="E551"/>
       <c r="H551"/>
     </row>
     <row r="552" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D552" s="15"/>
+      <c r="D552" s="13"/>
       <c r="E552"/>
       <c r="H552"/>
     </row>
     <row r="553" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D553" s="15"/>
+      <c r="D553" s="13"/>
       <c r="E553"/>
       <c r="H553"/>
     </row>
     <row r="554" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D554" s="15"/>
+      <c r="D554" s="13"/>
       <c r="E554"/>
       <c r="H554"/>
     </row>
     <row r="555" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D555" s="15"/>
+      <c r="D555" s="13"/>
       <c r="E555"/>
       <c r="H555"/>
     </row>
     <row r="556" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D556" s="15"/>
+      <c r="D556" s="13"/>
       <c r="E556"/>
       <c r="H556"/>
     </row>
     <row r="557" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D557" s="15"/>
+      <c r="D557" s="13"/>
       <c r="E557"/>
       <c r="H557"/>
     </row>
     <row r="558" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D558" s="15"/>
+      <c r="D558" s="13"/>
       <c r="E558"/>
       <c r="H558"/>
     </row>
     <row r="559" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D559" s="15"/>
+      <c r="D559" s="13"/>
       <c r="E559"/>
       <c r="H559"/>
     </row>
     <row r="560" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D560" s="15"/>
+      <c r="D560" s="13"/>
       <c r="E560"/>
       <c r="H560"/>
     </row>
     <row r="561" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D561" s="15"/>
+      <c r="D561" s="13"/>
       <c r="E561"/>
       <c r="H561"/>
     </row>
     <row r="562" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D562" s="15"/>
+      <c r="D562" s="13"/>
       <c r="E562"/>
       <c r="H562"/>
     </row>
     <row r="563" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D563" s="15"/>
+      <c r="D563" s="13"/>
       <c r="E563"/>
       <c r="H563"/>
     </row>
     <row r="564" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D564" s="15"/>
+      <c r="D564" s="13"/>
       <c r="E564"/>
       <c r="H564"/>
     </row>
     <row r="565" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D565" s="15"/>
+      <c r="D565" s="13"/>
       <c r="E565"/>
       <c r="H565"/>
     </row>
     <row r="566" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D566" s="15"/>
+      <c r="D566" s="13"/>
       <c r="E566"/>
       <c r="H566"/>
     </row>
     <row r="567" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D567" s="15"/>
+      <c r="D567" s="13"/>
       <c r="E567"/>
       <c r="H567"/>
     </row>
     <row r="568" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D568" s="15"/>
+      <c r="D568" s="13"/>
       <c r="E568"/>
       <c r="H568"/>
     </row>
     <row r="569" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D569" s="15"/>
+      <c r="D569" s="13"/>
       <c r="E569"/>
       <c r="H569"/>
     </row>
     <row r="570" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D570" s="15"/>
+      <c r="D570" s="13"/>
       <c r="E570"/>
       <c r="H570"/>
     </row>
     <row r="571" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D571" s="15"/>
+      <c r="D571" s="13"/>
       <c r="E571"/>
       <c r="H571"/>
     </row>
     <row r="572" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D572" s="15"/>
+      <c r="D572" s="13"/>
       <c r="E572"/>
       <c r="H572"/>
     </row>
     <row r="573" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D573" s="15"/>
+      <c r="D573" s="13"/>
       <c r="E573"/>
       <c r="H573"/>
     </row>
     <row r="574" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D574" s="15"/>
+      <c r="D574" s="13"/>
       <c r="E574"/>
       <c r="H574"/>
     </row>
     <row r="575" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D575" s="15"/>
+      <c r="D575" s="13"/>
       <c r="E575"/>
       <c r="H575"/>
     </row>
     <row r="576" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D576" s="15"/>
+      <c r="D576" s="13"/>
       <c r="E576"/>
       <c r="H576"/>
     </row>
     <row r="577" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D577" s="15"/>
+      <c r="D577" s="13"/>
       <c r="E577"/>
       <c r="H577"/>
     </row>
     <row r="578" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D578" s="15"/>
+      <c r="D578" s="13"/>
       <c r="E578"/>
       <c r="H578"/>
     </row>
     <row r="579" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D579" s="15"/>
+      <c r="D579" s="13"/>
       <c r="E579"/>
       <c r="H579"/>
     </row>
     <row r="580" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D580" s="15"/>
+      <c r="D580" s="13"/>
       <c r="E580"/>
       <c r="H580"/>
     </row>
     <row r="581" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D581" s="15"/>
+      <c r="D581" s="13"/>
       <c r="E581"/>
       <c r="H581"/>
     </row>
     <row r="582" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D582" s="15"/>
+      <c r="D582" s="13"/>
       <c r="E582"/>
       <c r="H582"/>
     </row>
     <row r="583" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D583" s="15"/>
+      <c r="D583" s="13"/>
       <c r="E583"/>
       <c r="H583"/>
     </row>
     <row r="584" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D584" s="15"/>
+      <c r="D584" s="13"/>
       <c r="E584"/>
       <c r="H584"/>
     </row>
     <row r="585" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D585" s="15"/>
+      <c r="D585" s="13"/>
       <c r="E585"/>
       <c r="H585"/>
     </row>
     <row r="586" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D586" s="15"/>
+      <c r="D586" s="13"/>
       <c r="E586"/>
       <c r="H586"/>
     </row>
     <row r="587" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D587" s="15"/>
+      <c r="D587" s="13"/>
       <c r="E587"/>
       <c r="H587"/>
     </row>
     <row r="588" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D588" s="15"/>
+      <c r="D588" s="13"/>
       <c r="E588"/>
       <c r="H588"/>
     </row>
     <row r="589" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D589" s="15"/>
+      <c r="D589" s="13"/>
       <c r="E589"/>
       <c r="H589"/>
     </row>
     <row r="590" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D590" s="15"/>
+      <c r="D590" s="13"/>
       <c r="E590"/>
       <c r="H590"/>
     </row>
     <row r="591" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D591" s="15"/>
+      <c r="D591" s="13"/>
       <c r="E591"/>
       <c r="H591"/>
     </row>
     <row r="592" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D592" s="15"/>
+      <c r="D592" s="13"/>
       <c r="E592"/>
       <c r="H592"/>
     </row>
     <row r="593" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D593" s="15"/>
+      <c r="D593" s="13"/>
       <c r="E593"/>
       <c r="H593"/>
     </row>
     <row r="594" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D594" s="15"/>
+      <c r="D594" s="13"/>
       <c r="E594"/>
       <c r="H594"/>
     </row>
     <row r="595" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D595" s="15"/>
+      <c r="D595" s="13"/>
       <c r="E595"/>
       <c r="H595"/>
     </row>
     <row r="596" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D596" s="15"/>
+      <c r="D596" s="13"/>
       <c r="E596"/>
       <c r="H596"/>
     </row>
     <row r="597" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D597" s="15"/>
+      <c r="D597" s="13"/>
       <c r="E597"/>
       <c r="H597"/>
     </row>
     <row r="598" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D598" s="15"/>
+      <c r="D598" s="13"/>
       <c r="E598"/>
       <c r="H598"/>
     </row>
     <row r="599" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D599" s="15"/>
+      <c r="D599" s="13"/>
       <c r="E599"/>
       <c r="H599"/>
     </row>
     <row r="600" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D600" s="15"/>
+      <c r="D600" s="13"/>
       <c r="E600"/>
       <c r="H600"/>
     </row>
     <row r="601" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D601" s="15"/>
+      <c r="D601" s="13"/>
       <c r="E601"/>
       <c r="H601"/>
     </row>
     <row r="602" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D602" s="15"/>
+      <c r="D602" s="13"/>
       <c r="E602"/>
       <c r="H602"/>
     </row>
     <row r="603" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D603" s="15"/>
+      <c r="D603" s="13"/>
       <c r="E603"/>
       <c r="H603"/>
     </row>
     <row r="604" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D604" s="15"/>
+      <c r="D604" s="13"/>
       <c r="E604"/>
       <c r="H604"/>
     </row>
     <row r="605" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D605" s="15"/>
+      <c r="D605" s="13"/>
       <c r="E605"/>
       <c r="H605"/>
     </row>
     <row r="606" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D606" s="15"/>
+      <c r="D606" s="13"/>
       <c r="E606"/>
       <c r="H606"/>
     </row>
     <row r="607" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D607" s="15"/>
+      <c r="D607" s="13"/>
       <c r="E607"/>
       <c r="H607"/>
     </row>
     <row r="608" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D608" s="15"/>
+      <c r="D608" s="13"/>
       <c r="E608"/>
       <c r="H608"/>
     </row>
     <row r="609" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D609" s="15"/>
+      <c r="D609" s="13"/>
       <c r="E609"/>
       <c r="H609"/>
     </row>
     <row r="610" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D610" s="15"/>
+      <c r="D610" s="13"/>
       <c r="E610"/>
       <c r="H610"/>
     </row>
     <row r="611" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D611" s="15"/>
+      <c r="D611" s="13"/>
       <c r="E611"/>
       <c r="H611"/>
     </row>
     <row r="612" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D612" s="15"/>
+      <c r="D612" s="13"/>
       <c r="E612"/>
       <c r="H612"/>
     </row>
     <row r="613" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D613" s="15"/>
+      <c r="D613" s="13"/>
       <c r="E613"/>
       <c r="H613"/>
     </row>
     <row r="614" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D614" s="15"/>
+      <c r="D614" s="13"/>
       <c r="E614"/>
       <c r="H614"/>
     </row>
     <row r="615" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D615" s="15"/>
+      <c r="D615" s="13"/>
       <c r="E615"/>
       <c r="H615"/>
     </row>
     <row r="616" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D616" s="15"/>
+      <c r="D616" s="13"/>
       <c r="E616"/>
       <c r="H616"/>
     </row>
     <row r="617" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D617" s="15"/>
+      <c r="D617" s="13"/>
       <c r="E617"/>
       <c r="H617"/>
     </row>
     <row r="618" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D618" s="15"/>
+      <c r="D618" s="13"/>
       <c r="E618"/>
       <c r="H618"/>
     </row>
     <row r="619" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D619" s="15"/>
+      <c r="D619" s="13"/>
       <c r="E619"/>
       <c r="H619"/>
     </row>
     <row r="620" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D620" s="15"/>
+      <c r="D620" s="13"/>
       <c r="E620"/>
       <c r="H620"/>
     </row>
     <row r="621" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D621" s="15"/>
+      <c r="D621" s="13"/>
       <c r="E621"/>
       <c r="H621"/>
     </row>
     <row r="622" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D622" s="15"/>
+      <c r="D622" s="13"/>
       <c r="E622"/>
       <c r="H622"/>
     </row>
     <row r="623" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D623" s="15"/>
+      <c r="D623" s="13"/>
       <c r="E623"/>
       <c r="H623"/>
     </row>
     <row r="624" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D624" s="15"/>
+      <c r="D624" s="13"/>
       <c r="E624"/>
       <c r="H624"/>
     </row>
     <row r="625" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D625" s="15"/>
+      <c r="D625" s="13"/>
       <c r="E625"/>
       <c r="H625"/>
     </row>
     <row r="626" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D626" s="15"/>
+      <c r="D626" s="13"/>
       <c r="E626"/>
       <c r="H626"/>
     </row>
     <row r="627" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D627" s="15"/>
+      <c r="D627" s="13"/>
       <c r="E627"/>
       <c r="H627"/>
     </row>
     <row r="628" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D628" s="15"/>
+      <c r="D628" s="13"/>
       <c r="E628"/>
       <c r="H628"/>
     </row>
     <row r="629" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D629" s="15"/>
+      <c r="D629" s="13"/>
       <c r="E629"/>
       <c r="H629"/>
     </row>
     <row r="630" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D630" s="15"/>
+      <c r="D630" s="13"/>
       <c r="E630"/>
       <c r="H630"/>
     </row>
     <row r="631" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D631" s="15"/>
+      <c r="D631" s="13"/>
       <c r="E631"/>
       <c r="H631"/>
     </row>
     <row r="632" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D632" s="15"/>
+      <c r="D632" s="13"/>
       <c r="E632"/>
       <c r="H632"/>
     </row>
     <row r="633" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D633" s="15"/>
+      <c r="D633" s="13"/>
       <c r="E633"/>
       <c r="H633"/>
     </row>
     <row r="634" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D634" s="15"/>
+      <c r="D634" s="13"/>
       <c r="E634"/>
       <c r="H634"/>
     </row>
     <row r="635" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D635" s="15"/>
+      <c r="D635" s="13"/>
       <c r="E635"/>
       <c r="H635"/>
     </row>
     <row r="636" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D636" s="15"/>
+      <c r="D636" s="13"/>
       <c r="E636"/>
       <c r="H636"/>
     </row>
@@ -4389,521 +4351,522 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AX8"/>
+  <dimension ref="A1:AX12"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="AT3" sqref="AT3"/>
+    <sheetView topLeftCell="L1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="50" t="s">
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="48" t="s">
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="45" t="s">
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="45" t="s">
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="42" t="s">
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="44"/>
-      <c r="AJ1" s="42" t="s">
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="32"/>
+      <c r="AJ1" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="43"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="42" t="s">
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="32"/>
+      <c r="AO1" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="AP1" s="43"/>
-      <c r="AQ1" s="43"/>
-      <c r="AR1" s="43"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="42" t="s">
+      <c r="AP1" s="31"/>
+      <c r="AQ1" s="31"/>
+      <c r="AR1" s="31"/>
+      <c r="AS1" s="32"/>
+      <c r="AT1" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="AU1" s="43"/>
-      <c r="AV1" s="43"/>
-      <c r="AW1" s="43"/>
-      <c r="AX1" s="44"/>
+      <c r="AU1" s="31"/>
+      <c r="AV1" s="31"/>
+      <c r="AW1" s="31"/>
+      <c r="AX1" s="32"/>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="K2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="M2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="22" t="s">
+      <c r="N2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="22" t="s">
+      <c r="O2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="22" t="s">
+      <c r="P2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="22" t="s">
+      <c r="Q2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="22" t="s">
+      <c r="R2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="22" t="s">
+      <c r="S2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="22" t="s">
+      <c r="T2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="31" t="s">
+      <c r="U2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="V2" s="31" t="s">
+      <c r="V2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="31" t="s">
+      <c r="W2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="X2" s="31" t="s">
+      <c r="X2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="Y2" s="31" t="s">
+      <c r="Y2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="Z2" s="31" t="s">
+      <c r="Z2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="AA2" s="31" t="s">
+      <c r="AA2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="31" t="s">
+      <c r="AB2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="AC2" s="31" t="s">
+      <c r="AC2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="AD2" s="31" t="s">
+      <c r="AD2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="AE2" s="33" t="s">
+      <c r="AE2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="AF2" s="33" t="s">
+      <c r="AF2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="33" t="s">
+      <c r="AG2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="AH2" s="33" t="s">
+      <c r="AH2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="AI2" s="33" t="s">
+      <c r="AI2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="AJ2" s="33" t="s">
+      <c r="AJ2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="AK2" s="33" t="s">
+      <c r="AK2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="33" t="s">
+      <c r="AL2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="AM2" s="33" t="s">
+      <c r="AM2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="AN2" s="33" t="s">
+      <c r="AN2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="AO2" s="33" t="s">
+      <c r="AO2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="AP2" s="33" t="s">
+      <c r="AP2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="AQ2" s="33" t="s">
+      <c r="AQ2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="AR2" s="33" t="s">
+      <c r="AR2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="33" t="s">
+      <c r="AS2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="AT2" s="33" t="s">
+      <c r="AT2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="AU2" s="33" t="s">
+      <c r="AU2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="AV2" s="33" t="s">
+      <c r="AV2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="AW2" s="33" t="s">
+      <c r="AW2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="AX2" s="33" t="s">
+      <c r="AX2" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="18" cm="1">
+      <c r="C3" s="16" cm="1">
         <f t="array" ref="C3">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A3)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>0</v>
       </c>
-      <c r="D3" s="19" cm="1">
+      <c r="D3" s="17" cm="1">
         <f t="array" ref="D3">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A3)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>0</v>
       </c>
-      <c r="E3" s="19" cm="1">
+      <c r="E3" s="17" cm="1">
         <f t="array" ref="E3">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A3)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>0</v>
       </c>
-      <c r="F3" s="19" t="e" cm="1">
+      <c r="F3" s="17" t="e" cm="1">
         <f t="array" ref="F3">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A3)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G3" s="19" t="e" cm="1">
+      <c r="G3" s="17" t="e" cm="1">
         <f t="array" ref="G3">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A3)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>#NUM!</v>
       </c>
-      <c r="H3" s="20" t="e" cm="1">
+      <c r="H3" s="18" t="e" cm="1">
         <f t="array" ref="H3">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A3)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I3" s="19" cm="1">
+      <c r="I3" s="17" cm="1">
         <f t="array" ref="I3">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A3)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>0</v>
       </c>
-      <c r="J3" s="19" cm="1">
+      <c r="J3" s="17" cm="1">
         <f t="array" ref="J3">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A3)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>0</v>
       </c>
-      <c r="K3" s="19" cm="1">
+      <c r="K3" s="17" cm="1">
         <f t="array" ref="K3">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A3)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>0</v>
       </c>
-      <c r="L3" s="19" t="e" cm="1">
+      <c r="L3" s="17" t="e" cm="1">
         <f t="array" ref="L3">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A3)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M3" s="19" t="e" cm="1">
+      <c r="M3" s="17" t="e" cm="1">
         <f t="array" ref="M3">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A3)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>#NUM!</v>
       </c>
-      <c r="N3" s="20" t="e" cm="1">
+      <c r="N3" s="18" t="e" cm="1">
         <f t="array" ref="N3">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A3)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O3" s="19" cm="1">
+      <c r="O3" s="17" cm="1">
         <f t="array" ref="O3">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A3)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>0</v>
       </c>
-      <c r="P3" s="19" cm="1">
+      <c r="P3" s="17" cm="1">
         <f t="array" ref="P3">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A3)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="19" cm="1">
+      <c r="Q3" s="17" cm="1">
         <f t="array" ref="Q3">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A3)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>0</v>
       </c>
-      <c r="R3" s="19" t="e" cm="1">
+      <c r="R3" s="17" t="e" cm="1">
         <f t="array" ref="R3">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A3)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S3" s="19" t="e" cm="1">
+      <c r="S3" s="17" t="e" cm="1">
         <f t="array" ref="S3">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A3)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>#NUM!</v>
       </c>
-      <c r="T3" s="19" t="e" cm="1">
+      <c r="T3" s="17" t="e" cm="1">
         <f t="array" ref="T3">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A3)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U3" s="39" t="e">
+      <c r="U3" s="28" t="e">
         <f>J3/D3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V3" s="8" t="e">
+      <c r="V3" s="6" t="e">
         <f>K3/E3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W3" s="8" t="e">
+      <c r="W3" s="6" t="e">
         <f>L3/F3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X3" s="8" t="e">
+      <c r="X3" s="6" t="e">
         <f>M3/G3</f>
         <v>#NUM!</v>
       </c>
-      <c r="Y3" s="9" t="e">
+      <c r="Y3" s="7" t="e">
         <f>N3/H3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z3" s="10">
+      <c r="Z3" s="8">
         <f>J3-D3</f>
         <v>0</v>
       </c>
-      <c r="AA3" s="11">
+      <c r="AA3" s="9">
         <f>K3-E3</f>
         <v>0</v>
       </c>
-      <c r="AB3" s="11" t="e">
+      <c r="AB3" s="9" t="e">
         <f>L3-F3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC3" s="11" t="e">
+      <c r="AC3" s="9" t="e">
         <f>M3-G3</f>
         <v>#NUM!</v>
       </c>
-      <c r="AD3" s="12" t="e">
+      <c r="AD3" s="10" t="e">
         <f>N3-H3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE3" s="10" t="e">
+      <c r="AE3" s="8" t="e">
         <f t="shared" ref="AE3:AI8" si="0">P3/D3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF3" s="11" t="e">
+      <c r="AF3" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG3" s="11" t="e">
+      <c r="AG3" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH3" s="11" t="e">
+      <c r="AH3" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
-      <c r="AI3" s="12" t="e">
+      <c r="AI3" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ3" s="10">
+      <c r="AJ3" s="8">
         <f t="shared" ref="AJ3:AN8" si="1">P3-D3</f>
         <v>0</v>
       </c>
-      <c r="AK3" s="11">
+      <c r="AK3" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL3" s="11" t="e">
+      <c r="AL3" s="9" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM3" s="11" t="e">
+      <c r="AM3" s="9" t="e">
         <f t="shared" si="1"/>
         <v>#NUM!</v>
       </c>
-      <c r="AN3" s="12" t="e">
+      <c r="AN3" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO3" s="10" t="e">
+      <c r="AO3" s="8" t="e">
         <f t="shared" ref="AO3:AS8" si="2">J3/P3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP3" s="11" t="e">
+      <c r="AP3" s="9" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ3" s="11" t="e">
+      <c r="AQ3" s="9" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR3" s="11" t="e">
+      <c r="AR3" s="9" t="e">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="AS3" s="12" t="e">
+      <c r="AS3" s="10" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT3" s="10">
+      <c r="AT3" s="8">
         <f t="shared" ref="AT3:AX8" si="3">J3 - P3</f>
         <v>0</v>
       </c>
-      <c r="AU3" s="11">
+      <c r="AU3" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AV3" s="11" t="e">
+      <c r="AV3" s="9" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AW3" s="11" t="e">
+      <c r="AW3" s="9" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="AX3" s="12" t="e">
+      <c r="AX3" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="23" cm="1">
+      <c r="C4" s="21" cm="1">
         <f t="array" ref="C4">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A4)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>0</v>
       </c>
-      <c r="D4" s="21" cm="1">
+      <c r="D4" s="19" cm="1">
         <f t="array" ref="D4">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A4)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>0</v>
       </c>
-      <c r="E4" s="21" cm="1">
+      <c r="E4" s="19" cm="1">
         <f t="array" ref="E4">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A4)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>0</v>
       </c>
-      <c r="F4" s="21" t="e" cm="1">
+      <c r="F4" s="19" t="e" cm="1">
         <f t="array" ref="F4">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A4)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G4" s="21" t="e" cm="1">
+      <c r="G4" s="19" t="e" cm="1">
         <f t="array" ref="G4">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A4)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>#NUM!</v>
       </c>
-      <c r="H4" s="24" t="e" cm="1">
+      <c r="H4" s="22" t="e" cm="1">
         <f t="array" ref="H4">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A4)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I4" s="21" cm="1">
+      <c r="I4" s="19" cm="1">
         <f t="array" ref="I4">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A4)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>0</v>
       </c>
-      <c r="J4" s="21" cm="1">
+      <c r="J4" s="19" cm="1">
         <f t="array" ref="J4">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A4)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>0</v>
       </c>
-      <c r="K4" s="21" cm="1">
+      <c r="K4" s="19" cm="1">
         <f t="array" ref="K4">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A4)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>0</v>
       </c>
-      <c r="L4" s="21" t="e" cm="1">
+      <c r="L4" s="19" t="e" cm="1">
         <f t="array" ref="L4">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A4)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M4" s="21" t="e" cm="1">
+      <c r="M4" s="19" t="e" cm="1">
         <f t="array" ref="M4">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A4)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>#NUM!</v>
       </c>
-      <c r="N4" s="24" t="e" cm="1">
+      <c r="N4" s="22" t="e" cm="1">
         <f t="array" ref="N4">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A4)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O4" s="21" cm="1">
+      <c r="O4" s="19" cm="1">
         <f t="array" ref="O4">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A4)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>0</v>
       </c>
-      <c r="P4" s="21" cm="1">
+      <c r="P4" s="19" cm="1">
         <f t="array" ref="P4">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A4)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="21" cm="1">
+      <c r="Q4" s="19" cm="1">
         <f t="array" ref="Q4">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A4)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>0</v>
       </c>
-      <c r="R4" s="21" t="e" cm="1">
+      <c r="R4" s="19" t="e" cm="1">
         <f t="array" ref="R4">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A4)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S4" s="21" t="e" cm="1">
+      <c r="S4" s="19" t="e" cm="1">
         <f t="array" ref="S4">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A4)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>#NUM!</v>
       </c>
-      <c r="T4" s="21" t="e" cm="1">
+      <c r="T4" s="19" t="e" cm="1">
         <f t="array" ref="T4">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A4)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U4" s="40" t="e">
+      <c r="U4" s="29" t="e">
         <f t="shared" ref="U4:U7" si="4">J4/D4</f>
         <v>#DIV/0!</v>
       </c>
@@ -4923,187 +4886,187 @@
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z4" s="34">
+      <c r="Z4" s="26">
         <f t="shared" ref="Z4:Z8" si="6">J4-D4</f>
         <v>0</v>
       </c>
-      <c r="AA4" s="32">
+      <c r="AA4" s="24">
         <f t="shared" ref="AA4:AA8" si="7">K4-E4</f>
         <v>0</v>
       </c>
-      <c r="AB4" s="32" t="e">
+      <c r="AB4" s="24" t="e">
         <f t="shared" ref="AB4:AB8" si="8">L4-F4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC4" s="32" t="e">
+      <c r="AC4" s="24" t="e">
         <f t="shared" ref="AC4:AC8" si="9">M4-G4</f>
         <v>#NUM!</v>
       </c>
-      <c r="AD4" s="35" t="e">
+      <c r="AD4" s="27" t="e">
         <f t="shared" ref="AD4:AD8" si="10">N4-H4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE4" s="34" t="e">
+      <c r="AE4" s="26" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF4" s="32" t="e">
+      <c r="AF4" s="24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG4" s="32" t="e">
+      <c r="AG4" s="24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH4" s="32" t="e">
+      <c r="AH4" s="24" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
-      <c r="AI4" s="35" t="e">
+      <c r="AI4" s="27" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ4" s="34">
+      <c r="AJ4" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK4" s="32">
+      <c r="AK4" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL4" s="32" t="e">
+      <c r="AL4" s="24" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM4" s="32" t="e">
+      <c r="AM4" s="24" t="e">
         <f t="shared" si="1"/>
         <v>#NUM!</v>
       </c>
-      <c r="AN4" s="35" t="e">
+      <c r="AN4" s="27" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO4" s="34" t="e">
+      <c r="AO4" s="26" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP4" s="32" t="e">
+      <c r="AP4" s="24" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ4" s="32" t="e">
+      <c r="AQ4" s="24" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR4" s="32" t="e">
+      <c r="AR4" s="24" t="e">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="AS4" s="35" t="e">
+      <c r="AS4" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT4" s="34">
+      <c r="AT4" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AU4" s="32">
+      <c r="AU4" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AV4" s="32" t="e">
+      <c r="AV4" s="24" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AW4" s="32" t="e">
+      <c r="AW4" s="24" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="AX4" s="35" t="e">
+      <c r="AX4" s="27" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="23" cm="1">
+      <c r="C5" s="21" cm="1">
         <f t="array" ref="C5">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A5)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>0</v>
       </c>
-      <c r="D5" s="21" cm="1">
+      <c r="D5" s="19" cm="1">
         <f t="array" ref="D5">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A5)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>0</v>
       </c>
-      <c r="E5" s="21" cm="1">
+      <c r="E5" s="19" cm="1">
         <f t="array" ref="E5">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A5)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>0</v>
       </c>
-      <c r="F5" s="21" t="e" cm="1">
+      <c r="F5" s="19" t="e" cm="1">
         <f t="array" ref="F5">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A5)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G5" s="21" t="e" cm="1">
+      <c r="G5" s="19" t="e" cm="1">
         <f t="array" ref="G5">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A5)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>#NUM!</v>
       </c>
-      <c r="H5" s="24" t="e" cm="1">
+      <c r="H5" s="22" t="e" cm="1">
         <f t="array" ref="H5">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A5)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I5" s="21" cm="1">
+      <c r="I5" s="19" cm="1">
         <f t="array" ref="I5">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A5)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>0</v>
       </c>
-      <c r="J5" s="21" cm="1">
+      <c r="J5" s="19" cm="1">
         <f t="array" ref="J5">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A5)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>0</v>
       </c>
-      <c r="K5" s="21" cm="1">
+      <c r="K5" s="19" cm="1">
         <f t="array" ref="K5">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A5)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>0</v>
       </c>
-      <c r="L5" s="21" t="e" cm="1">
+      <c r="L5" s="19" t="e" cm="1">
         <f t="array" ref="L5">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A5)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M5" s="21" t="e" cm="1">
+      <c r="M5" s="19" t="e" cm="1">
         <f t="array" ref="M5">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A5)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>#NUM!</v>
       </c>
-      <c r="N5" s="24" t="e" cm="1">
+      <c r="N5" s="22" t="e" cm="1">
         <f t="array" ref="N5">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A5)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O5" s="21" cm="1">
+      <c r="O5" s="19" cm="1">
         <f t="array" ref="O5">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A5)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>0</v>
       </c>
-      <c r="P5" s="21" cm="1">
+      <c r="P5" s="19" cm="1">
         <f t="array" ref="P5">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A5)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="21" cm="1">
+      <c r="Q5" s="19" cm="1">
         <f t="array" ref="Q5">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A5)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>0</v>
       </c>
-      <c r="R5" s="21" t="e" cm="1">
+      <c r="R5" s="19" t="e" cm="1">
         <f t="array" ref="R5">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A5)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S5" s="21" t="e" cm="1">
+      <c r="S5" s="19" t="e" cm="1">
         <f t="array" ref="S5">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A5)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>#NUM!</v>
       </c>
-      <c r="T5" s="21" t="e" cm="1">
+      <c r="T5" s="19" t="e" cm="1">
         <f t="array" ref="T5">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A5)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U5" s="40" t="e">
+      <c r="U5" s="29" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -5123,187 +5086,187 @@
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z5" s="34">
+      <c r="Z5" s="26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AA5" s="32">
+      <c r="AA5" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AB5" s="32" t="e">
+      <c r="AB5" s="24" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC5" s="32" t="e">
+      <c r="AC5" s="24" t="e">
         <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
-      <c r="AD5" s="35" t="e">
+      <c r="AD5" s="27" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE5" s="34" t="e">
+      <c r="AE5" s="26" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF5" s="32" t="e">
+      <c r="AF5" s="24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG5" s="32" t="e">
+      <c r="AG5" s="24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH5" s="32" t="e">
+      <c r="AH5" s="24" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
-      <c r="AI5" s="35" t="e">
+      <c r="AI5" s="27" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ5" s="34">
+      <c r="AJ5" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK5" s="32">
+      <c r="AK5" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL5" s="32" t="e">
+      <c r="AL5" s="24" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM5" s="32" t="e">
+      <c r="AM5" s="24" t="e">
         <f t="shared" si="1"/>
         <v>#NUM!</v>
       </c>
-      <c r="AN5" s="35" t="e">
+      <c r="AN5" s="27" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO5" s="34" t="e">
+      <c r="AO5" s="26" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP5" s="32" t="e">
+      <c r="AP5" s="24" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ5" s="32" t="e">
+      <c r="AQ5" s="24" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR5" s="32" t="e">
+      <c r="AR5" s="24" t="e">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="AS5" s="35" t="e">
+      <c r="AS5" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT5" s="34">
+      <c r="AT5" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AU5" s="32">
+      <c r="AU5" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AV5" s="32" t="e">
+      <c r="AV5" s="24" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AW5" s="32" t="e">
+      <c r="AW5" s="24" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="AX5" s="35" t="e">
+      <c r="AX5" s="27" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="23" cm="1">
+      <c r="C6" s="21" cm="1">
         <f t="array" ref="C6">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A6)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>0</v>
       </c>
-      <c r="D6" s="21" cm="1">
+      <c r="D6" s="19" cm="1">
         <f t="array" ref="D6">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A6)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>0</v>
       </c>
-      <c r="E6" s="21" cm="1">
+      <c r="E6" s="19" cm="1">
         <f t="array" ref="E6">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A6)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>0</v>
       </c>
-      <c r="F6" s="21" t="e" cm="1">
+      <c r="F6" s="19" t="e" cm="1">
         <f t="array" ref="F6">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A6)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G6" s="21" t="e" cm="1">
+      <c r="G6" s="19" t="e" cm="1">
         <f t="array" ref="G6">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A6)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>#NUM!</v>
       </c>
-      <c r="H6" s="24" t="e" cm="1">
+      <c r="H6" s="22" t="e" cm="1">
         <f t="array" ref="H6">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A6)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I6" s="21" cm="1">
+      <c r="I6" s="19" cm="1">
         <f t="array" ref="I6">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A6)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>0</v>
       </c>
-      <c r="J6" s="21" cm="1">
+      <c r="J6" s="19" cm="1">
         <f t="array" ref="J6">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A6)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>0</v>
       </c>
-      <c r="K6" s="21" cm="1">
+      <c r="K6" s="19" cm="1">
         <f t="array" ref="K6">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A6)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>0</v>
       </c>
-      <c r="L6" s="21" t="e" cm="1">
+      <c r="L6" s="19" t="e" cm="1">
         <f t="array" ref="L6">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A6)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M6" s="21" t="e" cm="1">
+      <c r="M6" s="19" t="e" cm="1">
         <f t="array" ref="M6">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A6)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>#NUM!</v>
       </c>
-      <c r="N6" s="24" t="e" cm="1">
+      <c r="N6" s="22" t="e" cm="1">
         <f t="array" ref="N6">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A6)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O6" s="21" cm="1">
+      <c r="O6" s="19" cm="1">
         <f t="array" ref="O6">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A6)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>0</v>
       </c>
-      <c r="P6" s="21" cm="1">
+      <c r="P6" s="19" cm="1">
         <f t="array" ref="P6">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A6)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="21" cm="1">
+      <c r="Q6" s="19" cm="1">
         <f t="array" ref="Q6">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A6)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>0</v>
       </c>
-      <c r="R6" s="21" t="e" cm="1">
+      <c r="R6" s="19" t="e" cm="1">
         <f t="array" ref="R6">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A6)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S6" s="21" t="e" cm="1">
+      <c r="S6" s="19" t="e" cm="1">
         <f t="array" ref="S6">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A6)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>#NUM!</v>
       </c>
-      <c r="T6" s="21" t="e" cm="1">
+      <c r="T6" s="19" t="e" cm="1">
         <f t="array" ref="T6">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A6)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U6" s="40" t="e">
+      <c r="U6" s="29" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -5323,187 +5286,187 @@
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z6" s="34">
+      <c r="Z6" s="26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AA6" s="32">
+      <c r="AA6" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AB6" s="32" t="e">
+      <c r="AB6" s="24" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC6" s="32" t="e">
+      <c r="AC6" s="24" t="e">
         <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
-      <c r="AD6" s="35" t="e">
+      <c r="AD6" s="27" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE6" s="34" t="e">
+      <c r="AE6" s="26" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF6" s="32" t="e">
+      <c r="AF6" s="24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG6" s="32" t="e">
+      <c r="AG6" s="24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH6" s="32" t="e">
+      <c r="AH6" s="24" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
-      <c r="AI6" s="35" t="e">
+      <c r="AI6" s="27" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ6" s="34">
+      <c r="AJ6" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK6" s="32">
+      <c r="AK6" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL6" s="32" t="e">
+      <c r="AL6" s="24" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM6" s="32" t="e">
+      <c r="AM6" s="24" t="e">
         <f t="shared" si="1"/>
         <v>#NUM!</v>
       </c>
-      <c r="AN6" s="35" t="e">
+      <c r="AN6" s="27" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO6" s="34" t="e">
+      <c r="AO6" s="26" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP6" s="32" t="e">
+      <c r="AP6" s="24" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ6" s="32" t="e">
+      <c r="AQ6" s="24" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR6" s="32" t="e">
+      <c r="AR6" s="24" t="e">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="AS6" s="35" t="e">
+      <c r="AS6" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT6" s="34">
+      <c r="AT6" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AU6" s="32">
+      <c r="AU6" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AV6" s="32" t="e">
+      <c r="AV6" s="24" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AW6" s="32" t="e">
+      <c r="AW6" s="24" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="AX6" s="35" t="e">
+      <c r="AX6" s="27" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="23" cm="1">
+      <c r="C7" s="21" cm="1">
         <f t="array" ref="C7">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A7)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>0</v>
       </c>
-      <c r="D7" s="21" cm="1">
+      <c r="D7" s="19" cm="1">
         <f t="array" ref="D7">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A7)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>0</v>
       </c>
-      <c r="E7" s="21" cm="1">
+      <c r="E7" s="19" cm="1">
         <f t="array" ref="E7">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A7)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>0</v>
       </c>
-      <c r="F7" s="21" t="e" cm="1">
+      <c r="F7" s="19" t="e" cm="1">
         <f t="array" ref="F7">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A7)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G7" s="21" t="e" cm="1">
+      <c r="G7" s="19" t="e" cm="1">
         <f t="array" ref="G7">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A7)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>#NUM!</v>
       </c>
-      <c r="H7" s="24" t="e" cm="1">
+      <c r="H7" s="22" t="e" cm="1">
         <f t="array" ref="H7">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A7)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I7" s="21" cm="1">
+      <c r="I7" s="19" cm="1">
         <f t="array" ref="I7">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A7)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>0</v>
       </c>
-      <c r="J7" s="21" cm="1">
+      <c r="J7" s="19" cm="1">
         <f t="array" ref="J7">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A7)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>0</v>
       </c>
-      <c r="K7" s="21" cm="1">
+      <c r="K7" s="19" cm="1">
         <f t="array" ref="K7">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A7)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>0</v>
       </c>
-      <c r="L7" s="21" t="e" cm="1">
+      <c r="L7" s="19" t="e" cm="1">
         <f t="array" ref="L7">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A7)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M7" s="21" t="e" cm="1">
+      <c r="M7" s="19" t="e" cm="1">
         <f t="array" ref="M7">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A7)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>#NUM!</v>
       </c>
-      <c r="N7" s="24" t="e" cm="1">
+      <c r="N7" s="22" t="e" cm="1">
         <f t="array" ref="N7">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A7)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O7" s="21" cm="1">
+      <c r="O7" s="19" cm="1">
         <f t="array" ref="O7">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A7)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>0</v>
       </c>
-      <c r="P7" s="21" cm="1">
+      <c r="P7" s="19" cm="1">
         <f t="array" ref="P7">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A7)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="21" cm="1">
+      <c r="Q7" s="19" cm="1">
         <f t="array" ref="Q7">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A7)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>0</v>
       </c>
-      <c r="R7" s="21" t="e" cm="1">
+      <c r="R7" s="19" t="e" cm="1">
         <f t="array" ref="R7">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A7)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S7" s="21" t="e" cm="1">
+      <c r="S7" s="19" t="e" cm="1">
         <f t="array" ref="S7">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A7)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>#NUM!</v>
       </c>
-      <c r="T7" s="21" t="e" cm="1">
+      <c r="T7" s="19" t="e" cm="1">
         <f t="array" ref="T7">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A7)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U7" s="40" t="e">
+      <c r="U7" s="29" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -5523,304 +5486,1104 @@
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z7" s="34">
+      <c r="Z7" s="26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AA7" s="32">
+      <c r="AA7" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AB7" s="32" t="e">
+      <c r="AB7" s="24" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC7" s="32" t="e">
+      <c r="AC7" s="24" t="e">
         <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
-      <c r="AD7" s="35" t="e">
+      <c r="AD7" s="27" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE7" s="34" t="e">
+      <c r="AE7" s="26" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF7" s="32" t="e">
+      <c r="AF7" s="24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG7" s="32" t="e">
+      <c r="AG7" s="24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH7" s="32" t="e">
+      <c r="AH7" s="24" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
-      <c r="AI7" s="35" t="e">
+      <c r="AI7" s="27" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ7" s="34">
+      <c r="AJ7" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK7" s="32">
+      <c r="AK7" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL7" s="32" t="e">
+      <c r="AL7" s="24" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM7" s="32" t="e">
+      <c r="AM7" s="24" t="e">
         <f t="shared" si="1"/>
         <v>#NUM!</v>
       </c>
-      <c r="AN7" s="35" t="e">
+      <c r="AN7" s="27" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO7" s="34" t="e">
+      <c r="AO7" s="26" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP7" s="32" t="e">
+      <c r="AP7" s="24" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ7" s="32" t="e">
+      <c r="AQ7" s="24" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR7" s="32" t="e">
+      <c r="AR7" s="24" t="e">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="AS7" s="35" t="e">
+      <c r="AS7" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT7" s="34">
+      <c r="AT7" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AU7" s="32">
+      <c r="AU7" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AV7" s="32" t="e">
+      <c r="AV7" s="24" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AW7" s="32" t="e">
+      <c r="AW7" s="24" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="AX7" s="35" t="e">
+      <c r="AX7" s="27" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="25" cm="1">
+      <c r="C8" s="21" cm="1">
         <f t="array" ref="C8">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A8)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>0</v>
       </c>
-      <c r="D8" s="26" cm="1">
+      <c r="D8" s="19" cm="1">
         <f t="array" ref="D8">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A8)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>0</v>
       </c>
-      <c r="E8" s="26" cm="1">
+      <c r="E8" s="19" cm="1">
         <f t="array" ref="E8">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A8)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>0</v>
       </c>
-      <c r="F8" s="26" t="e" cm="1">
+      <c r="F8" s="19" t="e" cm="1">
         <f t="array" ref="F8">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A8)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G8" s="26" t="e" cm="1">
+      <c r="G8" s="19" t="e" cm="1">
         <f t="array" ref="G8">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A8)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>#NUM!</v>
       </c>
-      <c r="H8" s="27" t="e" cm="1">
+      <c r="H8" s="22" t="e" cm="1">
         <f t="array" ref="H8">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A8)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I8" s="26" cm="1">
+      <c r="I8" s="19" cm="1">
         <f t="array" ref="I8">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A8)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>0</v>
       </c>
-      <c r="J8" s="26" cm="1">
+      <c r="J8" s="19" cm="1">
         <f t="array" ref="J8">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A8)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>0</v>
       </c>
-      <c r="K8" s="26" cm="1">
+      <c r="K8" s="19" cm="1">
         <f t="array" ref="K8">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A8)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>0</v>
       </c>
-      <c r="L8" s="26" t="e" cm="1">
+      <c r="L8" s="19" t="e" cm="1">
         <f t="array" ref="L8">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A8)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M8" s="26" t="e" cm="1">
+      <c r="M8" s="19" t="e" cm="1">
         <f t="array" ref="M8">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A8)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>#NUM!</v>
       </c>
-      <c r="N8" s="27" t="e" cm="1">
+      <c r="N8" s="22" t="e" cm="1">
         <f t="array" ref="N8">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A8)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O8" s="26" cm="1">
+      <c r="O8" s="19" cm="1">
         <f t="array" ref="O8">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A8)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>0</v>
       </c>
-      <c r="P8" s="26" cm="1">
+      <c r="P8" s="19" cm="1">
         <f t="array" ref="P8">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A8)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="26" cm="1">
+      <c r="Q8" s="19" cm="1">
         <f t="array" ref="Q8">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A8)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>0</v>
       </c>
-      <c r="R8" s="26" t="e" cm="1">
+      <c r="R8" s="19" t="e" cm="1">
         <f t="array" ref="R8">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A8)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S8" s="26" t="e" cm="1">
+      <c r="S8" s="19" t="e" cm="1">
         <f t="array" ref="S8">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A8)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>#NUM!</v>
       </c>
-      <c r="T8" s="26" t="e" cm="1">
+      <c r="T8" s="19" t="e" cm="1">
         <f t="array" ref="T8">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A8)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U8" s="41" t="e">
+      <c r="U8" s="29" t="e">
         <f t="shared" ref="U8" si="11">J8/D8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V8" s="5" t="e">
+      <c r="V8" s="3" t="e">
         <f t="shared" ref="V8" si="12">K8/E8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W8" s="5" t="e">
+      <c r="W8" s="3" t="e">
         <f t="shared" ref="W8" si="13">L8/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X8" s="5" t="e">
+      <c r="X8" s="3" t="e">
         <f t="shared" ref="X8" si="14">M8/G8</f>
         <v>#NUM!</v>
       </c>
-      <c r="Y8" s="6" t="e">
+      <c r="Y8" s="4" t="e">
         <f t="shared" ref="Y8" si="15">N8/H8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z8" s="36">
+      <c r="Z8" s="26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AA8" s="37">
+      <c r="AA8" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AB8" s="37" t="e">
+      <c r="AB8" s="24" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC8" s="37" t="e">
+      <c r="AC8" s="24" t="e">
         <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
-      <c r="AD8" s="38" t="e">
+      <c r="AD8" s="27" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE8" s="36" t="e">
+      <c r="AE8" s="26" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF8" s="37" t="e">
+      <c r="AF8" s="24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG8" s="37" t="e">
+      <c r="AG8" s="24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH8" s="37" t="e">
+      <c r="AH8" s="24" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
-      <c r="AI8" s="38" t="e">
+      <c r="AI8" s="27" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ8" s="36">
+      <c r="AJ8" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK8" s="37">
+      <c r="AK8" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL8" s="37" t="e">
+      <c r="AL8" s="24" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM8" s="37" t="e">
+      <c r="AM8" s="24" t="e">
         <f t="shared" si="1"/>
         <v>#NUM!</v>
       </c>
-      <c r="AN8" s="38" t="e">
+      <c r="AN8" s="27" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO8" s="36" t="e">
+      <c r="AO8" s="26" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP8" s="37" t="e">
+      <c r="AP8" s="24" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ8" s="37" t="e">
+      <c r="AQ8" s="24" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR8" s="37" t="e">
+      <c r="AR8" s="24" t="e">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="AS8" s="38" t="e">
+      <c r="AS8" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT8" s="36">
+      <c r="AT8" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AU8" s="37">
+      <c r="AU8" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AV8" s="37" t="e">
+      <c r="AV8" s="24" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AW8" s="37" t="e">
+      <c r="AW8" s="24" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="AX8" s="38" t="e">
+      <c r="AX8" s="27" t="e">
         <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="21" cm="1">
+        <f t="array" ref="C9">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A9)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B9)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="19" cm="1">
+        <f t="array" ref="D9">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A9)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B9)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="19" cm="1">
+        <f t="array" ref="E9">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A9)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B9)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="19" t="e" cm="1">
+        <f t="array" ref="F9">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A9)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B9)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G9" s="19" t="e" cm="1">
+        <f t="array" ref="G9">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A9)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B9)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="H9" s="22" t="e" cm="1">
+        <f t="array" ref="H9">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A9)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B9)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I9" s="19" cm="1">
+        <f t="array" ref="I9">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A9)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B9)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="19" cm="1">
+        <f t="array" ref="J9">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A9)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B9)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="19" cm="1">
+        <f t="array" ref="K9">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A9)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B9)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="19" t="e" cm="1">
+        <f t="array" ref="L9">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A9)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B9)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M9" s="19" t="e" cm="1">
+        <f t="array" ref="M9">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A9)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B9)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="N9" s="22" t="e" cm="1">
+        <f t="array" ref="N9">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A9)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B9)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O9" s="19" cm="1">
+        <f t="array" ref="O9">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A9)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B9)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="19" cm="1">
+        <f t="array" ref="P9">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A9)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B9)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="19" cm="1">
+        <f t="array" ref="Q9">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A9)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B9)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="19" t="e" cm="1">
+        <f t="array" ref="R9">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A9)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B9)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S9" s="19" t="e" cm="1">
+        <f t="array" ref="S9">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A9)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B9)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="T9" s="22" t="e" cm="1">
+        <f t="array" ref="T9">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A9)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B9)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U9" s="3" t="e">
+        <f t="shared" ref="U9:U12" si="16">J9/D9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V9" s="3" t="e">
+        <f t="shared" ref="V9:V12" si="17">K9/E9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W9" s="3" t="e">
+        <f t="shared" ref="W9:W12" si="18">L9/F9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X9" s="3" t="e">
+        <f t="shared" ref="X9:X12" si="19">M9/G9</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y9" s="4" t="e">
+        <f t="shared" ref="Y9:Y12" si="20">N9/H9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z9" s="24">
+        <f t="shared" ref="Z9:Z12" si="21">J9-D9</f>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="24">
+        <f t="shared" ref="AA9:AA12" si="22">K9-E9</f>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="24" t="e">
+        <f t="shared" ref="AB9:AB12" si="23">L9-F9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC9" s="24" t="e">
+        <f t="shared" ref="AC9:AC12" si="24">M9-G9</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AD9" s="27" t="e">
+        <f t="shared" ref="AD9:AD12" si="25">N9-H9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE9" s="24" t="e">
+        <f t="shared" ref="AE9:AE12" si="26">P9/D9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF9" s="24" t="e">
+        <f t="shared" ref="AF9:AF12" si="27">Q9/E9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG9" s="24" t="e">
+        <f t="shared" ref="AG9:AG12" si="28">R9/F9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH9" s="24" t="e">
+        <f t="shared" ref="AH9:AH12" si="29">S9/G9</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AI9" s="27" t="e">
+        <f t="shared" ref="AI9:AI12" si="30">T9/H9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ9" s="24">
+        <f t="shared" ref="AJ9:AJ12" si="31">P9-D9</f>
+        <v>0</v>
+      </c>
+      <c r="AK9" s="24">
+        <f t="shared" ref="AK9:AK12" si="32">Q9-E9</f>
+        <v>0</v>
+      </c>
+      <c r="AL9" s="24" t="e">
+        <f t="shared" ref="AL9:AL12" si="33">R9-F9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM9" s="24" t="e">
+        <f t="shared" ref="AM9:AM12" si="34">S9-G9</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AN9" s="27" t="e">
+        <f t="shared" ref="AN9:AN12" si="35">T9-H9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO9" s="24" t="e">
+        <f t="shared" ref="AO9:AO12" si="36">J9/P9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP9" s="24" t="e">
+        <f t="shared" ref="AP9:AP12" si="37">K9/Q9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ9" s="24" t="e">
+        <f t="shared" ref="AQ9:AQ12" si="38">L9/R9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR9" s="24" t="e">
+        <f t="shared" ref="AR9:AR12" si="39">M9/S9</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AS9" s="27" t="e">
+        <f t="shared" ref="AS9:AS12" si="40">N9/T9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT9" s="24">
+        <f t="shared" ref="AT9:AT12" si="41">J9 - P9</f>
+        <v>0</v>
+      </c>
+      <c r="AU9" s="24">
+        <f t="shared" ref="AU9:AU12" si="42">K9 - Q9</f>
+        <v>0</v>
+      </c>
+      <c r="AV9" s="24" t="e">
+        <f t="shared" ref="AV9:AV12" si="43">L9 - R9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW9" s="24" t="e">
+        <f t="shared" ref="AW9:AW12" si="44">M9 - S9</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AX9" s="27" t="e">
+        <f t="shared" ref="AX9:AX12" si="45">N9 - T9</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="21" cm="1">
+        <f t="array" ref="C10">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A10)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B10)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="19" cm="1">
+        <f t="array" ref="D10">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A10)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B10)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="19" cm="1">
+        <f t="array" ref="E10">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A10)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B10)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="19" t="e" cm="1">
+        <f t="array" ref="F10">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A10)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B10)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G10" s="19" t="e" cm="1">
+        <f t="array" ref="G10">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A10)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B10)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="H10" s="22" t="e" cm="1">
+        <f t="array" ref="H10">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A10)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B10)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I10" s="19" cm="1">
+        <f t="array" ref="I10">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A10)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B10)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="19" cm="1">
+        <f t="array" ref="J10">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A10)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B10)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="19" cm="1">
+        <f t="array" ref="K10">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A10)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B10)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="19" t="e" cm="1">
+        <f t="array" ref="L10">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A10)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B10)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M10" s="19" t="e" cm="1">
+        <f t="array" ref="M10">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A10)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B10)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="N10" s="22" t="e" cm="1">
+        <f t="array" ref="N10">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A10)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B10)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O10" s="19" cm="1">
+        <f t="array" ref="O10">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A10)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B10)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="19" cm="1">
+        <f t="array" ref="P10">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A10)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B10)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="19" cm="1">
+        <f t="array" ref="Q10">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A10)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B10)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="19" t="e" cm="1">
+        <f t="array" ref="R10">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A10)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B10)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S10" s="19" t="e" cm="1">
+        <f t="array" ref="S10">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A10)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B10)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="T10" s="22" t="e" cm="1">
+        <f t="array" ref="T10">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A10)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B10)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U10" s="3" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V10" s="3" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W10" s="3" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X10" s="3" t="e">
+        <f t="shared" si="19"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y10" s="4" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z10" s="24">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="24">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AB10" s="24" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC10" s="24" t="e">
+        <f t="shared" si="24"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AD10" s="27" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE10" s="24" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF10" s="24" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG10" s="24" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH10" s="24" t="e">
+        <f t="shared" si="29"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AI10" s="27" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ10" s="24">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AK10" s="24">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AL10" s="24" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM10" s="24" t="e">
+        <f t="shared" si="34"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AN10" s="27" t="e">
+        <f t="shared" si="35"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO10" s="24" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP10" s="24" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ10" s="24" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR10" s="24" t="e">
+        <f t="shared" si="39"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AS10" s="27" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT10" s="24">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AU10" s="24">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AV10" s="24" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW10" s="24" t="e">
+        <f t="shared" si="44"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AX10" s="27" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="21" cm="1">
+        <f t="array" ref="C11">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A11)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B11)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="19" cm="1">
+        <f t="array" ref="D11">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A11)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B11)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="19" cm="1">
+        <f t="array" ref="E11">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A11)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B11)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="19" t="e" cm="1">
+        <f t="array" ref="F11">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A11)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B11)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G11" s="19" t="e" cm="1">
+        <f t="array" ref="G11">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A11)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B11)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="H11" s="22" t="e" cm="1">
+        <f t="array" ref="H11">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A11)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B11)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I11" s="19" cm="1">
+        <f t="array" ref="I11">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A11)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B11)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="19" cm="1">
+        <f t="array" ref="J11">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A11)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B11)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="19" cm="1">
+        <f t="array" ref="K11">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A11)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B11)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="19" t="e" cm="1">
+        <f t="array" ref="L11">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A11)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B11)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M11" s="19" t="e" cm="1">
+        <f t="array" ref="M11">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A11)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B11)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="N11" s="22" t="e" cm="1">
+        <f t="array" ref="N11">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A11)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B11)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O11" s="19" cm="1">
+        <f t="array" ref="O11">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A11)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B11)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="19" cm="1">
+        <f t="array" ref="P11">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A11)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B11)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="19" cm="1">
+        <f t="array" ref="Q11">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A11)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B11)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="19" t="e" cm="1">
+        <f t="array" ref="R11">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A11)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B11)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S11" s="19" t="e" cm="1">
+        <f t="array" ref="S11">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A11)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B11)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="T11" s="22" t="e" cm="1">
+        <f t="array" ref="T11">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A11)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B11)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U11" s="3" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V11" s="3" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W11" s="3" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X11" s="3" t="e">
+        <f t="shared" si="19"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y11" s="4" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z11" s="24">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="24">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="24" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC11" s="24" t="e">
+        <f t="shared" si="24"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AD11" s="27" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE11" s="24" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF11" s="24" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG11" s="24" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH11" s="24" t="e">
+        <f t="shared" si="29"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AI11" s="27" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ11" s="24">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AK11" s="24">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AL11" s="24" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM11" s="24" t="e">
+        <f t="shared" si="34"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AN11" s="27" t="e">
+        <f t="shared" si="35"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO11" s="24" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP11" s="24" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ11" s="24" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR11" s="24" t="e">
+        <f t="shared" si="39"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AS11" s="27" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT11" s="24">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AU11" s="24">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AV11" s="24" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW11" s="24" t="e">
+        <f t="shared" si="44"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AX11" s="27" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="21" cm="1">
+        <f t="array" ref="C12">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A12)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B12)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="19" cm="1">
+        <f t="array" ref="D12">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A12)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B12)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="19" cm="1">
+        <f t="array" ref="E12">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A12)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B12)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="19" t="e" cm="1">
+        <f t="array" ref="F12">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A12)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B12)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G12" s="19" t="e" cm="1">
+        <f t="array" ref="G12">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A12)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B12)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="H12" s="22" t="e" cm="1">
+        <f t="array" ref="H12">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A12)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B12)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I12" s="19" cm="1">
+        <f t="array" ref="I12">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A12)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B12)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="19" cm="1">
+        <f t="array" ref="J12">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A12)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B12)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="19" cm="1">
+        <f t="array" ref="K12">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A12)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B12)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="19" t="e" cm="1">
+        <f t="array" ref="L12">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A12)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B12)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M12" s="19" t="e" cm="1">
+        <f t="array" ref="M12">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A12)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B12)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="N12" s="22" t="e" cm="1">
+        <f t="array" ref="N12">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A12)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B12)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O12" s="19" cm="1">
+        <f t="array" ref="O12">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A12)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B12)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="19" cm="1">
+        <f t="array" ref="P12">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A12)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B12)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="19" cm="1">
+        <f t="array" ref="Q12">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A12)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B12)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="19" t="e" cm="1">
+        <f t="array" ref="R12">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A12)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B12)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S12" s="19" t="e" cm="1">
+        <f t="array" ref="S12">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A12)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B12)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="T12" s="22" t="e" cm="1">
+        <f t="array" ref="T12">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A12)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B12)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$I$2:$I$9999))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U12" s="3" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V12" s="3" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W12" s="3" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X12" s="3" t="e">
+        <f t="shared" si="19"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y12" s="4" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z12" s="24">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="24">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="24" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC12" s="24" t="e">
+        <f t="shared" si="24"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AD12" s="27" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE12" s="24" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF12" s="24" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG12" s="24" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH12" s="24" t="e">
+        <f t="shared" si="29"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AI12" s="27" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ12" s="24">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AK12" s="24">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AL12" s="24" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM12" s="24" t="e">
+        <f t="shared" si="34"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AN12" s="27" t="e">
+        <f t="shared" si="35"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO12" s="24" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP12" s="24" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ12" s="24" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR12" s="24" t="e">
+        <f t="shared" si="39"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AS12" s="27" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT12" s="24">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AU12" s="24">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AV12" s="24" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW12" s="24" t="e">
+        <f t="shared" si="44"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AX12" s="27" t="e">
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
     </row>

--- a/performance metrics/ibbs-web-app-metrics-combined.xlsx
+++ b/performance metrics/ibbs-web-app-metrics-combined.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesse.abdul\Documents\Version Control\Git\ibbs-web-app-metrics\performance metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967EE37F-CA3B-4CF9-BB61-DF1D804F0584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7BF83B-4B23-467B-A0B5-7775C42973D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2595" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ibbs-web-app-metrics" sheetId="1" r:id="rId1"/>
@@ -264,13 +264,13 @@
     <t>IBBS_SPEC_DATA_YYYYMMDD.csv</t>
   </si>
   <si>
-    <t>W App Location</t>
-  </si>
-  <si>
     <t>Date/Time (UTC)</t>
   </si>
   <si>
     <t>Date/Time (HST)</t>
+  </si>
+  <si>
+    <t>Web App Location</t>
   </si>
 </sst>
 </file>
@@ -1360,15 +1360,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.5703125" style="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.28515625" style="13" customWidth="1"/>
     <col min="6" max="7" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="12"/>
     <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1379,13 +1380,13 @@
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="14" t="s">
         <v>35</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
@@ -32035,8 +32036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AX12"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="D1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32277,75 +32278,75 @@
         <v>20</v>
       </c>
       <c r="C3" s="16" cm="1">
-        <f t="array" ref="C3">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A3)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="C3">COUNT(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A3)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="D3" s="17" cm="1">
-        <f t="array" ref="D3">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A3)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="D3">MIN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A3)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="E3" s="17" cm="1">
-        <f t="array" ref="E3">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A3)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="E3">MAX(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A3)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="F3" s="17" t="e" cm="1">
-        <f t="array" ref="F3">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A3)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="F3">AVERAGE(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A3)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G3" s="17" t="e" cm="1">
-        <f t="array" ref="G3">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A3)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="G3">MEDIAN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A3)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#NUM!</v>
       </c>
       <c r="H3" s="18" t="e" cm="1">
-        <f t="array" ref="H3">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A3)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="H3">STDEV(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A3)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I3" s="17" cm="1">
-        <f t="array" ref="I3">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A3)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="I3">COUNT(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A3)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="J3" s="17" cm="1">
-        <f t="array" ref="J3">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A3)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="J3">MIN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A3)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="K3" s="17" cm="1">
-        <f t="array" ref="K3">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A3)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="K3">MAX(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A3)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="L3" s="17" t="e" cm="1">
-        <f t="array" ref="L3">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A3)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="L3">AVERAGE(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A3)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M3" s="17" t="e" cm="1">
-        <f t="array" ref="M3">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A3)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="M3">MEDIAN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A3)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#NUM!</v>
       </c>
       <c r="N3" s="18" t="e" cm="1">
-        <f t="array" ref="N3">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A3)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="N3">STDEV(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A3)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O3" s="17" cm="1">
-        <f t="array" ref="O3">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A3)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="O3">COUNT(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A3)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="P3" s="17" cm="1">
-        <f t="array" ref="P3">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A3)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="P3">MIN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A3)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="Q3" s="17" cm="1">
-        <f t="array" ref="Q3">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A3)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="Q3">MAX(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A3)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="R3" s="17" t="e" cm="1">
-        <f t="array" ref="R3">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A3)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="R3">AVERAGE(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A3)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S3" s="17" t="e" cm="1">
-        <f t="array" ref="S3">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A3)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="S3">MEDIAN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A3)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#NUM!</v>
       </c>
       <c r="T3" s="17" t="e" cm="1">
-        <f t="array" ref="T3">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A3)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="T3">STDEV(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A3)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U3" s="28" t="e">
@@ -32477,75 +32478,75 @@
         <v>22</v>
       </c>
       <c r="C4" s="21" cm="1">
-        <f t="array" ref="C4">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A4)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="C4">COUNT(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A4)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="D4" s="19" cm="1">
-        <f t="array" ref="D4">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A4)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="D4">MIN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A4)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="E4" s="19" cm="1">
-        <f t="array" ref="E4">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A4)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="E4">MAX(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A4)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="F4" s="19" t="e" cm="1">
-        <f t="array" ref="F4">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A4)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="F4">AVERAGE(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A4)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G4" s="19" t="e" cm="1">
-        <f t="array" ref="G4">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A4)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="G4">MEDIAN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A4)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#NUM!</v>
       </c>
       <c r="H4" s="22" t="e" cm="1">
-        <f t="array" ref="H4">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A4)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="H4">STDEV(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A4)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I4" s="19" cm="1">
-        <f t="array" ref="I4">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A4)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="I4">COUNT(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A4)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="J4" s="19" cm="1">
-        <f t="array" ref="J4">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A4)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="J4">MIN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A4)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="K4" s="19" cm="1">
-        <f t="array" ref="K4">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A4)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="K4">MAX(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A4)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="L4" s="19" t="e" cm="1">
-        <f t="array" ref="L4">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A4)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="L4">AVERAGE(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A4)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M4" s="19" t="e" cm="1">
-        <f t="array" ref="M4">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A4)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="M4">MEDIAN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A4)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#NUM!</v>
       </c>
       <c r="N4" s="22" t="e" cm="1">
-        <f t="array" ref="N4">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A4)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="N4">STDEV(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A4)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O4" s="19" cm="1">
-        <f t="array" ref="O4">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A4)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="O4">COUNT(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A4)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="P4" s="19" cm="1">
-        <f t="array" ref="P4">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A4)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="P4">MIN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A4)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="Q4" s="19" cm="1">
-        <f t="array" ref="Q4">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A4)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="Q4">MAX(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A4)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="R4" s="19" t="e" cm="1">
-        <f t="array" ref="R4">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A4)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="R4">AVERAGE(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A4)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S4" s="19" t="e" cm="1">
-        <f t="array" ref="S4">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A4)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="S4">MEDIAN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A4)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#NUM!</v>
       </c>
       <c r="T4" s="19" t="e" cm="1">
-        <f t="array" ref="T4">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A4)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="T4">STDEV(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A4)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U4" s="29" t="e">
@@ -32677,75 +32678,75 @@
         <v>23</v>
       </c>
       <c r="C5" s="21" cm="1">
-        <f t="array" ref="C5">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A5)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="C5">COUNT(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A5)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="D5" s="19" cm="1">
-        <f t="array" ref="D5">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A5)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="D5">MIN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A5)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="E5" s="19" cm="1">
-        <f t="array" ref="E5">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A5)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="E5">MAX(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A5)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="F5" s="19" t="e" cm="1">
-        <f t="array" ref="F5">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A5)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="F5">AVERAGE(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A5)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G5" s="19" t="e" cm="1">
-        <f t="array" ref="G5">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A5)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="G5">MEDIAN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A5)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#NUM!</v>
       </c>
       <c r="H5" s="22" t="e" cm="1">
-        <f t="array" ref="H5">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A5)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="H5">STDEV(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A5)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I5" s="19" cm="1">
-        <f t="array" ref="I5">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A5)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="I5">COUNT(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A5)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="J5" s="19" cm="1">
-        <f t="array" ref="J5">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A5)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="J5">MIN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A5)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="K5" s="19" cm="1">
-        <f t="array" ref="K5">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A5)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="K5">MAX(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A5)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="L5" s="19" t="e" cm="1">
-        <f t="array" ref="L5">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A5)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="L5">AVERAGE(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A5)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M5" s="19" t="e" cm="1">
-        <f t="array" ref="M5">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A5)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="M5">MEDIAN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A5)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#NUM!</v>
       </c>
       <c r="N5" s="22" t="e" cm="1">
-        <f t="array" ref="N5">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A5)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="N5">STDEV(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A5)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O5" s="19" cm="1">
-        <f t="array" ref="O5">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A5)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="O5">COUNT(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A5)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="P5" s="19" cm="1">
-        <f t="array" ref="P5">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A5)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="P5">MIN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A5)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="Q5" s="19" cm="1">
-        <f t="array" ref="Q5">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A5)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="Q5">MAX(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A5)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="R5" s="19" t="e" cm="1">
-        <f t="array" ref="R5">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A5)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="R5">AVERAGE(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A5)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S5" s="19" t="e" cm="1">
-        <f t="array" ref="S5">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A5)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="S5">MEDIAN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A5)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#NUM!</v>
       </c>
       <c r="T5" s="19" t="e" cm="1">
-        <f t="array" ref="T5">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A5)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="T5">STDEV(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A5)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U5" s="29" t="e">
@@ -32877,75 +32878,75 @@
         <v>20</v>
       </c>
       <c r="C6" s="21" cm="1">
-        <f t="array" ref="C6">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A6)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="C6">COUNT(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A6)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="D6" s="19" cm="1">
-        <f t="array" ref="D6">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A6)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="D6">MIN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A6)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="E6" s="19" cm="1">
-        <f t="array" ref="E6">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A6)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="E6">MAX(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A6)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="F6" s="19" t="e" cm="1">
-        <f t="array" ref="F6">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A6)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="F6">AVERAGE(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A6)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G6" s="19" t="e" cm="1">
-        <f t="array" ref="G6">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A6)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="G6">MEDIAN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A6)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#NUM!</v>
       </c>
       <c r="H6" s="22" t="e" cm="1">
-        <f t="array" ref="H6">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A6)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="H6">STDEV(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A6)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I6" s="19" cm="1">
-        <f t="array" ref="I6">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A6)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="I6">COUNT(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A6)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="J6" s="19" cm="1">
-        <f t="array" ref="J6">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A6)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="J6">MIN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A6)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="K6" s="19" cm="1">
-        <f t="array" ref="K6">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A6)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="K6">MAX(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A6)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="L6" s="19" t="e" cm="1">
-        <f t="array" ref="L6">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A6)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="L6">AVERAGE(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A6)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M6" s="19" t="e" cm="1">
-        <f t="array" ref="M6">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A6)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="M6">MEDIAN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A6)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#NUM!</v>
       </c>
       <c r="N6" s="22" t="e" cm="1">
-        <f t="array" ref="N6">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A6)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="N6">STDEV(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A6)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O6" s="19" cm="1">
-        <f t="array" ref="O6">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A6)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="O6">COUNT(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A6)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="P6" s="19" cm="1">
-        <f t="array" ref="P6">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A6)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="P6">MIN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A6)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="Q6" s="19" cm="1">
-        <f t="array" ref="Q6">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A6)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="Q6">MAX(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A6)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="R6" s="19" t="e" cm="1">
-        <f t="array" ref="R6">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A6)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="R6">AVERAGE(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A6)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S6" s="19" t="e" cm="1">
-        <f t="array" ref="S6">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A6)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="S6">MEDIAN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A6)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#NUM!</v>
       </c>
       <c r="T6" s="19" t="e" cm="1">
-        <f t="array" ref="T6">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A6)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="T6">STDEV(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A6)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U6" s="29" t="e">
@@ -33077,75 +33078,75 @@
         <v>20</v>
       </c>
       <c r="C7" s="21" cm="1">
-        <f t="array" ref="C7">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A7)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="C7">COUNT(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A7)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="D7" s="19" cm="1">
-        <f t="array" ref="D7">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A7)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="D7">MIN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A7)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="E7" s="19" cm="1">
-        <f t="array" ref="E7">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A7)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="E7">MAX(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A7)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="F7" s="19" t="e" cm="1">
-        <f t="array" ref="F7">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A7)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="F7">AVERAGE(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A7)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G7" s="19" t="e" cm="1">
-        <f t="array" ref="G7">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A7)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="G7">MEDIAN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A7)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#NUM!</v>
       </c>
       <c r="H7" s="22" t="e" cm="1">
-        <f t="array" ref="H7">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A7)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="H7">STDEV(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A7)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I7" s="19" cm="1">
-        <f t="array" ref="I7">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A7)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="I7">COUNT(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A7)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="J7" s="19" cm="1">
-        <f t="array" ref="J7">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A7)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="J7">MIN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A7)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="K7" s="19" cm="1">
-        <f t="array" ref="K7">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A7)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="K7">MAX(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A7)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="L7" s="19" t="e" cm="1">
-        <f t="array" ref="L7">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A7)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="L7">AVERAGE(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A7)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M7" s="19" t="e" cm="1">
-        <f t="array" ref="M7">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A7)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="M7">MEDIAN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A7)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#NUM!</v>
       </c>
       <c r="N7" s="22" t="e" cm="1">
-        <f t="array" ref="N7">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A7)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="N7">STDEV(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A7)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O7" s="19" cm="1">
-        <f t="array" ref="O7">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A7)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="O7">COUNT(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A7)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="P7" s="19" cm="1">
-        <f t="array" ref="P7">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A7)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="P7">MIN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A7)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="Q7" s="19" cm="1">
-        <f t="array" ref="Q7">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A7)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="Q7">MAX(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A7)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="R7" s="19" t="e" cm="1">
-        <f t="array" ref="R7">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A7)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="R7">AVERAGE(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A7)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S7" s="19" t="e" cm="1">
-        <f t="array" ref="S7">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A7)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="S7">MEDIAN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A7)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#NUM!</v>
       </c>
       <c r="T7" s="19" t="e" cm="1">
-        <f t="array" ref="T7">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A7)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="T7">STDEV(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A7)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U7" s="29" t="e">
@@ -33277,75 +33278,75 @@
         <v>26</v>
       </c>
       <c r="C8" s="21" cm="1">
-        <f t="array" ref="C8">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A8)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="C8">COUNT(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A8)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="D8" s="19" cm="1">
-        <f t="array" ref="D8">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A8)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="D8">MIN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A8)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="E8" s="19" cm="1">
-        <f t="array" ref="E8">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A8)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="E8">MAX(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A8)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="F8" s="19" t="e" cm="1">
-        <f t="array" ref="F8">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A8)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="F8">AVERAGE(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A8)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G8" s="19" t="e" cm="1">
-        <f t="array" ref="G8">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A8)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="G8">MEDIAN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A8)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#NUM!</v>
       </c>
       <c r="H8" s="22" t="e" cm="1">
-        <f t="array" ref="H8">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A8)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="H8">STDEV(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A8)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I8" s="19" cm="1">
-        <f t="array" ref="I8">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A8)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="I8">COUNT(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A8)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="J8" s="19" cm="1">
-        <f t="array" ref="J8">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A8)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="J8">MIN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A8)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="K8" s="19" cm="1">
-        <f t="array" ref="K8">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A8)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="K8">MAX(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A8)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="L8" s="19" t="e" cm="1">
-        <f t="array" ref="L8">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A8)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="L8">AVERAGE(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A8)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M8" s="19" t="e" cm="1">
-        <f t="array" ref="M8">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A8)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="M8">MEDIAN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A8)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#NUM!</v>
       </c>
       <c r="N8" s="22" t="e" cm="1">
-        <f t="array" ref="N8">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A8)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="N8">STDEV(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A8)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O8" s="19" cm="1">
-        <f t="array" ref="O8">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A8)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="O8">COUNT(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A8)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="P8" s="19" cm="1">
-        <f t="array" ref="P8">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A8)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="P8">MIN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A8)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="Q8" s="19" cm="1">
-        <f t="array" ref="Q8">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A8)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="Q8">MAX(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A8)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="R8" s="19" t="e" cm="1">
-        <f t="array" ref="R8">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A8)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="R8">AVERAGE(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A8)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S8" s="19" t="e" cm="1">
-        <f t="array" ref="S8">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A8)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="S8">MEDIAN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A8)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#NUM!</v>
       </c>
       <c r="T8" s="19" t="e" cm="1">
-        <f t="array" ref="T8">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A8)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="T8">STDEV(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A8)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U8" s="29" t="e">
@@ -33477,75 +33478,75 @@
         <v>26</v>
       </c>
       <c r="C9" s="21" cm="1">
-        <f t="array" ref="C9">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A9)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B9)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="C9">COUNT(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A9)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B9)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="D9" s="19" cm="1">
-        <f t="array" ref="D9">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A9)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B9)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="D9">MIN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A9)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B9)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="E9" s="19" cm="1">
-        <f t="array" ref="E9">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A9)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B9)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="E9">MAX(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A9)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B9)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="F9" s="19" t="e" cm="1">
-        <f t="array" ref="F9">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A9)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B9)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="F9">AVERAGE(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A9)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B9)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G9" s="19" t="e" cm="1">
-        <f t="array" ref="G9">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A9)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B9)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="G9">MEDIAN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A9)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B9)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#NUM!</v>
       </c>
       <c r="H9" s="22" t="e" cm="1">
-        <f t="array" ref="H9">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A9)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B9)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="H9">STDEV(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A9)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B9)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I9" s="19" cm="1">
-        <f t="array" ref="I9">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A9)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B9)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="I9">COUNT(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A9)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B9)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="J9" s="19" cm="1">
-        <f t="array" ref="J9">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A9)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B9)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="J9">MIN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A9)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B9)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="K9" s="19" cm="1">
-        <f t="array" ref="K9">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A9)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B9)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="K9">MAX(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A9)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B9)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="L9" s="19" t="e" cm="1">
-        <f t="array" ref="L9">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A9)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B9)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="L9">AVERAGE(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A9)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B9)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M9" s="19" t="e" cm="1">
-        <f t="array" ref="M9">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A9)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B9)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="M9">MEDIAN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A9)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B9)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#NUM!</v>
       </c>
       <c r="N9" s="22" t="e" cm="1">
-        <f t="array" ref="N9">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A9)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B9)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="N9">STDEV(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A9)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B9)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O9" s="19" cm="1">
-        <f t="array" ref="O9">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A9)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B9)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="O9">COUNT(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A9)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B9)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="P9" s="19" cm="1">
-        <f t="array" ref="P9">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A9)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B9)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="P9">MIN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A9)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B9)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="Q9" s="19" cm="1">
-        <f t="array" ref="Q9">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A9)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B9)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="Q9">MAX(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A9)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B9)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="R9" s="19" t="e" cm="1">
-        <f t="array" ref="R9">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A9)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B9)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="R9">AVERAGE(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A9)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B9)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S9" s="19" t="e" cm="1">
-        <f t="array" ref="S9">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A9)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B9)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="S9">MEDIAN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A9)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B9)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#NUM!</v>
       </c>
       <c r="T9" s="22" t="e" cm="1">
-        <f t="array" ref="T9">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A9)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B9)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="T9">STDEV(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A9)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B9)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U9" s="3" t="e">
@@ -33677,75 +33678,75 @@
         <v>31</v>
       </c>
       <c r="C10" s="21" cm="1">
-        <f t="array" ref="C10">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A10)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B10)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="C10">COUNT(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A10)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B10)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="D10" s="19" cm="1">
-        <f t="array" ref="D10">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A10)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B10)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="D10">MIN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A10)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B10)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="E10" s="19" cm="1">
-        <f t="array" ref="E10">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A10)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B10)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="E10">MAX(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A10)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B10)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="F10" s="19" t="e" cm="1">
-        <f t="array" ref="F10">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A10)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B10)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="F10">AVERAGE(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A10)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B10)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G10" s="19" t="e" cm="1">
-        <f t="array" ref="G10">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A10)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B10)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="G10">MEDIAN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A10)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B10)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#NUM!</v>
       </c>
       <c r="H10" s="22" t="e" cm="1">
-        <f t="array" ref="H10">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A10)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B10)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="H10">STDEV(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A10)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B10)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I10" s="19" cm="1">
-        <f t="array" ref="I10">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A10)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B10)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="I10">COUNT(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A10)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B10)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="J10" s="19" cm="1">
-        <f t="array" ref="J10">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A10)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B10)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="J10">MIN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A10)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B10)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="K10" s="19" cm="1">
-        <f t="array" ref="K10">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A10)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B10)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="K10">MAX(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A10)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B10)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="L10" s="19" t="e" cm="1">
-        <f t="array" ref="L10">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A10)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B10)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="L10">AVERAGE(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A10)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B10)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M10" s="19" t="e" cm="1">
-        <f t="array" ref="M10">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A10)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B10)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="M10">MEDIAN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A10)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B10)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#NUM!</v>
       </c>
       <c r="N10" s="22" t="e" cm="1">
-        <f t="array" ref="N10">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A10)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B10)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="N10">STDEV(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A10)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B10)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O10" s="19" cm="1">
-        <f t="array" ref="O10">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A10)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B10)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="O10">COUNT(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A10)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B10)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="P10" s="19" cm="1">
-        <f t="array" ref="P10">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A10)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B10)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="P10">MIN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A10)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B10)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="Q10" s="19" cm="1">
-        <f t="array" ref="Q10">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A10)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B10)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="Q10">MAX(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A10)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B10)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="R10" s="19" t="e" cm="1">
-        <f t="array" ref="R10">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A10)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B10)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="R10">AVERAGE(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A10)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B10)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S10" s="19" t="e" cm="1">
-        <f t="array" ref="S10">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A10)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B10)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="S10">MEDIAN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A10)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B10)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#NUM!</v>
       </c>
       <c r="T10" s="22" t="e" cm="1">
-        <f t="array" ref="T10">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A10)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B10)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="T10">STDEV(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A10)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B10)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U10" s="3" t="e">
@@ -33877,75 +33878,75 @@
         <v>20</v>
       </c>
       <c r="C11" s="21" cm="1">
-        <f t="array" ref="C11">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A11)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B11)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="C11">COUNT(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A11)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B11)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="D11" s="19" cm="1">
-        <f t="array" ref="D11">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A11)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B11)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="D11">MIN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A11)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B11)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="E11" s="19" cm="1">
-        <f t="array" ref="E11">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A11)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B11)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="E11">MAX(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A11)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B11)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="F11" s="19" t="e" cm="1">
-        <f t="array" ref="F11">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A11)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B11)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="F11">AVERAGE(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A11)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B11)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G11" s="19" t="e" cm="1">
-        <f t="array" ref="G11">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A11)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B11)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="G11">MEDIAN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A11)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B11)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#NUM!</v>
       </c>
       <c r="H11" s="22" t="e" cm="1">
-        <f t="array" ref="H11">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A11)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B11)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="H11">STDEV(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A11)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B11)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I11" s="19" cm="1">
-        <f t="array" ref="I11">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A11)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B11)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="I11">COUNT(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A11)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B11)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="J11" s="19" cm="1">
-        <f t="array" ref="J11">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A11)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B11)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="J11">MIN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A11)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B11)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="K11" s="19" cm="1">
-        <f t="array" ref="K11">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A11)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B11)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="K11">MAX(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A11)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B11)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="L11" s="19" t="e" cm="1">
-        <f t="array" ref="L11">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A11)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B11)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="L11">AVERAGE(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A11)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B11)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M11" s="19" t="e" cm="1">
-        <f t="array" ref="M11">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A11)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B11)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="M11">MEDIAN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A11)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B11)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#NUM!</v>
       </c>
       <c r="N11" s="22" t="e" cm="1">
-        <f t="array" ref="N11">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A11)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B11)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="N11">STDEV(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A11)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B11)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O11" s="19" cm="1">
-        <f t="array" ref="O11">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A11)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B11)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="O11">COUNT(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A11)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B11)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="P11" s="19" cm="1">
-        <f t="array" ref="P11">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A11)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B11)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="P11">MIN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A11)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B11)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="Q11" s="19" cm="1">
-        <f t="array" ref="Q11">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A11)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B11)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="Q11">MAX(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A11)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B11)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="R11" s="19" t="e" cm="1">
-        <f t="array" ref="R11">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A11)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B11)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="R11">AVERAGE(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A11)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B11)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S11" s="19" t="e" cm="1">
-        <f t="array" ref="S11">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A11)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B11)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="S11">MEDIAN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A11)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B11)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#NUM!</v>
       </c>
       <c r="T11" s="22" t="e" cm="1">
-        <f t="array" ref="T11">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A11)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B11)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="T11">STDEV(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A11)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B11)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U11" s="3" t="e">
@@ -34077,75 +34078,75 @@
         <v>23</v>
       </c>
       <c r="C12" s="21" cm="1">
-        <f t="array" ref="C12">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A12)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B12)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="C12">COUNT(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A12)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B12)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="D12" s="19" cm="1">
-        <f t="array" ref="D12">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A12)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B12)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="D12">MIN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A12)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B12)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="E12" s="19" cm="1">
-        <f t="array" ref="E12">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A12)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B12)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="E12">MAX(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A12)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B12)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="F12" s="19" t="e" cm="1">
-        <f t="array" ref="F12">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A12)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B12)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="F12">AVERAGE(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A12)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B12)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G12" s="19" t="e" cm="1">
-        <f t="array" ref="G12">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A12)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B12)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="G12">MEDIAN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A12)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B12)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#NUM!</v>
       </c>
       <c r="H12" s="22" t="e" cm="1">
-        <f t="array" ref="H12">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A12)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B12)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="H12">STDEV(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A12)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B12)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I12" s="19" cm="1">
-        <f t="array" ref="I12">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A12)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B12)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="I12">COUNT(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A12)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B12)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="J12" s="19" cm="1">
-        <f t="array" ref="J12">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A12)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B12)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="J12">MIN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A12)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B12)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="K12" s="19" cm="1">
-        <f t="array" ref="K12">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A12)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B12)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="K12">MAX(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A12)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B12)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="L12" s="19" t="e" cm="1">
-        <f t="array" ref="L12">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A12)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B12)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="L12">AVERAGE(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A12)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B12)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M12" s="19" t="e" cm="1">
-        <f t="array" ref="M12">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A12)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B12)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="M12">MEDIAN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A12)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B12)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#NUM!</v>
       </c>
       <c r="N12" s="22" t="e" cm="1">
-        <f t="array" ref="N12">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A12)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B12)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="N12">STDEV(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A12)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B12)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O12" s="19" cm="1">
-        <f t="array" ref="O12">COUNT(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A12)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B12)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="O12">COUNT(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A12)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B12)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="P12" s="19" cm="1">
-        <f t="array" ref="P12">MIN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A12)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B12)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="P12">MIN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A12)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B12)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="Q12" s="19" cm="1">
-        <f t="array" ref="Q12">MAX(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A12)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B12)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="Q12">MAX(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A12)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B12)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>0</v>
       </c>
       <c r="R12" s="19" t="e" cm="1">
-        <f t="array" ref="R12">AVERAGE(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A12)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B12)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="R12">AVERAGE(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A12)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B12)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S12" s="19" t="e" cm="1">
-        <f t="array" ref="S12">MEDIAN(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A12)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B12)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="S12">MEDIAN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A12)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B12)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#NUM!</v>
       </c>
       <c r="T12" s="22" t="e" cm="1">
-        <f t="array" ref="T12">STDEV(IF(('ibbs-web-app-metrics'!$E$2:$E$9999=$A12)*('ibbs-web-app-metrics'!$F$2:$F$9999=$B12)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
+        <f t="array" ref="T12">STDEV(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A12)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B12)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U12" s="3" t="e">

--- a/performance metrics/ibbs-web-app-metrics-combined.xlsx
+++ b/performance metrics/ibbs-web-app-metrics-combined.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesse.abdul\Documents\Version Control\Git\ibbs-web-app-metrics\performance metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7BF83B-4B23-467B-A0B5-7775C42973D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0D49EE-D7F1-455D-9B2D-6CEE72E63889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ibbs-web-app-metrics" sheetId="1" r:id="rId1"/>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="48">
   <si>
     <t>Local</t>
   </si>
@@ -271,6 +271,39 @@
   </si>
   <si>
     <t>Web App Location</t>
+  </si>
+  <si>
+    <t>IBBS APEX app</t>
+  </si>
+  <si>
+    <t>Login.png</t>
+  </si>
+  <si>
+    <t>Full Sampling Plan Report.png</t>
+  </si>
+  <si>
+    <t>Full Sampling Plan Report filter.png</t>
+  </si>
+  <si>
+    <t>View Specimens.png</t>
+  </si>
+  <si>
+    <t>View Edit Specimen.png</t>
+  </si>
+  <si>
+    <t>View Edit Specimen post specimen record insert.png</t>
+  </si>
+  <si>
+    <t>View Specimens post specimen record update.png</t>
+  </si>
+  <si>
+    <t>View Specimens specimen download complete.png</t>
+  </si>
+  <si>
+    <t>Sampling Plan Summary Region Report.png</t>
+  </si>
+  <si>
+    <t>Sampling Plan Summary Region Report filter.png</t>
   </si>
 </sst>
 </file>
@@ -1353,9 +1386,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K9999"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" sqref="A1:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1408,111 +1441,746 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E2" s="15"/>
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="15">
+        <v>45560.930810185186</v>
+      </c>
+      <c r="E2" s="15">
+        <v>45560.514143518521</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="12">
+        <v>25</v>
+      </c>
+      <c r="I2">
+        <v>1682.94</v>
+      </c>
+      <c r="J2">
+        <v>5.7720000000000002</v>
+      </c>
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E3" s="15"/>
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="15">
+        <v>45560.930891203701</v>
+      </c>
+      <c r="E3" s="15">
+        <v>45560.514224537037</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="12">
+        <v>41</v>
+      </c>
+      <c r="I3">
+        <v>3799.84</v>
+      </c>
+      <c r="J3">
+        <v>3.3759999999999999</v>
+      </c>
+      <c r="K3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E4" s="15"/>
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="15">
+        <v>45560.930937500001</v>
+      </c>
+      <c r="E4" s="15">
+        <v>45560.514270833337</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="12">
+        <v>41</v>
+      </c>
+      <c r="I4">
+        <v>3800.15</v>
+      </c>
+      <c r="J4">
+        <v>2.2410000000000001</v>
+      </c>
+      <c r="K4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E5" s="15"/>
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="15">
+        <v>45560.930960648147</v>
+      </c>
+      <c r="E5" s="15">
+        <v>45560.514293981483</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="12">
+        <v>34</v>
+      </c>
+      <c r="I5">
+        <v>4538.41</v>
+      </c>
+      <c r="J5">
+        <v>5.8</v>
+      </c>
+      <c r="K5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E6" s="15"/>
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="15">
+        <v>45560.931041666663</v>
+      </c>
+      <c r="E6" s="15">
+        <v>45560.514374999999</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="12">
+        <v>35</v>
+      </c>
+      <c r="I6">
+        <v>3131.02</v>
+      </c>
+      <c r="J6">
+        <v>1.7869999999999999</v>
+      </c>
+      <c r="K6" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E7" s="15"/>
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="15">
+        <v>45560.931180555555</v>
+      </c>
+      <c r="E7" s="15">
+        <v>45560.514513888891</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="12">
+        <v>54</v>
+      </c>
+      <c r="I7">
+        <v>3827.29</v>
+      </c>
+      <c r="J7">
+        <v>2.4</v>
+      </c>
+      <c r="K7" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E8" s="15"/>
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="15">
+        <v>45560.931261574071</v>
+      </c>
+      <c r="E8" s="15">
+        <v>45560.514594907407</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="12">
+        <v>40</v>
+      </c>
+      <c r="I8">
+        <v>4546.8599999999997</v>
+      </c>
+      <c r="J8">
+        <v>5.6360000000000001</v>
+      </c>
+      <c r="K8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E9" s="15"/>
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="15">
+        <v>45560.931331018517</v>
+      </c>
+      <c r="E9" s="15">
+        <v>45560.514664351853</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="12">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1811934</v>
+      </c>
+      <c r="J9">
+        <v>2.532</v>
+      </c>
+      <c r="K9" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E10" s="15"/>
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="15">
+        <v>45560.93136574074</v>
+      </c>
+      <c r="E10" s="15">
+        <v>45560.514699074076</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="12">
+        <v>47</v>
+      </c>
+      <c r="I10">
+        <v>5405.12</v>
+      </c>
+      <c r="J10">
+        <v>5.4189999999999996</v>
+      </c>
+      <c r="K10" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="H11"/>
-      <c r="I11" s="12"/>
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="15">
+        <v>45560.931435185186</v>
+      </c>
+      <c r="E11" s="15">
+        <v>45560.514768518522</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11">
+        <v>46</v>
+      </c>
+      <c r="I11" s="12">
+        <v>5168.3500000000004</v>
+      </c>
+      <c r="J11">
+        <v>4.5259999999999998</v>
+      </c>
+      <c r="K11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E12" s="15"/>
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="15">
+        <v>45560.934305555558</v>
+      </c>
+      <c r="E12" s="15">
+        <v>45560.517638888887</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="12">
+        <v>26</v>
+      </c>
+      <c r="I12">
+        <v>745.47</v>
+      </c>
+      <c r="J12">
+        <v>2.7370000000000001</v>
+      </c>
+      <c r="K12" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E13" s="15"/>
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="15">
+        <v>45560.934351851851</v>
+      </c>
+      <c r="E13" s="15">
+        <v>45560.517685185187</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="12">
+        <v>40</v>
+      </c>
+      <c r="I13">
+        <v>1158.8399999999999</v>
+      </c>
+      <c r="J13">
+        <v>3.6749999999999998</v>
+      </c>
+      <c r="K13" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E14" s="15"/>
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="15">
+        <v>45560.934398148151</v>
+      </c>
+      <c r="E14" s="15">
+        <v>45560.517731481479</v>
+      </c>
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="12">
+        <v>40</v>
+      </c>
+      <c r="I14">
+        <v>1158.8599999999999</v>
+      </c>
+      <c r="J14">
+        <v>2.2250000000000001</v>
+      </c>
+      <c r="K14" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E15" s="15"/>
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="15">
+        <v>45560.934432870374</v>
+      </c>
+      <c r="E15" s="15">
+        <v>45560.517766203702</v>
+      </c>
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="12">
+        <v>35</v>
+      </c>
+      <c r="I15">
+        <v>1391.29</v>
+      </c>
+      <c r="J15">
+        <v>7.1150000000000002</v>
+      </c>
+      <c r="K15" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E16" s="15"/>
-    </row>
-    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E17" s="15"/>
-    </row>
-    <row r="18" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E18" s="15"/>
-    </row>
-    <row r="19" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E19" s="15"/>
-    </row>
-    <row r="20" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E20" s="15"/>
-      <c r="H20"/>
-    </row>
-    <row r="21" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E21" s="15"/>
-      <c r="H21"/>
-    </row>
-    <row r="22" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="15">
+        <v>45560.934525462966</v>
+      </c>
+      <c r="E16" s="15">
+        <v>45560.517858796295</v>
+      </c>
+      <c r="F16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="12">
+        <v>33</v>
+      </c>
+      <c r="I16">
+        <v>911.34</v>
+      </c>
+      <c r="J16">
+        <v>3.7989999999999999</v>
+      </c>
+      <c r="K16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="15">
+        <v>45560.934699074074</v>
+      </c>
+      <c r="E17" s="15">
+        <v>45560.51803240741</v>
+      </c>
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="12">
+        <v>53</v>
+      </c>
+      <c r="I17">
+        <v>1174.57</v>
+      </c>
+      <c r="J17">
+        <v>4.8840000000000003</v>
+      </c>
+      <c r="K17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="15">
+        <v>45560.934907407405</v>
+      </c>
+      <c r="E18" s="15">
+        <v>45560.518240740741</v>
+      </c>
+      <c r="F18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="12">
+        <v>41</v>
+      </c>
+      <c r="I18">
+        <v>1392.18</v>
+      </c>
+      <c r="J18">
+        <v>6.8319999999999999</v>
+      </c>
+      <c r="K18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="15">
+        <v>45560.934999999998</v>
+      </c>
+      <c r="E19" s="15">
+        <v>45560.518333333333</v>
+      </c>
+      <c r="F19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="12">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1804315</v>
+      </c>
+      <c r="J19">
+        <v>3.1619999999999999</v>
+      </c>
+      <c r="K19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="15">
+        <v>45560.935046296298</v>
+      </c>
+      <c r="E20" s="15">
+        <v>45560.518379629626</v>
+      </c>
+      <c r="F20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20">
+        <v>44</v>
+      </c>
+      <c r="I20">
+        <v>1512.01</v>
+      </c>
+      <c r="J20">
+        <v>5.2069999999999999</v>
+      </c>
+      <c r="K20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="15">
+        <v>45560.93513888889</v>
+      </c>
+      <c r="E21" s="15">
+        <v>45560.518472222226</v>
+      </c>
+      <c r="F21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21">
+        <v>48</v>
+      </c>
+      <c r="I21">
+        <v>1516.82</v>
+      </c>
+      <c r="J21">
+        <v>5.5060000000000002</v>
+      </c>
+      <c r="K21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E22" s="15"/>
       <c r="H22"/>
     </row>
-    <row r="23" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E23" s="15"/>
       <c r="H23"/>
     </row>
-    <row r="24" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E24" s="15"/>
       <c r="H24"/>
     </row>
-    <row r="25" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E25" s="15"/>
       <c r="H25"/>
     </row>
-    <row r="26" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E26" s="15"/>
       <c r="H26"/>
     </row>
-    <row r="27" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E27" s="15"/>
       <c r="H27"/>
     </row>
-    <row r="28" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E28" s="15"/>
       <c r="H28"/>
     </row>
-    <row r="29" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E29" s="15"/>
       <c r="H29"/>
     </row>
-    <row r="30" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E30" s="15"/>
       <c r="H30"/>
     </row>
-    <row r="31" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E31" s="15"/>
       <c r="H31"/>
     </row>
-    <row r="32" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E32" s="15"/>
       <c r="H32"/>
     </row>
@@ -32036,8 +32704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AX12"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32279,23 +32947,23 @@
       </c>
       <c r="C3" s="16" cm="1">
         <f t="array" ref="C3">COUNT(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A3)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="17" cm="1">
         <f t="array" ref="D3">MIN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A3)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>0</v>
+        <v>5.7720000000000002</v>
       </c>
       <c r="E3" s="17" cm="1">
         <f t="array" ref="E3">MAX(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A3)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="17" t="e" cm="1">
+        <v>5.7720000000000002</v>
+      </c>
+      <c r="F3" s="17" cm="1">
         <f t="array" ref="F3">AVERAGE(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A3)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G3" s="17" t="e" cm="1">
+        <v>5.7720000000000002</v>
+      </c>
+      <c r="G3" s="17" cm="1">
         <f t="array" ref="G3">MEDIAN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A3)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>#NUM!</v>
+        <v>5.7720000000000002</v>
       </c>
       <c r="H3" s="18" t="e" cm="1">
         <f t="array" ref="H3">STDEV(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A3)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
@@ -32303,23 +32971,23 @@
       </c>
       <c r="I3" s="17" cm="1">
         <f t="array" ref="I3">COUNT(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A3)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="17" cm="1">
         <f t="array" ref="J3">MIN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A3)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>0</v>
+        <v>2.7370000000000001</v>
       </c>
       <c r="K3" s="17" cm="1">
         <f t="array" ref="K3">MAX(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A3)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="17" t="e" cm="1">
+        <v>2.7370000000000001</v>
+      </c>
+      <c r="L3" s="17" cm="1">
         <f t="array" ref="L3">AVERAGE(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A3)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M3" s="17" t="e" cm="1">
+        <v>2.7370000000000001</v>
+      </c>
+      <c r="M3" s="17" cm="1">
         <f t="array" ref="M3">MEDIAN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A3)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>#NUM!</v>
+        <v>2.7370000000000001</v>
       </c>
       <c r="N3" s="18" t="e" cm="1">
         <f t="array" ref="N3">STDEV(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A3)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
@@ -32349,21 +33017,21 @@
         <f t="array" ref="T3">STDEV(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A3)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B3)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U3" s="28" t="e">
+      <c r="U3" s="28">
         <f>J3/D3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V3" s="6" t="e">
+        <v>0.47418572418572419</v>
+      </c>
+      <c r="V3" s="6">
         <f>K3/E3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W3" s="6" t="e">
+        <v>0.47418572418572419</v>
+      </c>
+      <c r="W3" s="6">
         <f>L3/F3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X3" s="6" t="e">
+        <v>0.47418572418572419</v>
+      </c>
+      <c r="X3" s="6">
         <f>M3/G3</f>
-        <v>#NUM!</v>
+        <v>0.47418572418572419</v>
       </c>
       <c r="Y3" s="7" t="e">
         <f>N3/H3</f>
@@ -32371,31 +33039,31 @@
       </c>
       <c r="Z3" s="8">
         <f>J3-D3</f>
-        <v>0</v>
+        <v>-3.0350000000000001</v>
       </c>
       <c r="AA3" s="9">
         <f>K3-E3</f>
-        <v>0</v>
-      </c>
-      <c r="AB3" s="9" t="e">
+        <v>-3.0350000000000001</v>
+      </c>
+      <c r="AB3" s="9">
         <f>L3-F3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC3" s="9" t="e">
+        <v>-3.0350000000000001</v>
+      </c>
+      <c r="AC3" s="9">
         <f>M3-G3</f>
-        <v>#NUM!</v>
+        <v>-3.0350000000000001</v>
       </c>
       <c r="AD3" s="10" t="e">
         <f>N3-H3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE3" s="8" t="e">
+      <c r="AE3" s="8">
         <f t="shared" ref="AE3:AI8" si="0">P3/D3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF3" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="9">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AG3" s="9" t="e">
         <f t="shared" si="0"/>
@@ -32411,11 +33079,11 @@
       </c>
       <c r="AJ3" s="8">
         <f t="shared" ref="AJ3:AN8" si="1">P3-D3</f>
-        <v>0</v>
+        <v>-5.7720000000000002</v>
       </c>
       <c r="AK3" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-5.7720000000000002</v>
       </c>
       <c r="AL3" s="9" t="e">
         <f t="shared" si="1"/>
@@ -32451,11 +33119,11 @@
       </c>
       <c r="AT3" s="8">
         <f t="shared" ref="AT3:AX8" si="3">J3 - P3</f>
-        <v>0</v>
+        <v>2.7370000000000001</v>
       </c>
       <c r="AU3" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.7370000000000001</v>
       </c>
       <c r="AV3" s="9" t="e">
         <f t="shared" si="3"/>
@@ -32479,23 +33147,23 @@
       </c>
       <c r="C4" s="21" cm="1">
         <f t="array" ref="C4">COUNT(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A4)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="19" cm="1">
         <f t="array" ref="D4">MIN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A4)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>0</v>
+        <v>3.3759999999999999</v>
       </c>
       <c r="E4" s="19" cm="1">
         <f t="array" ref="E4">MAX(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A4)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="19" t="e" cm="1">
+        <v>3.3759999999999999</v>
+      </c>
+      <c r="F4" s="19" cm="1">
         <f t="array" ref="F4">AVERAGE(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A4)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G4" s="19" t="e" cm="1">
+        <v>3.3759999999999999</v>
+      </c>
+      <c r="G4" s="19" cm="1">
         <f t="array" ref="G4">MEDIAN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A4)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>#NUM!</v>
+        <v>3.3759999999999999</v>
       </c>
       <c r="H4" s="22" t="e" cm="1">
         <f t="array" ref="H4">STDEV(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A4)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
@@ -32503,23 +33171,23 @@
       </c>
       <c r="I4" s="19" cm="1">
         <f t="array" ref="I4">COUNT(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A4)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="19" cm="1">
         <f t="array" ref="J4">MIN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A4)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>0</v>
+        <v>3.6749999999999998</v>
       </c>
       <c r="K4" s="19" cm="1">
         <f t="array" ref="K4">MAX(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A4)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="19" t="e" cm="1">
+        <v>3.6749999999999998</v>
+      </c>
+      <c r="L4" s="19" cm="1">
         <f t="array" ref="L4">AVERAGE(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A4)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M4" s="19" t="e" cm="1">
+        <v>3.6749999999999998</v>
+      </c>
+      <c r="M4" s="19" cm="1">
         <f t="array" ref="M4">MEDIAN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A4)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>#NUM!</v>
+        <v>3.6749999999999998</v>
       </c>
       <c r="N4" s="22" t="e" cm="1">
         <f t="array" ref="N4">STDEV(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A4)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
@@ -32549,21 +33217,21 @@
         <f t="array" ref="T4">STDEV(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A4)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B4)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U4" s="29" t="e">
+      <c r="U4" s="29">
         <f t="shared" ref="U4:U7" si="4">J4/D4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V4" s="3" t="e">
+        <v>1.0885663507109005</v>
+      </c>
+      <c r="V4" s="3">
         <f t="shared" ref="V4:Y7" si="5">K4/E4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W4" s="3" t="e">
+        <v>1.0885663507109005</v>
+      </c>
+      <c r="W4" s="3">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X4" s="3" t="e">
+        <v>1.0885663507109005</v>
+      </c>
+      <c r="X4" s="3">
         <f t="shared" si="5"/>
-        <v>#NUM!</v>
+        <v>1.0885663507109005</v>
       </c>
       <c r="Y4" s="4" t="e">
         <f t="shared" si="5"/>
@@ -32571,31 +33239,31 @@
       </c>
       <c r="Z4" s="26">
         <f t="shared" ref="Z4:Z8" si="6">J4-D4</f>
-        <v>0</v>
+        <v>0.29899999999999993</v>
       </c>
       <c r="AA4" s="24">
         <f t="shared" ref="AA4:AA8" si="7">K4-E4</f>
-        <v>0</v>
-      </c>
-      <c r="AB4" s="24" t="e">
+        <v>0.29899999999999993</v>
+      </c>
+      <c r="AB4" s="24">
         <f t="shared" ref="AB4:AB8" si="8">L4-F4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC4" s="24" t="e">
+        <v>0.29899999999999993</v>
+      </c>
+      <c r="AC4" s="24">
         <f t="shared" ref="AC4:AC8" si="9">M4-G4</f>
-        <v>#NUM!</v>
+        <v>0.29899999999999993</v>
       </c>
       <c r="AD4" s="27" t="e">
         <f t="shared" ref="AD4:AD8" si="10">N4-H4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE4" s="26" t="e">
+      <c r="AE4" s="26">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF4" s="24" t="e">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="24">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AG4" s="24" t="e">
         <f t="shared" si="0"/>
@@ -32611,11 +33279,11 @@
       </c>
       <c r="AJ4" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-3.3759999999999999</v>
       </c>
       <c r="AK4" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-3.3759999999999999</v>
       </c>
       <c r="AL4" s="24" t="e">
         <f t="shared" si="1"/>
@@ -32651,11 +33319,11 @@
       </c>
       <c r="AT4" s="26">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.6749999999999998</v>
       </c>
       <c r="AU4" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.6749999999999998</v>
       </c>
       <c r="AV4" s="24" t="e">
         <f t="shared" si="3"/>
@@ -32679,23 +33347,23 @@
       </c>
       <c r="C5" s="21" cm="1">
         <f t="array" ref="C5">COUNT(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A5)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="19" cm="1">
         <f t="array" ref="D5">MIN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A5)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>0</v>
+        <v>2.2410000000000001</v>
       </c>
       <c r="E5" s="19" cm="1">
         <f t="array" ref="E5">MAX(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A5)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="19" t="e" cm="1">
+        <v>2.2410000000000001</v>
+      </c>
+      <c r="F5" s="19" cm="1">
         <f t="array" ref="F5">AVERAGE(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A5)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G5" s="19" t="e" cm="1">
+        <v>2.2410000000000001</v>
+      </c>
+      <c r="G5" s="19" cm="1">
         <f t="array" ref="G5">MEDIAN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A5)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>#NUM!</v>
+        <v>2.2410000000000001</v>
       </c>
       <c r="H5" s="22" t="e" cm="1">
         <f t="array" ref="H5">STDEV(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A5)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
@@ -32703,23 +33371,23 @@
       </c>
       <c r="I5" s="19" cm="1">
         <f t="array" ref="I5">COUNT(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A5)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="19" cm="1">
         <f t="array" ref="J5">MIN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A5)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>0</v>
+        <v>2.2250000000000001</v>
       </c>
       <c r="K5" s="19" cm="1">
         <f t="array" ref="K5">MAX(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A5)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="19" t="e" cm="1">
+        <v>2.2250000000000001</v>
+      </c>
+      <c r="L5" s="19" cm="1">
         <f t="array" ref="L5">AVERAGE(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A5)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M5" s="19" t="e" cm="1">
+        <v>2.2250000000000001</v>
+      </c>
+      <c r="M5" s="19" cm="1">
         <f t="array" ref="M5">MEDIAN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A5)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>#NUM!</v>
+        <v>2.2250000000000001</v>
       </c>
       <c r="N5" s="22" t="e" cm="1">
         <f t="array" ref="N5">STDEV(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A5)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
@@ -32749,21 +33417,21 @@
         <f t="array" ref="T5">STDEV(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A5)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B5)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U5" s="29" t="e">
+      <c r="U5" s="29">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V5" s="3" t="e">
+        <v>0.99286033020972775</v>
+      </c>
+      <c r="V5" s="3">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W5" s="3" t="e">
+        <v>0.99286033020972775</v>
+      </c>
+      <c r="W5" s="3">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X5" s="3" t="e">
+        <v>0.99286033020972775</v>
+      </c>
+      <c r="X5" s="3">
         <f t="shared" si="5"/>
-        <v>#NUM!</v>
+        <v>0.99286033020972775</v>
       </c>
       <c r="Y5" s="4" t="e">
         <f t="shared" si="5"/>
@@ -32771,31 +33439,31 @@
       </c>
       <c r="Z5" s="26">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-1.6000000000000014E-2</v>
       </c>
       <c r="AA5" s="24">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB5" s="24" t="e">
+        <v>-1.6000000000000014E-2</v>
+      </c>
+      <c r="AB5" s="24">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC5" s="24" t="e">
+        <v>-1.6000000000000014E-2</v>
+      </c>
+      <c r="AC5" s="24">
         <f t="shared" si="9"/>
-        <v>#NUM!</v>
+        <v>-1.6000000000000014E-2</v>
       </c>
       <c r="AD5" s="27" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE5" s="26" t="e">
+      <c r="AE5" s="26">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF5" s="24" t="e">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="24">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AG5" s="24" t="e">
         <f t="shared" si="0"/>
@@ -32811,11 +33479,11 @@
       </c>
       <c r="AJ5" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-2.2410000000000001</v>
       </c>
       <c r="AK5" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-2.2410000000000001</v>
       </c>
       <c r="AL5" s="24" t="e">
         <f t="shared" si="1"/>
@@ -32851,11 +33519,11 @@
       </c>
       <c r="AT5" s="26">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.2250000000000001</v>
       </c>
       <c r="AU5" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.2250000000000001</v>
       </c>
       <c r="AV5" s="24" t="e">
         <f t="shared" si="3"/>
@@ -32879,23 +33547,23 @@
       </c>
       <c r="C6" s="21" cm="1">
         <f t="array" ref="C6">COUNT(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A6)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="19" cm="1">
         <f t="array" ref="D6">MIN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A6)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="E6" s="19" cm="1">
         <f t="array" ref="E6">MAX(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A6)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="19" t="e" cm="1">
+        <v>5.8</v>
+      </c>
+      <c r="F6" s="19" cm="1">
         <f t="array" ref="F6">AVERAGE(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A6)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G6" s="19" t="e" cm="1">
+        <v>5.8</v>
+      </c>
+      <c r="G6" s="19" cm="1">
         <f t="array" ref="G6">MEDIAN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A6)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>#NUM!</v>
+        <v>5.8</v>
       </c>
       <c r="H6" s="22" t="e" cm="1">
         <f t="array" ref="H6">STDEV(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A6)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
@@ -32903,23 +33571,23 @@
       </c>
       <c r="I6" s="19" cm="1">
         <f t="array" ref="I6">COUNT(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A6)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="19" cm="1">
         <f t="array" ref="J6">MIN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A6)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>0</v>
+        <v>7.1150000000000002</v>
       </c>
       <c r="K6" s="19" cm="1">
         <f t="array" ref="K6">MAX(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A6)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="19" t="e" cm="1">
+        <v>7.1150000000000002</v>
+      </c>
+      <c r="L6" s="19" cm="1">
         <f t="array" ref="L6">AVERAGE(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A6)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M6" s="19" t="e" cm="1">
+        <v>7.1150000000000002</v>
+      </c>
+      <c r="M6" s="19" cm="1">
         <f t="array" ref="M6">MEDIAN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A6)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>#NUM!</v>
+        <v>7.1150000000000002</v>
       </c>
       <c r="N6" s="22" t="e" cm="1">
         <f t="array" ref="N6">STDEV(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A6)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
@@ -32949,21 +33617,21 @@
         <f t="array" ref="T6">STDEV(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A6)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B6)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U6" s="29" t="e">
+      <c r="U6" s="29">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V6" s="3" t="e">
+        <v>1.2267241379310345</v>
+      </c>
+      <c r="V6" s="3">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W6" s="3" t="e">
+        <v>1.2267241379310345</v>
+      </c>
+      <c r="W6" s="3">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X6" s="3" t="e">
+        <v>1.2267241379310345</v>
+      </c>
+      <c r="X6" s="3">
         <f t="shared" si="5"/>
-        <v>#NUM!</v>
+        <v>1.2267241379310345</v>
       </c>
       <c r="Y6" s="4" t="e">
         <f t="shared" si="5"/>
@@ -32971,31 +33639,31 @@
       </c>
       <c r="Z6" s="26">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.3150000000000004</v>
       </c>
       <c r="AA6" s="24">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB6" s="24" t="e">
+        <v>1.3150000000000004</v>
+      </c>
+      <c r="AB6" s="24">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC6" s="24" t="e">
+        <v>1.3150000000000004</v>
+      </c>
+      <c r="AC6" s="24">
         <f t="shared" si="9"/>
-        <v>#NUM!</v>
+        <v>1.3150000000000004</v>
       </c>
       <c r="AD6" s="27" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE6" s="26" t="e">
+      <c r="AE6" s="26">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF6" s="24" t="e">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="24">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AG6" s="24" t="e">
         <f t="shared" si="0"/>
@@ -33011,11 +33679,11 @@
       </c>
       <c r="AJ6" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-5.8</v>
       </c>
       <c r="AK6" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-5.8</v>
       </c>
       <c r="AL6" s="24" t="e">
         <f t="shared" si="1"/>
@@ -33051,11 +33719,11 @@
       </c>
       <c r="AT6" s="26">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7.1150000000000002</v>
       </c>
       <c r="AU6" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7.1150000000000002</v>
       </c>
       <c r="AV6" s="24" t="e">
         <f t="shared" si="3"/>
@@ -33079,23 +33747,23 @@
       </c>
       <c r="C7" s="21" cm="1">
         <f t="array" ref="C7">COUNT(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A7)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="19" cm="1">
         <f t="array" ref="D7">MIN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A7)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>0</v>
+        <v>1.7869999999999999</v>
       </c>
       <c r="E7" s="19" cm="1">
         <f t="array" ref="E7">MAX(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A7)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="19" t="e" cm="1">
+        <v>1.7869999999999999</v>
+      </c>
+      <c r="F7" s="19" cm="1">
         <f t="array" ref="F7">AVERAGE(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A7)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G7" s="19" t="e" cm="1">
+        <v>1.7869999999999999</v>
+      </c>
+      <c r="G7" s="19" cm="1">
         <f t="array" ref="G7">MEDIAN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A7)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>#NUM!</v>
+        <v>1.7869999999999999</v>
       </c>
       <c r="H7" s="22" t="e" cm="1">
         <f t="array" ref="H7">STDEV(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A7)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
@@ -33103,23 +33771,23 @@
       </c>
       <c r="I7" s="19" cm="1">
         <f t="array" ref="I7">COUNT(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A7)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="19" cm="1">
         <f t="array" ref="J7">MIN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A7)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>0</v>
+        <v>3.7989999999999999</v>
       </c>
       <c r="K7" s="19" cm="1">
         <f t="array" ref="K7">MAX(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A7)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="19" t="e" cm="1">
+        <v>3.7989999999999999</v>
+      </c>
+      <c r="L7" s="19" cm="1">
         <f t="array" ref="L7">AVERAGE(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A7)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M7" s="19" t="e" cm="1">
+        <v>3.7989999999999999</v>
+      </c>
+      <c r="M7" s="19" cm="1">
         <f t="array" ref="M7">MEDIAN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A7)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>#NUM!</v>
+        <v>3.7989999999999999</v>
       </c>
       <c r="N7" s="22" t="e" cm="1">
         <f t="array" ref="N7">STDEV(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A7)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
@@ -33149,21 +33817,21 @@
         <f t="array" ref="T7">STDEV(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A7)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B7)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U7" s="29" t="e">
+      <c r="U7" s="29">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V7" s="3" t="e">
+        <v>2.1259093452714048</v>
+      </c>
+      <c r="V7" s="3">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W7" s="3" t="e">
+        <v>2.1259093452714048</v>
+      </c>
+      <c r="W7" s="3">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X7" s="3" t="e">
+        <v>2.1259093452714048</v>
+      </c>
+      <c r="X7" s="3">
         <f t="shared" si="5"/>
-        <v>#NUM!</v>
+        <v>2.1259093452714048</v>
       </c>
       <c r="Y7" s="4" t="e">
         <f t="shared" si="5"/>
@@ -33171,31 +33839,31 @@
       </c>
       <c r="Z7" s="26">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2.012</v>
       </c>
       <c r="AA7" s="24">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB7" s="24" t="e">
+        <v>2.012</v>
+      </c>
+      <c r="AB7" s="24">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC7" s="24" t="e">
+        <v>2.012</v>
+      </c>
+      <c r="AC7" s="24">
         <f t="shared" si="9"/>
-        <v>#NUM!</v>
+        <v>2.012</v>
       </c>
       <c r="AD7" s="27" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE7" s="26" t="e">
+      <c r="AE7" s="26">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF7" s="24" t="e">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="24">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AG7" s="24" t="e">
         <f t="shared" si="0"/>
@@ -33211,11 +33879,11 @@
       </c>
       <c r="AJ7" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1.7869999999999999</v>
       </c>
       <c r="AK7" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1.7869999999999999</v>
       </c>
       <c r="AL7" s="24" t="e">
         <f t="shared" si="1"/>
@@ -33251,11 +33919,11 @@
       </c>
       <c r="AT7" s="26">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.7989999999999999</v>
       </c>
       <c r="AU7" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.7989999999999999</v>
       </c>
       <c r="AV7" s="24" t="e">
         <f t="shared" si="3"/>
@@ -33279,23 +33947,23 @@
       </c>
       <c r="C8" s="21" cm="1">
         <f t="array" ref="C8">COUNT(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A8)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="19" cm="1">
         <f t="array" ref="D8">MIN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A8)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="E8" s="19" cm="1">
         <f t="array" ref="E8">MAX(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A8)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="19" t="e" cm="1">
+        <v>2.4</v>
+      </c>
+      <c r="F8" s="19" cm="1">
         <f t="array" ref="F8">AVERAGE(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A8)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G8" s="19" t="e" cm="1">
+        <v>2.4</v>
+      </c>
+      <c r="G8" s="19" cm="1">
         <f t="array" ref="G8">MEDIAN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A8)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>#NUM!</v>
+        <v>2.4</v>
       </c>
       <c r="H8" s="22" t="e" cm="1">
         <f t="array" ref="H8">STDEV(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A8)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
@@ -33303,23 +33971,23 @@
       </c>
       <c r="I8" s="19" cm="1">
         <f t="array" ref="I8">COUNT(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A8)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="19" cm="1">
         <f t="array" ref="J8">MIN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A8)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>0</v>
+        <v>4.8840000000000003</v>
       </c>
       <c r="K8" s="19" cm="1">
         <f t="array" ref="K8">MAX(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A8)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="19" t="e" cm="1">
+        <v>4.8840000000000003</v>
+      </c>
+      <c r="L8" s="19" cm="1">
         <f t="array" ref="L8">AVERAGE(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A8)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M8" s="19" t="e" cm="1">
+        <v>4.8840000000000003</v>
+      </c>
+      <c r="M8" s="19" cm="1">
         <f t="array" ref="M8">MEDIAN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A8)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>#NUM!</v>
+        <v>4.8840000000000003</v>
       </c>
       <c r="N8" s="22" t="e" cm="1">
         <f t="array" ref="N8">STDEV(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A8)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
@@ -33349,21 +34017,21 @@
         <f t="array" ref="T8">STDEV(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A8)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B8)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U8" s="29" t="e">
+      <c r="U8" s="29">
         <f t="shared" ref="U8" si="11">J8/D8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V8" s="3" t="e">
+        <v>2.0350000000000001</v>
+      </c>
+      <c r="V8" s="3">
         <f t="shared" ref="V8" si="12">K8/E8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W8" s="3" t="e">
+        <v>2.0350000000000001</v>
+      </c>
+      <c r="W8" s="3">
         <f t="shared" ref="W8" si="13">L8/F8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X8" s="3" t="e">
+        <v>2.0350000000000001</v>
+      </c>
+      <c r="X8" s="3">
         <f t="shared" ref="X8" si="14">M8/G8</f>
-        <v>#NUM!</v>
+        <v>2.0350000000000001</v>
       </c>
       <c r="Y8" s="4" t="e">
         <f t="shared" ref="Y8" si="15">N8/H8</f>
@@ -33371,31 +34039,31 @@
       </c>
       <c r="Z8" s="26">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2.4840000000000004</v>
       </c>
       <c r="AA8" s="24">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB8" s="24" t="e">
+        <v>2.4840000000000004</v>
+      </c>
+      <c r="AB8" s="24">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC8" s="24" t="e">
+        <v>2.4840000000000004</v>
+      </c>
+      <c r="AC8" s="24">
         <f t="shared" si="9"/>
-        <v>#NUM!</v>
+        <v>2.4840000000000004</v>
       </c>
       <c r="AD8" s="27" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE8" s="26" t="e">
+      <c r="AE8" s="26">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF8" s="24" t="e">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="24">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AG8" s="24" t="e">
         <f t="shared" si="0"/>
@@ -33411,11 +34079,11 @@
       </c>
       <c r="AJ8" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-2.4</v>
       </c>
       <c r="AK8" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-2.4</v>
       </c>
       <c r="AL8" s="24" t="e">
         <f t="shared" si="1"/>
@@ -33451,11 +34119,11 @@
       </c>
       <c r="AT8" s="26">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.8840000000000003</v>
       </c>
       <c r="AU8" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.8840000000000003</v>
       </c>
       <c r="AV8" s="24" t="e">
         <f t="shared" si="3"/>
@@ -33479,23 +34147,23 @@
       </c>
       <c r="C9" s="21" cm="1">
         <f t="array" ref="C9">COUNT(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A9)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B9)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="19" cm="1">
         <f t="array" ref="D9">MIN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A9)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B9)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>0</v>
+        <v>5.6360000000000001</v>
       </c>
       <c r="E9" s="19" cm="1">
         <f t="array" ref="E9">MAX(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A9)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B9)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="19" t="e" cm="1">
+        <v>5.6360000000000001</v>
+      </c>
+      <c r="F9" s="19" cm="1">
         <f t="array" ref="F9">AVERAGE(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A9)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B9)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G9" s="19" t="e" cm="1">
+        <v>5.6360000000000001</v>
+      </c>
+      <c r="G9" s="19" cm="1">
         <f t="array" ref="G9">MEDIAN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A9)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B9)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>#NUM!</v>
+        <v>5.6360000000000001</v>
       </c>
       <c r="H9" s="22" t="e" cm="1">
         <f t="array" ref="H9">STDEV(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A9)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B9)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
@@ -33503,23 +34171,23 @@
       </c>
       <c r="I9" s="19" cm="1">
         <f t="array" ref="I9">COUNT(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A9)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B9)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="19" cm="1">
         <f t="array" ref="J9">MIN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A9)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B9)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>0</v>
+        <v>6.8319999999999999</v>
       </c>
       <c r="K9" s="19" cm="1">
         <f t="array" ref="K9">MAX(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A9)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B9)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="19" t="e" cm="1">
+        <v>6.8319999999999999</v>
+      </c>
+      <c r="L9" s="19" cm="1">
         <f t="array" ref="L9">AVERAGE(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A9)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B9)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M9" s="19" t="e" cm="1">
+        <v>6.8319999999999999</v>
+      </c>
+      <c r="M9" s="19" cm="1">
         <f t="array" ref="M9">MEDIAN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A9)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B9)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>#NUM!</v>
+        <v>6.8319999999999999</v>
       </c>
       <c r="N9" s="22" t="e" cm="1">
         <f t="array" ref="N9">STDEV(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A9)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B9)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
@@ -33549,21 +34217,21 @@
         <f t="array" ref="T9">STDEV(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A9)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B9)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U9" s="3" t="e">
+      <c r="U9" s="3">
         <f t="shared" ref="U9:U12" si="16">J9/D9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V9" s="3" t="e">
+        <v>1.2122072391767211</v>
+      </c>
+      <c r="V9" s="3">
         <f t="shared" ref="V9:V12" si="17">K9/E9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W9" s="3" t="e">
+        <v>1.2122072391767211</v>
+      </c>
+      <c r="W9" s="3">
         <f t="shared" ref="W9:W12" si="18">L9/F9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X9" s="3" t="e">
+        <v>1.2122072391767211</v>
+      </c>
+      <c r="X9" s="3">
         <f t="shared" ref="X9:X12" si="19">M9/G9</f>
-        <v>#NUM!</v>
+        <v>1.2122072391767211</v>
       </c>
       <c r="Y9" s="4" t="e">
         <f t="shared" ref="Y9:Y12" si="20">N9/H9</f>
@@ -33571,31 +34239,31 @@
       </c>
       <c r="Z9" s="24">
         <f t="shared" ref="Z9:Z12" si="21">J9-D9</f>
-        <v>0</v>
+        <v>1.1959999999999997</v>
       </c>
       <c r="AA9" s="24">
         <f t="shared" ref="AA9:AA12" si="22">K9-E9</f>
-        <v>0</v>
-      </c>
-      <c r="AB9" s="24" t="e">
+        <v>1.1959999999999997</v>
+      </c>
+      <c r="AB9" s="24">
         <f t="shared" ref="AB9:AB12" si="23">L9-F9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC9" s="24" t="e">
+        <v>1.1959999999999997</v>
+      </c>
+      <c r="AC9" s="24">
         <f t="shared" ref="AC9:AC12" si="24">M9-G9</f>
-        <v>#NUM!</v>
+        <v>1.1959999999999997</v>
       </c>
       <c r="AD9" s="27" t="e">
         <f t="shared" ref="AD9:AD12" si="25">N9-H9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE9" s="24" t="e">
+      <c r="AE9" s="24">
         <f t="shared" ref="AE9:AE12" si="26">P9/D9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF9" s="24" t="e">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="24">
         <f t="shared" ref="AF9:AF12" si="27">Q9/E9</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AG9" s="24" t="e">
         <f t="shared" ref="AG9:AG12" si="28">R9/F9</f>
@@ -33611,11 +34279,11 @@
       </c>
       <c r="AJ9" s="24">
         <f t="shared" ref="AJ9:AJ12" si="31">P9-D9</f>
-        <v>0</v>
+        <v>-5.6360000000000001</v>
       </c>
       <c r="AK9" s="24">
         <f t="shared" ref="AK9:AK12" si="32">Q9-E9</f>
-        <v>0</v>
+        <v>-5.6360000000000001</v>
       </c>
       <c r="AL9" s="24" t="e">
         <f t="shared" ref="AL9:AL12" si="33">R9-F9</f>
@@ -33651,11 +34319,11 @@
       </c>
       <c r="AT9" s="24">
         <f t="shared" ref="AT9:AT12" si="41">J9 - P9</f>
-        <v>0</v>
+        <v>6.8319999999999999</v>
       </c>
       <c r="AU9" s="24">
         <f t="shared" ref="AU9:AU12" si="42">K9 - Q9</f>
-        <v>0</v>
+        <v>6.8319999999999999</v>
       </c>
       <c r="AV9" s="24" t="e">
         <f t="shared" ref="AV9:AV12" si="43">L9 - R9</f>
@@ -33679,23 +34347,23 @@
       </c>
       <c r="C10" s="21" cm="1">
         <f t="array" ref="C10">COUNT(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A10)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B10)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="19" cm="1">
         <f t="array" ref="D10">MIN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A10)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B10)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>0</v>
+        <v>2.532</v>
       </c>
       <c r="E10" s="19" cm="1">
         <f t="array" ref="E10">MAX(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A10)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B10)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="19" t="e" cm="1">
+        <v>2.532</v>
+      </c>
+      <c r="F10" s="19" cm="1">
         <f t="array" ref="F10">AVERAGE(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A10)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B10)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G10" s="19" t="e" cm="1">
+        <v>2.532</v>
+      </c>
+      <c r="G10" s="19" cm="1">
         <f t="array" ref="G10">MEDIAN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A10)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B10)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>#NUM!</v>
+        <v>2.532</v>
       </c>
       <c r="H10" s="22" t="e" cm="1">
         <f t="array" ref="H10">STDEV(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A10)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B10)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
@@ -33703,23 +34371,23 @@
       </c>
       <c r="I10" s="19" cm="1">
         <f t="array" ref="I10">COUNT(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A10)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B10)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="19" cm="1">
         <f t="array" ref="J10">MIN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A10)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B10)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>0</v>
+        <v>3.1619999999999999</v>
       </c>
       <c r="K10" s="19" cm="1">
         <f t="array" ref="K10">MAX(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A10)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B10)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="19" t="e" cm="1">
+        <v>3.1619999999999999</v>
+      </c>
+      <c r="L10" s="19" cm="1">
         <f t="array" ref="L10">AVERAGE(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A10)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B10)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M10" s="19" t="e" cm="1">
+        <v>3.1619999999999999</v>
+      </c>
+      <c r="M10" s="19" cm="1">
         <f t="array" ref="M10">MEDIAN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A10)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B10)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>#NUM!</v>
+        <v>3.1619999999999999</v>
       </c>
       <c r="N10" s="22" t="e" cm="1">
         <f t="array" ref="N10">STDEV(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A10)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B10)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
@@ -33749,21 +34417,21 @@
         <f t="array" ref="T10">STDEV(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A10)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B10)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U10" s="3" t="e">
+      <c r="U10" s="3">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V10" s="3" t="e">
+        <v>1.2488151658767772</v>
+      </c>
+      <c r="V10" s="3">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W10" s="3" t="e">
+        <v>1.2488151658767772</v>
+      </c>
+      <c r="W10" s="3">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X10" s="3" t="e">
+        <v>1.2488151658767772</v>
+      </c>
+      <c r="X10" s="3">
         <f t="shared" si="19"/>
-        <v>#NUM!</v>
+        <v>1.2488151658767772</v>
       </c>
       <c r="Y10" s="4" t="e">
         <f t="shared" si="20"/>
@@ -33771,31 +34439,31 @@
       </c>
       <c r="Z10" s="24">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>0.62999999999999989</v>
       </c>
       <c r="AA10" s="24">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AB10" s="24" t="e">
+        <v>0.62999999999999989</v>
+      </c>
+      <c r="AB10" s="24">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC10" s="24" t="e">
+        <v>0.62999999999999989</v>
+      </c>
+      <c r="AC10" s="24">
         <f t="shared" si="24"/>
-        <v>#NUM!</v>
+        <v>0.62999999999999989</v>
       </c>
       <c r="AD10" s="27" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE10" s="24" t="e">
+      <c r="AE10" s="24">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF10" s="24" t="e">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="24">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AG10" s="24" t="e">
         <f t="shared" si="28"/>
@@ -33811,11 +34479,11 @@
       </c>
       <c r="AJ10" s="24">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>-2.532</v>
       </c>
       <c r="AK10" s="24">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>-2.532</v>
       </c>
       <c r="AL10" s="24" t="e">
         <f t="shared" si="33"/>
@@ -33851,11 +34519,11 @@
       </c>
       <c r="AT10" s="24">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>3.1619999999999999</v>
       </c>
       <c r="AU10" s="24">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>3.1619999999999999</v>
       </c>
       <c r="AV10" s="24" t="e">
         <f t="shared" si="43"/>
@@ -33879,23 +34547,23 @@
       </c>
       <c r="C11" s="21" cm="1">
         <f t="array" ref="C11">COUNT(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A11)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B11)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="19" cm="1">
         <f t="array" ref="D11">MIN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A11)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B11)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>0</v>
+        <v>5.4189999999999996</v>
       </c>
       <c r="E11" s="19" cm="1">
         <f t="array" ref="E11">MAX(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A11)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B11)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="19" t="e" cm="1">
+        <v>5.4189999999999996</v>
+      </c>
+      <c r="F11" s="19" cm="1">
         <f t="array" ref="F11">AVERAGE(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A11)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B11)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G11" s="19" t="e" cm="1">
+        <v>5.4189999999999996</v>
+      </c>
+      <c r="G11" s="19" cm="1">
         <f t="array" ref="G11">MEDIAN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A11)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B11)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>#NUM!</v>
+        <v>5.4189999999999996</v>
       </c>
       <c r="H11" s="22" t="e" cm="1">
         <f t="array" ref="H11">STDEV(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A11)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B11)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
@@ -33903,23 +34571,23 @@
       </c>
       <c r="I11" s="19" cm="1">
         <f t="array" ref="I11">COUNT(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A11)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B11)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="19" cm="1">
         <f t="array" ref="J11">MIN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A11)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B11)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>0</v>
+        <v>5.2069999999999999</v>
       </c>
       <c r="K11" s="19" cm="1">
         <f t="array" ref="K11">MAX(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A11)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B11)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="19" t="e" cm="1">
+        <v>5.2069999999999999</v>
+      </c>
+      <c r="L11" s="19" cm="1">
         <f t="array" ref="L11">AVERAGE(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A11)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B11)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M11" s="19" t="e" cm="1">
+        <v>5.2069999999999999</v>
+      </c>
+      <c r="M11" s="19" cm="1">
         <f t="array" ref="M11">MEDIAN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A11)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B11)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>#NUM!</v>
+        <v>5.2069999999999999</v>
       </c>
       <c r="N11" s="22" t="e" cm="1">
         <f t="array" ref="N11">STDEV(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A11)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B11)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
@@ -33949,21 +34617,21 @@
         <f t="array" ref="T11">STDEV(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A11)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B11)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U11" s="3" t="e">
+      <c r="U11" s="3">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V11" s="3" t="e">
+        <v>0.96087839084701976</v>
+      </c>
+      <c r="V11" s="3">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W11" s="3" t="e">
+        <v>0.96087839084701976</v>
+      </c>
+      <c r="W11" s="3">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X11" s="3" t="e">
+        <v>0.96087839084701976</v>
+      </c>
+      <c r="X11" s="3">
         <f t="shared" si="19"/>
-        <v>#NUM!</v>
+        <v>0.96087839084701976</v>
       </c>
       <c r="Y11" s="4" t="e">
         <f t="shared" si="20"/>
@@ -33971,31 +34639,31 @@
       </c>
       <c r="Z11" s="24">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>-0.21199999999999974</v>
       </c>
       <c r="AA11" s="24">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AB11" s="24" t="e">
+        <v>-0.21199999999999974</v>
+      </c>
+      <c r="AB11" s="24">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC11" s="24" t="e">
+        <v>-0.21199999999999974</v>
+      </c>
+      <c r="AC11" s="24">
         <f t="shared" si="24"/>
-        <v>#NUM!</v>
+        <v>-0.21199999999999974</v>
       </c>
       <c r="AD11" s="27" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE11" s="24" t="e">
+      <c r="AE11" s="24">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF11" s="24" t="e">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="24">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AG11" s="24" t="e">
         <f t="shared" si="28"/>
@@ -34011,11 +34679,11 @@
       </c>
       <c r="AJ11" s="24">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>-5.4189999999999996</v>
       </c>
       <c r="AK11" s="24">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>-5.4189999999999996</v>
       </c>
       <c r="AL11" s="24" t="e">
         <f t="shared" si="33"/>
@@ -34051,11 +34719,11 @@
       </c>
       <c r="AT11" s="24">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>5.2069999999999999</v>
       </c>
       <c r="AU11" s="24">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>5.2069999999999999</v>
       </c>
       <c r="AV11" s="24" t="e">
         <f t="shared" si="43"/>
@@ -34079,23 +34747,23 @@
       </c>
       <c r="C12" s="21" cm="1">
         <f t="array" ref="C12">COUNT(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A12)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B12)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="19" cm="1">
         <f t="array" ref="D12">MIN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A12)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B12)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>0</v>
+        <v>4.5259999999999998</v>
       </c>
       <c r="E12" s="19" cm="1">
         <f t="array" ref="E12">MAX(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A12)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B12)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="19" t="e" cm="1">
+        <v>4.5259999999999998</v>
+      </c>
+      <c r="F12" s="19" cm="1">
         <f t="array" ref="F12">AVERAGE(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A12)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B12)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G12" s="19" t="e" cm="1">
+        <v>4.5259999999999998</v>
+      </c>
+      <c r="G12" s="19" cm="1">
         <f t="array" ref="G12">MEDIAN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A12)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B12)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>#NUM!</v>
+        <v>4.5259999999999998</v>
       </c>
       <c r="H12" s="22" t="e" cm="1">
         <f t="array" ref="H12">STDEV(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A12)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B12)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Local"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
@@ -34103,23 +34771,23 @@
       </c>
       <c r="I12" s="19" cm="1">
         <f t="array" ref="I12">COUNT(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A12)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B12)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="19" cm="1">
         <f t="array" ref="J12">MIN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A12)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B12)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>0</v>
+        <v>5.5060000000000002</v>
       </c>
       <c r="K12" s="19" cm="1">
         <f t="array" ref="K12">MAX(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A12)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B12)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="19" t="e" cm="1">
+        <v>5.5060000000000002</v>
+      </c>
+      <c r="L12" s="19" cm="1">
         <f t="array" ref="L12">AVERAGE(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A12)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B12)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M12" s="19" t="e" cm="1">
+        <v>5.5060000000000002</v>
+      </c>
+      <c r="M12" s="19" cm="1">
         <f t="array" ref="M12">MEDIAN(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A12)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B12)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
-        <v>#NUM!</v>
+        <v>5.5060000000000002</v>
       </c>
       <c r="N12" s="22" t="e" cm="1">
         <f t="array" ref="N12">STDEV(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A12)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B12)*('ibbs-web-app-metrics'!$B$2:$B$9999="Local")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
@@ -34149,21 +34817,21 @@
         <f t="array" ref="T12">STDEV(IF(('ibbs-web-app-metrics'!$F$2:$F$9999=$A12)*('ibbs-web-app-metrics'!$G$2:$G$9999=$B12)*('ibbs-web-app-metrics'!$B$2:$B$9999="Remote")*('ibbs-web-app-metrics'!$C$2:$C$9999="Remote"), 'ibbs-web-app-metrics'!$J$2:$J$9999))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U12" s="3" t="e">
+      <c r="U12" s="3">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V12" s="3" t="e">
+        <v>1.2165267344233319</v>
+      </c>
+      <c r="V12" s="3">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W12" s="3" t="e">
+        <v>1.2165267344233319</v>
+      </c>
+      <c r="W12" s="3">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X12" s="3" t="e">
+        <v>1.2165267344233319</v>
+      </c>
+      <c r="X12" s="3">
         <f t="shared" si="19"/>
-        <v>#NUM!</v>
+        <v>1.2165267344233319</v>
       </c>
       <c r="Y12" s="4" t="e">
         <f t="shared" si="20"/>
@@ -34171,31 +34839,31 @@
       </c>
       <c r="Z12" s="24">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>0.98000000000000043</v>
       </c>
       <c r="AA12" s="24">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AB12" s="24" t="e">
+        <v>0.98000000000000043</v>
+      </c>
+      <c r="AB12" s="24">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC12" s="24" t="e">
+        <v>0.98000000000000043</v>
+      </c>
+      <c r="AC12" s="24">
         <f t="shared" si="24"/>
-        <v>#NUM!</v>
+        <v>0.98000000000000043</v>
       </c>
       <c r="AD12" s="27" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE12" s="24" t="e">
+      <c r="AE12" s="24">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF12" s="24" t="e">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="24">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AG12" s="24" t="e">
         <f t="shared" si="28"/>
@@ -34211,11 +34879,11 @@
       </c>
       <c r="AJ12" s="24">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>-4.5259999999999998</v>
       </c>
       <c r="AK12" s="24">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>-4.5259999999999998</v>
       </c>
       <c r="AL12" s="24" t="e">
         <f t="shared" si="33"/>
@@ -34251,11 +34919,11 @@
       </c>
       <c r="AT12" s="24">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>5.5060000000000002</v>
       </c>
       <c r="AU12" s="24">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>5.5060000000000002</v>
       </c>
       <c r="AV12" s="24" t="e">
         <f t="shared" si="43"/>

--- a/performance metrics/ibbs-web-app-metrics-combined.xlsx
+++ b/performance metrics/ibbs-web-app-metrics-combined.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesse.abdul\Documents\Version Control\Git\ibbs-web-app-metrics\performance metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1031E9EB-D808-42C8-A30E-D2DF4B0AF7A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8EAB22-23E3-4192-AD45-C716868A339A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2595" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="2595" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ibbs-web-app-metrics" sheetId="1" r:id="rId1"/>
@@ -1886,12 +1886,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1899,6 +1893,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2258,9 +2258,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L9999"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:L31"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2269,7 +2269,7 @@
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" style="9" customWidth="1"/>
     <col min="6" max="7" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="8"/>
     <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
@@ -2311,7 +2311,7 @@
       <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -42941,7 +42941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AX64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
+    <sheetView topLeftCell="A19" zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -42957,30 +42957,30 @@
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="35" t="s">
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="35" t="s">
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="37"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="35"/>
       <c r="U1" s="30" t="s">
         <v>32</v>
       </c>
@@ -45177,14 +45177,14 @@
       </c>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="37"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="35"/>
       <c r="U14" s="30" t="s">
         <v>42</v>
       </c>
@@ -46865,14 +46865,14 @@
       </c>
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="37"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="35"/>
       <c r="I27" s="30" t="s">
         <v>48</v>
       </c>
@@ -48997,14 +48997,14 @@
       </c>
     </row>
     <row r="40" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="C40" s="35" t="s">
+      <c r="C40" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="37"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="35"/>
       <c r="U40" s="30" t="s">
         <v>55</v>
       </c>
@@ -50685,14 +50685,14 @@
       </c>
     </row>
     <row r="53" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="C53" s="35" t="s">
+      <c r="C53" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="37"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="35"/>
       <c r="U53" s="30" t="s">
         <v>61</v>
       </c>
@@ -52374,18 +52374,19 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="AT40:AX40"/>
-    <mergeCell ref="U53:Y53"/>
-    <mergeCell ref="Z53:AD53"/>
-    <mergeCell ref="AE53:AI53"/>
-    <mergeCell ref="AJ53:AN53"/>
-    <mergeCell ref="AO53:AS53"/>
-    <mergeCell ref="AT53:AX53"/>
-    <mergeCell ref="U40:Y40"/>
-    <mergeCell ref="Z40:AD40"/>
-    <mergeCell ref="AE40:AI40"/>
-    <mergeCell ref="AJ40:AN40"/>
-    <mergeCell ref="AO40:AS40"/>
+    <mergeCell ref="AT1:AX1"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="Z1:AD1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="AE1:AI1"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="AO1:AS1"/>
     <mergeCell ref="AT14:AX14"/>
     <mergeCell ref="I27:M27"/>
     <mergeCell ref="O27:S27"/>
@@ -52400,19 +52401,18 @@
     <mergeCell ref="AE14:AI14"/>
     <mergeCell ref="AJ14:AN14"/>
     <mergeCell ref="AO14:AS14"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C27:H27"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="AO1:AS1"/>
-    <mergeCell ref="AT1:AX1"/>
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="Z1:AD1"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="O1:T1"/>
-    <mergeCell ref="AE1:AI1"/>
-    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="AT40:AX40"/>
+    <mergeCell ref="U53:Y53"/>
+    <mergeCell ref="Z53:AD53"/>
+    <mergeCell ref="AE53:AI53"/>
+    <mergeCell ref="AJ53:AN53"/>
+    <mergeCell ref="AO53:AS53"/>
+    <mergeCell ref="AT53:AX53"/>
+    <mergeCell ref="U40:Y40"/>
+    <mergeCell ref="Z40:AD40"/>
+    <mergeCell ref="AE40:AI40"/>
+    <mergeCell ref="AJ40:AN40"/>
+    <mergeCell ref="AO40:AS40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
